--- a/what/ekonomi/df_result_lda.xlsx
+++ b/what/ekonomi/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['miliar', 'universitas', 'mahasiswa', 'produksi', 'digital', 'kondisi', 'dunia', 'usaha', 'kebijakan', 'ekspor', 'keuangan', 'persen', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'jakarta', 'pelaku_umkm', 'nasional', 'pertumbuhan', 'investasi', 'mendorong', 'data', 'angka', 'umkm', 'kegiatan', 'produk', 'ekonomi', 'impor', 'sektor', 'memiliki', 'kementerian', 'resesi', 'global', 'inflasi', 'hasil', 'china', 'perekonomian']</t>
+          <t>['china', 'investasi', 'indonesia', 'memiliki', 'angka', 'nasional', 'sektor', 'persen', 'kebijakan', 'miliar', 'mendorong', 'usaha', 'negara', 'inflasi', 'hasil', 'mahasiswa', 'data', 'pelaku_umkm', 'pertumbuhan', 'global', 'jakarta', 'kementerian', 'pertumbuhan_ekonomi', 'bank', 'keuangan', 'resesi', 'negeri', 'umkm', 'dunia', 'universitas', 'kondisi', 'produk', 'ekonomi', 'perekonomian', 'kegiatan', 'digital', 'impor', 'produksi', 'ekspor']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['keuangan', 'kerja', 'perusahaan', 'masuk', 'proses', 'produk', 'aplikasi', 'bisnis', 'transaksi', 'indonesia', 'kondisi', 'teknologi', 'industri', 'ekonomi', 'usaha', 'pandemi', 'digitalisasi', 'langsung']</t>
+          <t>['ekonomi', 'kondisi', 'keuangan', 'indonesia', 'digitalisasi', 'industri', 'bisnis', 'kerja', 'pandemi', 'langsung', 'aplikasi', 'transaksi', 'perusahaan', 'teknologi', 'produk', 'proses', 'masuk', 'usaha']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['meningkatkan', 'acara', 'program', 'pelatihan', 'ekonomi', 'pengembangan']</t>
+          <t>['ekonomi', 'program', 'pengembangan', 'meningkatkan', 'pelatihan', 'acara']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['masuk', 'pembangunan', 'mengaku', 'politik', 'ekonomi', 'jakarta', 'berharap']</t>
+          <t>['mengaku', 'ekonomi', 'berharap', 'politik', 'jakarta', 'pembangunan', 'masuk']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['rumah', 'produksi', 'proses', 'kondisi', 'usaha', 'online', 'ekspor', 'perusahaan', 'persen', 'bank', 'indonesia', 'umkm', 'petani', 'ekonomi', 'keluarga', 'langsung', 'mendukung', 'memiliki', 'bisnis', 'hasil', 'hidup']</t>
+          <t>['indonesia', 'memiliki', 'langsung', 'petani', 'perusahaan', 'persen', 'usaha', 'hasil', 'proses', 'rumah', 'bank', 'umkm', 'kondisi', 'keluarga', 'ekonomi', 'online', 'mendukung', 'hidup', 'produksi', 'ekspor', 'bisnis']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['daerah', 'nasional', 'investasi', 'pembangunan', 'kegiatan', 'memiliki', 'indonesia', 'negara', 'ekonomi', 'negeri', 'usaha']</t>
+          <t>['ekonomi', 'investasi', 'indonesia', 'kegiatan', 'negeri', 'memiliki', 'nasional', 'negara', 'pembangunan', 'daerah', 'usaha']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['langsung', 'pelaku_umkm', 'pertumbuhan', 'mendorong', 'memiliki', 'informasi', 'indonesia', 'layanan', 'wisata', 'ekonomi', 'jawa', 'berharap', 'warga']</t>
+          <t>['ekonomi', 'informasi', 'layanan', 'warga', 'indonesia', 'berharap', 'memiliki', 'pelaku_umkm', 'wisata', 'langsung', 'pertumbuhan', 'mendorong', 'jawa']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'produksi', 'kondisi', 'dunia', 'covid', 'keuangan', 'perusahaan', 'persen', 'indonesia', 'negara', 'pandemi', 'kerja', 'nasional', 'pertumbuhan', 'ton', 'harga', 'industri', 'ekonomi', 'mendukung', 'bisnis', 'resesi', 'inflasi', 'perekonomian']</t>
+          <t>['indonesia', 'nasional', 'pandemi', 'perusahaan', 'persen', 'miliar', 'negara', 'inflasi', 'harga', 'kerja', 'pertumbuhan', 'keuangan', 'covid', 'resesi', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'industri', 'mendukung', 'ton', 'produksi', 'triliun', 'bisnis']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['produksi', 'saham', 'proses', 'pemerintah', 'perusahaan', 'bumn', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'jakarta', 'nasional', 'pertumbuhan', 'mendorong', 'program', 'transaksi', 'industri', 'ekonomi', 'infrastruktur', 'sektor', 'mendukung', 'pembangunan', 'memiliki', 'berharap']</t>
+          <t>['indonesia', 'program', 'memiliki', 'nasional', 'sektor', 'perusahaan', 'pembangunan', 'mendorong', 'negara', 'berharap', 'bumn', 'pertumbuhan', 'jakarta', 'proses', 'pertumbuhan_ekonomi', 'pasar', 'saham', 'infrastruktur', 'transaksi', 'pemerintah', 'ekonomi', 'industri', 'mendukung', 'produksi']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['kerja', 'nasional', 'kawasan', 'kegiatan', 'program', 'terkait', 'proses', 'jalan', 'indonesia', 'pelaku', 'ekonomi', 'koperasi', 'jawa']</t>
+          <t>['ekonomi', 'koperasi', 'indonesia', 'kegiatan', 'program', 'kerja', 'kawasan', 'pelaku', 'nasional', 'jalan', 'terkait', 'proses', 'jawa']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['universitas', 'sistem', 'masuk', 'produksi', 'kondisi', 'usaha', 'pemerintah', 'persen', 'pasar', 'indonesia', 'jakarta', 'hasil', 'nasional', 'konsumen', 'produk', 'informasi', 'harga', 'industri', 'ekonomi', 'langsung', 'bisnis', 'perdagangan', 'terkait']</t>
+          <t>['indonesia', 'nasional', 'langsung', 'persen', 'usaha', 'hasil', 'perdagangan', 'harga', 'terkait', 'jakarta', 'masuk', 'pasar', 'informasi', 'konsumen', 'universitas', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'industri', 'sistem', 'produksi', 'bisnis']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['jokowi', 'triliun', 'miliar', 'bumn', 'pertumbuhan', 'investasi', 'acara', 'terkait', 'program', 'pertumbuhan_ekonomi', 'produk', 'kementerian', 'indonesia', 'mengaku', 'bidang', 'ekonomi', 'negeri', 'pemerintah']</t>
+          <t>['pertumbuhan_ekonomi', 'mengaku', 'pemerintah', 'ekonomi', 'investasi', 'indonesia', 'program', 'jokowi', 'acara', 'bumn', 'negeri', 'pertumbuhan', 'produk', 'bidang', 'terkait', 'miliar', 'triliun', 'kementerian']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'keuangan', 'sosial', 'rumah', 'sekolah', 'kawasan', 'bantuan', 'memiliki', 'warga', 'jakarta', 'kondisi', 'mengaku', 'ekonomi', 'negeri', 'usaha', 'hidup', 'keluarga']</t>
+          <t>['mengaku', 'ekonomi', 'kondisi', 'rumah', 'warga', 'sosial', 'keuangan', 'negeri', 'lingkungan', 'memiliki', 'kawasan', 'sekolah', 'kerja', 'hidup', 'jakarta', 'keluarga', 'bantuan', 'usaha']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ekspor', 'universitas', 'sosial', 'pasar', 'pertumbuhan', 'kegiatan', 'pertumbuhan_ekonomi', 'indonesia', 'kondisi', 'teknologi', 'industri', 'ekonomi', 'hasil', 'pemerintah']</t>
+          <t>['pertumbuhan_ekonomi', 'hasil', 'pemerintah', 'ekonomi', 'universitas', 'kegiatan', 'sosial', 'indonesia', 'industri', 'pertumbuhan', 'teknologi', 'kondisi', 'ekspor', 'pasar']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ekspor', 'miliar', 'sistem', 'pasar', 'acara', 'program', 'bantuan', 'aplikasi', 'kementerian', 'informasi', 'harga', 'hasil', 'jawa', 'hidup', 'langsung']</t>
+          <t>['hasil', 'informasi', 'program', 'ekspor', 'harga', 'acara', 'kementerian', 'langsung', 'sistem', 'aplikasi', 'hidup', 'miliar', 'jawa', 'bantuan', 'pasar']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['bri', 'masuk', 'usaha', 'online', 'persen', 'pasar', 'sekolah', 'jalan', 'pelatihan', 'umkm', 'konsumen', 'program', 'kegiatan', 'produk', 'mengaku', 'bantuan', 'memiliki', 'kementerian', 'pembiayaan', 'china']</t>
+          <t>['china', 'program', 'memiliki', 'pembiayaan', 'sekolah', 'pelatihan', 'bri', 'persen', 'jalan', 'usaha', 'masuk', 'kementerian', 'pasar', 'konsumen', 'umkm', 'produk', 'mengaku', 'kegiatan', 'online', 'bantuan']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['sistem', 'acara', 'dunia', 'covid', 'usaha', 'online', 'pemerintah', 'ekspor', 'bumn', 'meningkatkan', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'pandemi', 'daerah', 'pelaku_umkm', 'pertumbuhan', 'investasi', 'mendorong', 'data', 'umkm', 'konsumen', 'kegiatan', 'produk', 'pelaku_usaha', 'ekonomi', 'impor', 'memiliki', 'perdagangan', 'kementerian', 'pelaku', 'terkait']</t>
+          <t>['investasi', 'indonesia', 'memiliki', 'pelaku', 'pandemi', 'mendorong', 'acara', 'usaha', 'negara', 'perdagangan', 'bumn', 'data', 'pelaku_umkm', 'pertumbuhan', 'terkait', 'daerah', 'pertumbuhan_ekonomi', 'kementerian', 'pasar', 'konsumen', 'covid', 'negeri', 'meningkatkan', 'umkm', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'online', 'impor', 'sistem', 'pelaku_usaha', 'ekspor']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['ekspor', 'produksi', 'ekonomi', 'mendorong', 'korban', 'data', 'covid', 'harga', 'industri', 'negara', 'china', 'perekonomian', 'kebijakan']</t>
+          <t>['china', 'ekonomi', 'perekonomian', 'covid', 'harga', 'korban', 'industri', 'data', 'kebijakan', 'produksi', 'mendorong', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['miliar', 'perusahaan', 'bantuan', 'jakarta', 'kementerian', 'jalan', 'indonesia', 'ekonomi', 'terkait']</t>
+          <t>['perusahaan', 'ekonomi', 'indonesia', 'jalan', 'terkait', 'jakarta', 'miliar', 'bantuan', 'kementerian']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['ekspor', 'triliun', 'miliar', 'nasional', 'investasi', 'acara', 'angka', 'produk', 'perdagangan', 'transaksi', 'resesi', 'dunia', 'indonesia', 'negara', 'ekonomi', 'negeri', 'china', 'online']</t>
+          <t>['china', 'ekonomi', 'investasi', 'online', 'indonesia', 'perdagangan', 'resesi', 'acara', 'negeri', 'angka', 'nasional', 'produk', 'transaksi', 'dunia', 'miliar', 'triliun', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['lingkungan', 'bri', 'nasabah', 'masuk', 'produksi', 'acara', 'proses', 'koperasi', 'usaha', 'online', 'keuangan', 'persen', 'meningkatkan', 'pasar', 'bank', 'terkait', 'indonesia', 'pelatihan', 'negara', 'negeri', 'jakarta', 'hasil', 'pelaku_umkm', 'nasional', 'mendorong', 'umkm', 'kegiatan', 'program', 'produk', 'transaksi', 'ekonomi', 'langsung', 'mendukung', 'memiliki', 'bisnis', 'kementerian', 'pembiayaan', 'perdagangan', 'bali']</t>
+          <t>['bali', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'nasional', 'langsung', 'pelatihan', 'bri', 'persen', 'mendorong', 'usaha', 'negara', 'hasil', 'perdagangan', 'lingkungan', 'pelaku_umkm', 'terkait', 'jakarta', 'proses', 'masuk', 'pasar', 'kementerian', 'bank', 'koperasi', 'keuangan', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'ekonomi', 'kegiatan', 'online', 'nasabah', 'mendukung', 'produksi', 'acara', 'bisnis']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['keuangan', 'kerja', 'perusahaan', 'nasabah', 'meningkatkan', 'investasi', 'digital', 'bisnis', 'indonesia', 'kondisi', 'layanan', 'ekonomi']</t>
+          <t>['ekonomi', 'layanan', 'investasi', 'indonesia', 'digital', 'keuangan', 'kerja', 'meningkatkan', 'nasabah', 'perusahaan', 'kondisi', 'bisnis']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['pasar', 'harga', 'layanan', 'jakarta', 'online']</t>
+          <t>['layanan', 'online', 'harga', 'jakarta', 'pasar']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['bri', 'rumah', 'produksi', 'acara', 'usaha', 'meningkatkan', 'pasar', 'bank', 'indonesia', 'pelatihan', 'negara', 'negeri', 'jakarta', 'kerja', 'kegiatan', 'program', 'informasi', 'pelaku_usaha', 'industri', 'mendukung', 'bisnis', 'berharap', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'pelatihan', 'bri', 'acara', 'negara', 'usaha', 'berharap', 'pengembangan', 'kerja', 'jakarta', 'pasar', 'informasi', 'rumah', 'bank', 'negeri', 'meningkatkan', 'kegiatan', 'industri', 'mendukung', 'produksi', 'pelaku_usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['jokowi', 'nasional', 'acara', 'mengaku', 'indonesia', 'kondisi', 'dunia', 'industri', 'ekonomi']</t>
+          <t>['mengaku', 'ekonomi', 'indonesia', 'jokowi', 'industri', 'nasional', 'dunia', 'kondisi', 'acara']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ekspor', 'keuangan', 'perusahaan', 'bumn', 'pasar', 'memiliki', 'indonesia', 'negara', 'jakarta']</t>
+          <t>['keuangan', 'indonesia', 'bumn', 'memiliki', 'negara', 'perusahaan', 'jakarta', 'ekspor', 'pasar']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['lingkungan', 'proses', 'kebijakan', 'pemerintah', 'ekspor', 'meningkatkan', 'jalan', 'indonesia', 'jakarta', 'negeri', 'hasil', 'upaya', 'mendorong', 'program', 'produk', 'industri', 'mendukung', 'pembangunan', 'bidang', 'berharap', 'terkait', 'perekonomian']</t>
+          <t>['indonesia', 'program', 'bidang', 'jalan', 'kebijakan', 'pembangunan', 'mendorong', 'hasil', 'berharap', 'lingkungan', 'upaya', 'terkait', 'jakarta', 'proses', 'negeri', 'meningkatkan', 'produk', 'pemerintah', 'perekonomian', 'industri', 'mendukung', 'ekspor']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['meningkatkan', 'pasar', 'program', 'aplikasi', 'bisnis', 'harga', 'ekonomi', 'jakarta', 'berharap', 'online']</t>
+          <t>['ekonomi', 'online', 'program', 'berharap', 'harga', 'meningkatkan', 'aplikasi', 'jakarta', 'pasar', 'bisnis']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['triliun', 'kondisi', 'dunia', 'pemerintah', 'keuangan', 'persen', 'bank', 'indonesia', 'negara', 'pandemi', 'upaya', 'nasional', 'pertumbuhan', 'angka', 'ekonomi', 'langsung', 'bidang', 'memiliki', 'kementerian', 'pembiayaan', 'perekonomian']</t>
+          <t>['indonesia', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'langsung', 'bidang', 'persen', 'negara', 'pertumbuhan', 'upaya', 'kementerian', 'bank', 'keuangan', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'triliun']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['nasabah', 'perbankan', 'digital', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'nasional', 'pertumbuhan', 'mendorong', 'produk', 'transaksi', 'ekonomi', 'bidang', 'bisnis', 'perdagangan', 'global', 'china', 'digitalisasi']</t>
+          <t>['china', 'indonesia', 'nasional', 'bidang', 'mendorong', 'negara', 'perdagangan', 'perbankan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'bank', 'transaksi', 'produk', 'digitalisasi', 'ekonomi', 'digital', 'nasabah', 'bisnis']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'masuk', 'acara', 'pemerintah', 'meningkatkan', 'indonesia', 'negara', 'upaya', 'daerah', 'investasi', 'kegiatan', 'produk', 'mengaku', 'transaksi', 'politik', 'ekonomi', 'keluarga', 'sektor', 'bisnis', 'perdagangan']</t>
+          <t>['investasi', 'indonesia', 'politik', 'sektor', 'miliar', 'negara', 'triliun', 'perdagangan', 'upaya', 'daerah', 'masuk', 'meningkatkan', 'transaksi', 'produk', 'keluarga', 'pemerintah', 'mengaku', 'ekonomi', 'kegiatan', 'acara', 'bisnis']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['upaya', 'triliun', 'miliar', 'sektor', 'perusahaan', 'meningkatkan', 'pertumbuhan', 'investasi', 'saham', 'memiliki', 'teknologi', 'pandemi', 'covid', 'ekonomi', 'terkait', 'china', 'pemerintah']</t>
+          <t>['china', 'perusahaan', 'pemerintah', 'ekonomi', 'investasi', 'covid', 'memiliki', 'meningkatkan', 'pandemi', 'saham', 'pertumbuhan', 'sektor', 'upaya', 'terkait', 'teknologi', 'miliar', 'triliun']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['sosial', 'pelaku_umkm', 'umkm', 'digital', 'konsumen', 'produk', 'pelaku_usaha', 'harga', 'usaha']</t>
+          <t>['sosial', 'digital', 'konsumen', 'harga', 'pelaku_umkm', 'umkm', 'produk', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ekspor', 'pasar', 'program', 'produk', 'perdagangan', 'informasi', 'aplikasi', 'kondisi', 'harga', 'negeri', 'kebijakan', 'hasil', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'informasi', 'program', 'perdagangan', 'harga', 'negeri', 'aplikasi', 'kebijakan', 'kondisi', 'produk', 'ekspor', 'pasar']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['upaya', 'triliun', 'perusahaan', 'daerah', 'nasional', 'produksi', 'pasar', 'pertumbuhan', 'pembangunan', 'ton', 'umkm', 'kegiatan', 'program', 'produk', 'indonesia', 'industri', 'ekonomi', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'ton', 'kegiatan', 'indonesia', 'program', 'industri', 'nasional', 'pertumbuhan', 'produk', 'umkm', 'upaya', 'perusahaan', 'produksi', 'pembangunan', 'daerah', 'triliun', 'pasar']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['saham', 'perbankan', 'proses', 'dunia', 'usaha', 'ekspor', 'meningkatkan', 'bank', 'indonesia', 'negara', 'negeri', 'pertumbuhan', 'mendorong', 'umkm', 'kegiatan', 'produk', 'transaksi', 'ekonomi', 'memiliki', 'bisnis', 'digitalisasi', 'global', 'berharap', 'perekonomian']</t>
+          <t>['indonesia', 'memiliki', 'mendorong', 'negara', 'usaha', 'berharap', 'perbankan', 'pertumbuhan', 'global', 'proses', 'bank', 'negeri', 'meningkatkan', 'saham', 'umkm', 'transaksi', 'dunia', 'produk', 'digitalisasi', 'ekonomi', 'perekonomian', 'kegiatan', 'ekspor', 'bisnis']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['nasabah', 'masuk', 'saham', 'perbankan', 'digital', 'proses', 'dunia', 'keuangan', 'perusahaan', 'bumn', 'meningkatkan', 'bank', 'jalan', 'indonesia', 'negara', 'kerja', 'investasi', 'mendorong', 'program', 'produk', 'transaksi', 'teknologi', 'infrastruktur', 'langsung', 'keluarga', 'sektor', 'bidang', 'memiliki', 'bisnis', 'pendidikan']</t>
+          <t>['investasi', 'indonesia', 'program', 'memiliki', 'langsung', 'bidang', 'sektor', 'jalan', 'perusahaan', 'mendorong', 'negara', 'bumn', 'perbankan', 'kerja', 'pendidikan', 'teknologi', 'proses', 'masuk', 'bank', 'keuangan', 'meningkatkan', 'saham', 'infrastruktur', 'dunia', 'transaksi', 'produk', 'keluarga', 'digital', 'nasabah', 'bisnis']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['lingkungan', 'upaya', 'persen', 'angka', 'umkm', 'program', 'bantuan', 'kondisi', 'hasil', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'program', 'angka', 'lingkungan', 'umkm', 'upaya', 'persen', 'kondisi', 'bantuan']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['lingkungan', 'sosial', 'bumn', 'investasi', 'ekonomi', 'hidup']</t>
+          <t>['ekonomi', 'investasi', 'sosial', 'bumn', 'lingkungan', 'hidup']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['lingkungan', 'produksi', 'digital', 'dunia', 'covid', 'usaha', 'pemerintah', 'meningkatkan', 'bank', 'pertumbuhan_ekonomi', 'jalan', 'indonesia', 'pelatihan', 'negara', 'negeri', 'pandemi', 'kerja', 'nasional', 'pertumbuhan', 'mendorong', 'angka', 'data', 'umkm', 'program', 'produk', 'pelaku_usaha', 'teknologi', 'industri', 'ekonomi', 'langsung', 'sektor', 'mendukung', 'pembangunan', 'bidang', 'bantuan', 'pembiayaan', 'resesi', 'inflasi', 'terkait', 'perekonomian', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'angka', 'pembiayaan', 'nasional', 'pandemi', 'langsung', 'bidang', 'sektor', 'pelatihan', 'jalan', 'pembangunan', 'mendorong', 'usaha', 'negara', 'inflasi', 'pengembangan', 'data', 'lingkungan', 'kerja', 'pertumbuhan', 'terkait', 'teknologi', 'pertumbuhan_ekonomi', 'bank', 'covid', 'resesi', 'negeri', 'meningkatkan', 'umkm', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'industri', 'mendukung', 'produksi', 'pelaku_usaha', 'bantuan']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['triliun', 'perusahaan', 'persen', 'pertumbuhan', 'umkm', 'digital', 'program', 'memiliki', 'bisnis', 'pelaku_usaha', 'pelatihan', 'layanan', 'hasil', 'usaha', 'digitalisasi', 'online', 'pengembangan']</t>
+          <t>['perusahaan', 'hasil', 'layanan', 'online', 'program', 'digital', 'triliun', 'digitalisasi', 'pengembangan', 'memiliki', 'bisnis', 'pertumbuhan', 'umkm', 'pelatihan', 'persen', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['kondisi', 'dunia', 'covid', 'kebijakan', 'pemerintah', 'ekspor', 'persen', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'pandemi', 'jokowi', 'pertumbuhan', 'investasi', 'mendorong', 'harga', 'ekonomi', 'langsung', 'memiliki', 'global', 'perekonomian']</t>
+          <t>['investasi', 'indonesia', 'memiliki', 'pandemi', 'langsung', 'persen', 'kebijakan', 'mendorong', 'negara', 'harga', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'bank', 'jokowi', 'covid', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'ekspor']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['kondisi', 'dunia', 'covid', 'kebijakan', 'ekspor', 'meningkatkan', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'pandemi', 'pertumbuhan', 'kawasan', 'ekonomi', 'sektor', 'bidang', 'memiliki', 'perdagangan', 'kementerian', 'resesi', 'global', 'inflasi', 'china', 'perekonomian']</t>
+          <t>['china', 'indonesia', 'memiliki', 'pandemi', 'bidang', 'sektor', 'kebijakan', 'negara', 'inflasi', 'perdagangan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'kementerian', 'pasar', 'covid', 'resesi', 'kawasan', 'meningkatkan', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'ekspor']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'bri', 'acara', 'koperasi', 'usaha', 'pemerintah', 'ekspor', 'persen', 'meningkatkan', 'indonesia', 'negara', 'negeri', 'jakarta', 'kerja', 'pelaku_umkm', 'investasi', 'mendorong', 'angka', 'umkm', 'kegiatan', 'produk', 'transaksi', 'mendukung', 'bisnis', 'pembiayaan', 'terkait']</t>
+          <t>['investasi', 'indonesia', 'angka', 'pembiayaan', 'bri', 'persen', 'miliar', 'mendorong', 'acara', 'usaha', 'negara', 'kerja', 'pelaku_umkm', 'terkait', 'jakarta', 'koperasi', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'pemerintah', 'kegiatan', 'mendukung', 'triliun', 'ekspor', 'bisnis']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['lingkungan', 'masuk', 'acara', 'kondisi', 'dunia', 'covid', 'ekspor', 'keuangan', 'indonesia', 'negara', 'jakarta', 'pandemi', 'pertumbuhan', 'investasi', 'harga', 'politik', 'ekonomi', 'global', 'china', 'perekonomian']</t>
+          <t>['china', 'investasi', 'indonesia', 'pandemi', 'politik', 'negara', 'harga', 'lingkungan', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'keuangan', 'covid', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'acara', 'ekspor']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['universitas', 'mahasiswa', 'nasional', 'kawasan', 'berharap', 'perdagangan', 'politik', 'indonesia', 'dunia', 'negara', 'ekonomi', 'negeri', 'china', 'kebijakan']</t>
+          <t>['china', 'ekonomi', 'indonesia', 'perdagangan', 'berharap', 'negeri', 'kawasan', 'nasional', 'mahasiswa', 'politik', 'dunia', 'kebijakan', 'universitas', 'negara']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['sistem', 'rumah', 'bank', 'memiliki', 'transaksi', 'indonesia', 'informasi', 'ekonomi', 'bali', 'china']</t>
+          <t>['china', 'ekonomi', 'informasi', 'bali', 'bank', 'rumah', 'indonesia', 'memiliki', 'sistem', 'transaksi']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'usaha', 'perusahaan', 'indonesia', 'negara', 'jakarta', 'negeri', 'upaya', 'kerja', 'jokowi', 'investasi', 'industri', 'ekonomi', 'sektor', 'perdagangan', 'kementerian', 'global', 'berharap', 'terkait', 'pengembangan']</t>
+          <t>['investasi', 'indonesia', 'sektor', 'perusahaan', 'miliar', 'negara', 'usaha', 'perdagangan', 'berharap', 'pengembangan', 'kerja', 'global', 'upaya', 'terkait', 'jakarta', 'kementerian', 'jokowi', 'negeri', 'ekonomi', 'industri', 'triliun']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['impor', 'kawasan', 'beras', 'aplikasi', 'jalan', 'indonesia', 'usaha', 'langsung']</t>
+          <t>['indonesia', 'impor', 'kawasan', 'langsung', 'beras', 'aplikasi', 'jalan', 'usaha']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'data', 'program', 'jakarta', 'informasi', 'ekonomi', 'terkait', 'usaha', 'pemerintah', 'kebijakan', 'langsung']</t>
+          <t>['pemerintah', 'ekonomi', 'informasi', 'rumah', 'program', 'data', 'langsung', 'terkait', 'kebijakan', 'jakarta', 'masuk', 'usaha']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['pertumbuhan', 'angka', 'pertumbuhan_ekonomi', 'resesi', 'indonesia', 'kondisi', 'dunia', 'informasi', 'ekonomi', 'perekonomian']</t>
+          <t>['ekonomi', 'informasi', 'perekonomian', 'indonesia', 'resesi', 'angka', 'pertumbuhan', 'dunia', 'kondisi', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['kerja', 'nasional', 'pertumbuhan', 'ekonomi', 'pertumbuhan_ekonomi', 'produk', 'kementerian', 'indonesia', 'inflasi', 'hasil', 'usaha', 'pemerintah']</t>
+          <t>['pertumbuhan_ekonomi', 'hasil', 'pemerintah', 'ekonomi', 'indonesia', 'kerja', 'nasional', 'pertumbuhan', 'inflasi', 'produk', 'usaha', 'kementerian']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'perusahaan', 'masuk', 'proses', 'indonesia', 'berharap', 'hasil', 'jawa', 'hidup']</t>
+          <t>['hasil', 'indonesia', 'berharap', 'kerja', 'lingkungan', 'perusahaan', 'hidup', 'proses', 'jawa', 'masuk']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['miliar', 'kondisi', 'covid', 'kebijakan', 'pemerintah', 'keuangan', 'persen', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'pandemi', 'nasional', 'pertumbuhan', 'transaksi', 'politik', 'ekonomi', 'warga', 'sektor', 'perdagangan', 'global', 'inflasi', 'hasil', 'perekonomian']</t>
+          <t>['indonesia', 'nasional', 'pandemi', 'politik', 'sektor', 'persen', 'kebijakan', 'miliar', 'negara', 'inflasi', 'hasil', 'perdagangan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'keuangan', 'covid', 'negeri', 'transaksi', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'warga']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['lingkungan', 'rumah', 'masuk', 'usaha', 'kebijakan', 'perusahaan', 'sekolah', 'indonesia', 'jakarta', 'negeri', 'daerah', 'nasional', 'industri', 'politik', 'ekonomi', 'warga', 'pembangunan', 'bidang', 'bantuan', 'memiliki', 'hidup', 'pendidikan']</t>
+          <t>['indonesia', 'memiliki', 'nasional', 'sekolah', 'bidang', 'politik', 'perusahaan', 'kebijakan', 'pembangunan', 'usaha', 'lingkungan', 'pendidikan', 'jakarta', 'daerah', 'masuk', 'rumah', 'negeri', 'ekonomi', 'warga', 'industri', 'hidup', 'bantuan']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['bri', 'nasabah', 'masuk', 'perbankan', 'digital', 'syariah', 'proses', 'usaha', 'online', 'pemerintah', 'bsi', 'keuangan', 'perusahaan', 'pengembangan', 'bsi_mobile', 'sekolah', 'bank', 'bank_syariah', 'jalan', 'indonesia', 'layanan', 'sosial', 'investasi', 'program', 'produk', 'transaksi', 'teknologi', 'informasi', 'ekonomi', 'keluarga', 'global', 'mendukung', 'memiliki', 'bisnis', 'pembiayaan', 'aplikasi', 'fitur', 'hasil', 'hidup', 'pendidikan']</t>
+          <t>['bsi', 'investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'sekolah', 'bri', 'jalan', 'perusahaan', 'usaha', 'hasil', 'layanan', 'sosial', 'pengembangan', 'perbankan', 'global', 'pendidikan', 'teknologi', 'proses', 'masuk', 'informasi', 'bank', 'keuangan', 'bsi_mobile', 'aplikasi', 'transaksi', 'produk', 'keluarga', 'pemerintah', 'ekonomi', 'bank_syariah', 'online', 'digital', 'fitur', 'nasabah', 'mendukung', 'syariah', 'hidup', 'bisnis']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['ekspor', 'jokowi', 'langsung', 'bumn', 'indonesia', 'industri', 'negara', 'negeri', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'indonesia', 'jokowi', 'bumn', 'negeri', 'industri', 'langsung', 'kebijakan', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['nasional', 'produksi', 'mendukung', 'pembangunan', 'kegiatan', 'proses', 'kementerian', 'ekonomi', 'jakarta', 'jawa']</t>
+          <t>['produksi', 'ekonomi', 'kegiatan', 'nasional', 'mendukung', 'jakarta', 'pembangunan', 'proses', 'jawa', 'kementerian']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['sosial', 'jalan', 'kondisi', 'ekonomi', 'hidup', 'warga']</t>
+          <t>['ekonomi', 'warga', 'sosial', 'jalan', 'hidup', 'kondisi']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['triliun', 'digital', 'proses', 'dunia', 'usaha', 'pemerintah', 'keuangan', 'perusahaan', 'persen', 'meningkatkan', 'bank', 'pertumbuhan_ekonomi', 'jalan', 'indonesia', 'layanan', 'pandemi', 'upaya', 'nasional', 'pertumbuhan', 'investasi', 'mendorong', 'data', 'konsumen', 'program', 'produk', 'transaksi', 'pelaku_usaha', 'teknologi', 'informasi', 'industri', 'infrastruktur', 'ekonomi', 'keluarga', 'sektor', 'mendukung', 'pembangunan', 'bidang', 'memiliki', 'bisnis', 'kementerian', 'digitalisasi', 'pelaku', 'global', 'berharap', 'terkait', 'perekonomian', 'pendidikan']</t>
+          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pelaku', 'pandemi', 'nasional', 'bidang', 'sektor', 'jalan', 'persen', 'perusahaan', 'pembangunan', 'mendorong', 'usaha', 'layanan', 'triliun', 'berharap', 'data', 'pertumbuhan', 'global', 'upaya', 'pendidikan', 'terkait', 'teknologi', 'proses', 'kementerian', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'keuangan', 'konsumen', 'meningkatkan', 'infrastruktur', 'transaksi', 'dunia', 'produk', 'keluarga', 'digitalisasi', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'industri', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['upaya', 'persen', 'nasional', 'pertumbuhan', 'bank', 'program', 'jakarta', 'aplikasi', 'transaksi', 'indonesia', 'informasi', 'harga', 'layanan', 'ekonomi', 'industri', 'berharap', 'online', 'bali']</t>
+          <t>['ekonomi', 'informasi', 'layanan', 'bali', 'bank', 'upaya', 'indonesia', 'berharap', 'harga', 'program', 'industri', 'online', 'nasional', 'pertumbuhan', 'aplikasi', 'transaksi', 'persen', 'jakarta']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['sistem', 'daerah', 'layanan', 'umkm', 'terkait', 'aplikasi', 'warga', 'jalan', 'indonesia', 'harga', 'negara', 'wisata', 'negeri', 'jawa', 'pemerintah']</t>
+          <t>['pemerintah', 'layanan', 'warga', 'indonesia', 'harga', 'negeri', 'wisata', 'sistem', 'umkm', 'aplikasi', 'jalan', 'terkait', 'daerah', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['impor', 'ekspor', 'miliar', 'keuangan', 'persen', 'pertumbuhan', 'ekonomi', 'perdagangan', 'indonesia', 'dunia', 'inflasi', 'perekonomian']</t>
+          <t>['ekonomi', 'perekonomian', 'keuangan', 'indonesia', 'perdagangan', 'impor', 'pertumbuhan', 'dunia', 'persen', 'miliar', 'ekspor', 'inflasi']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['ekspor', 'kerja', 'investasi', 'terkait', 'program', 'mengaku', 'perdagangan', 'indonesia', 'dunia', 'negara', 'bali', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'mengaku', 'bali', 'investasi', 'indonesia', 'program', 'perdagangan', 'kerja', 'dunia', 'terkait', 'kebijakan', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['perusahaan', 'persen', 'bank', 'indonesia', 'jakarta', 'hasil', 'upaya', 'sosial', 'ton', 'konsumen', 'kegiatan', 'produk', 'industri', 'ekonomi', 'infrastruktur', 'bidang', 'bisnis', 'bali', 'jawa']</t>
+          <t>['bali', 'indonesia', 'bidang', 'perusahaan', 'persen', 'hasil', 'sosial', 'upaya', 'jakarta', 'jawa', 'bank', 'konsumen', 'infrastruktur', 'produk', 'ekonomi', 'kegiatan', 'industri', 'ton', 'bisnis']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['lingkungan', 'universitas', 'mahasiswa', 'nasabah', 'perbankan', 'digital', 'syariah', 'dunia', 'usaha', 'pemerintah', 'bsi', 'keuangan', 'meningkatkan', 'pengembangan', 'bsi_mobile', 'bank', 'bank_syariah', 'indonesia', 'layanan', 'negeri', 'upaya', 'jokowi', 'mendorong', 'program', 'produk', 'transaksi', 'industri', 'ekonomi', 'mendukung', 'memiliki', 'aplikasi', 'global', 'hasil', 'pendidikan']</t>
+          <t>['bsi', 'indonesia', 'program', 'memiliki', 'mendorong', 'usaha', 'hasil', 'layanan', 'pengembangan', 'mahasiswa', 'lingkungan', 'perbankan', 'global', 'upaya', 'pendidikan', 'bank', 'keuangan', 'jokowi', 'negeri', 'meningkatkan', 'bsi_mobile', 'aplikasi', 'dunia', 'transaksi', 'universitas', 'produk', 'pemerintah', 'ekonomi', 'bank_syariah', 'digital', 'industri', 'nasabah', 'mendukung', 'syariah']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['persen', 'pertumbuhan', 'ekonomi', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'dunia', 'inflasi']</t>
+          <t>['ekonomi', 'bank', 'indonesia', 'pertumbuhan', 'inflasi', 'dunia', 'persen', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['miliar', 'dunia', 'ekspor', 'persen', 'indonesia', 'negara', 'negeri', 'upaya', 'jokowi', 'investasi', 'mendorong', 'kawasan', 'kegiatan', 'informasi', 'ekonomi', 'langsung', 'impor', 'sektor', 'mendukung', 'pembangunan', 'bidang', 'perdagangan', 'digitalisasi', 'global', 'perekonomian', 'pendidikan']</t>
+          <t>['investasi', 'indonesia', 'langsung', 'bidang', 'sektor', 'persen', 'pembangunan', 'miliar', 'mendorong', 'negara', 'perdagangan', 'global', 'upaya', 'pendidikan', 'informasi', 'jokowi', 'negeri', 'kawasan', 'dunia', 'digitalisasi', 'ekonomi', 'perekonomian', 'kegiatan', 'impor', 'mendukung', 'ekspor']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['sosial', 'rumah', 'sekolah', 'data', 'program', 'bantuan', 'mengaku', 'warga', 'jalan', 'ekonomi', 'pandemi', 'usaha', 'pemerintah', 'keluarga']</t>
+          <t>['pemerintah', 'mengaku', 'ekonomi', 'rumah', 'warga', 'sosial', 'program', 'data', 'pandemi', 'sekolah', 'jalan', 'keluarga', 'bantuan', 'usaha']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['jokowi', 'sistem', 'masuk', 'pasar', 'pertumbuhan', 'berharap', 'konsumen', 'kegiatan', 'memiliki', 'perdagangan', 'resesi', 'indonesia', 'pertumbuhan_ekonomi', 'global', 'ekonomi', 'kebijakan', 'online']</t>
+          <t>['pertumbuhan_ekonomi', 'ekonomi', 'kegiatan', 'indonesia', 'konsumen', 'jokowi', 'perdagangan', 'berharap', 'resesi', 'memiliki', 'online', 'sistem', 'global', 'pertumbuhan', 'kebijakan', 'masuk', 'pasar']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['bumn', 'daerah', 'rumah', 'nasional', 'memiliki', 'mengaku', 'resesi', 'indonesia', 'kondisi', 'politik', 'ekonomi', 'hasil', 'jawa']</t>
+          <t>['mengaku', 'hasil', 'ekonomi', 'rumah', 'indonesia', 'resesi', 'bumn', 'memiliki', 'nasional', 'politik', 'kondisi', 'daerah', 'jawa']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['masuk', 'digital', 'koperasi', 'usaha', 'pemerintah', 'persen', 'meningkatkan', 'pasar', 'indonesia', 'pelatihan', 'layanan', 'pandemi', 'kerja', 'pelaku_umkm', 'mendorong', 'umkm', 'program', 'pelaku_usaha', 'teknologi', 'ekonomi', 'mendukung', 'memiliki', 'bisnis', 'kementerian', 'perekonomian']</t>
+          <t>['indonesia', 'program', 'memiliki', 'pandemi', 'pelatihan', 'persen', 'mendorong', 'usaha', 'layanan', 'kerja', 'pelaku_umkm', 'teknologi', 'masuk', 'kementerian', 'pasar', 'koperasi', 'meningkatkan', 'umkm', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['masuk', 'pertumbuhan', 'mendorong', 'angka', 'pembangunan', 'kawasan', 'pertumbuhan_ekonomi', 'memiliki', 'negara', 'ekonomi', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'angka', 'memiliki', 'kawasan', 'pertumbuhan', 'negara', 'pembangunan', 'mendorong', 'masuk', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['keuangan', 'perusahaan', 'persen', 'pertumbuhan', 'ekonomi', 'angka', 'pertumbuhan_ekonomi', 'kondisi', 'inflasi', 'jawa', 'berharap', 'pemerintah']</t>
+          <t>['perusahaan', 'pemerintah', 'ekonomi', 'keuangan', 'berharap', 'angka', 'pertumbuhan', 'inflasi', 'persen', 'kondisi', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['universitas', 'daerah', 'pendidikan', 'produksi', 'digital', 'kegiatan', 'produk', 'memiliki', 'bidang', 'kondisi', 'dunia', 'layanan', 'ekonomi', 'industri', 'berharap', 'pemerintah']</t>
+          <t>['pemerintah', 'produksi', 'ekonomi', 'kondisi', 'layanan', 'kegiatan', 'digital', 'berharap', 'memiliki', 'industri', 'bidang', 'dunia', 'pendidikan', 'universitas', 'produk', 'daerah']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['impor', 'miliar', 'persen', 'produksi', 'pertumbuhan', 'angka', 'bidang', 'memiliki', 'kondisi', 'hasil']</t>
+          <t>['hasil', 'produksi', 'impor', 'angka', 'memiliki', 'pertumbuhan', 'bidang', 'persen', 'kondisi', 'miliar']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['lingkungan', 'rumah', 'masuk', 'produksi', 'usaha', 'online', 'pemerintah', 'ekspor', 'bumn', 'persen', 'meningkatkan', 'pasar', 'indonesia', 'pelatihan', 'negara', 'negeri', 'upaya', 'sosial', 'pelaku_umkm', 'nasional', 'pertumbuhan', 'mendorong', 'umkm', 'konsumen', 'program', 'kegiatan', 'produk', 'ekonomi', 'mendukung', 'memiliki', 'bisnis', 'perdagangan', 'digitalisasi', 'global', 'berharap', 'perekonomian', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'memiliki', 'nasional', 'pelatihan', 'persen', 'mendorong', 'usaha', 'negara', 'sosial', 'perdagangan', 'berharap', 'pengembangan', 'bumn', 'lingkungan', 'pelaku_umkm', 'pertumbuhan', 'global', 'upaya', 'masuk', 'pasar', 'rumah', 'konsumen', 'negeri', 'meningkatkan', 'umkm', 'produk', 'digitalisasi', 'pemerintah', 'ekonomi', 'perekonomian', 'kegiatan', 'online', 'mendukung', 'produksi', 'ekspor', 'bisnis']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['keuangan', 'universitas', 'pertumbuhan', 'layanan', 'pertumbuhan_ekonomi', 'mengaku', 'pembiayaan', 'jalan', 'resesi', 'covid', 'negara', 'global', 'ekonomi', 'pandemi', 'china', 'kebijakan', 'pemerintah']</t>
+          <t>['china', 'mengaku', 'pemerintah', 'ekonomi', 'layanan', 'keuangan', 'covid', 'resesi', 'pembiayaan', 'pandemi', 'global', 'pertumbuhan', 'negara', 'jalan', 'kebijakan', 'universitas', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['ekspor', 'kerja', 'jokowi', 'investasi', 'kondisi', 'dunia', 'negara', 'global', 'ekonomi', 'jakarta', 'perekonomian', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'kondisi', 'perekonomian', 'investasi', 'jokowi', 'kerja', 'global', 'dunia', 'jakarta', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['universitas', 'mahasiswa', 'usaha', 'pemerintah', 'pertumbuhan_ekonomi', 'indonesia', 'pandemi', 'bali', 'kerja', 'pelaku_umkm', 'pertumbuhan', 'investasi', 'umkm', 'kegiatan', 'mengaku', 'pelaku_usaha', 'ekonomi', 'langsung', 'sektor', 'bantuan', 'global', 'berharap', 'terkait']</t>
+          <t>['bali', 'investasi', 'indonesia', 'pandemi', 'langsung', 'sektor', 'usaha', 'berharap', 'mahasiswa', 'kerja', 'pelaku_umkm', 'pertumbuhan', 'global', 'terkait', 'pertumbuhan_ekonomi', 'umkm', 'universitas', 'pemerintah', 'mengaku', 'ekonomi', 'kegiatan', 'pelaku_usaha', 'bantuan']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['jokowi', 'nasional', 'pertumbuhan', 'acara', 'pembangunan', 'ekonomi', 'pertumbuhan_ekonomi', 'petani', 'jalan', 'indonesia', 'negara', 'global', 'infrastruktur', 'jawa', 'perekonomian']</t>
+          <t>['ekonomi', 'perekonomian', 'indonesia', 'jokowi', 'acara', 'nasional', 'pertumbuhan', 'global', 'petani', 'negara', 'infrastruktur', 'jalan', 'pembangunan', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['triliun', 'acara', 'online', 'pemerintah', 'pertumbuhan_ekonomi', 'indonesia', 'negeri', 'daerah', 'nasional', 'pertumbuhan', 'mendorong', 'angka', 'umkm', 'program', 'produk', 'transaksi', 'informasi', 'ekonomi', 'perdagangan', 'berharap']</t>
+          <t>['indonesia', 'program', 'angka', 'nasional', 'mendorong', 'triliun', 'perdagangan', 'berharap', 'pertumbuhan', 'daerah', 'pertumbuhan_ekonomi', 'informasi', 'negeri', 'umkm', 'transaksi', 'produk', 'pemerintah', 'ekonomi', 'online', 'acara']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['kerja', 'universitas', 'mahasiswa', 'ekonomi', 'berharap', 'memiliki', 'resesi', 'indonesia', 'dunia', 'teknologi', 'industri', 'wisata', 'negara', 'hidup']</t>
+          <t>['ekonomi', 'universitas', 'indonesia', 'berharap', 'resesi', 'mahasiswa', 'memiliki', 'wisata', 'industri', 'kerja', 'dunia', 'hidup', 'teknologi', 'negara']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['kerja', 'perusahaan', 'pertumbuhan', 'ekonomi', 'kegiatan', 'pertumbuhan_ekonomi', 'memiliki', 'produk', 'petani', 'bidang', 'kondisi', 'dunia', 'inflasi', 'terkait', 'hasil', 'pemerintah']</t>
+          <t>['perusahaan', 'hasil', 'pemerintah', 'ekonomi', 'kegiatan', 'memiliki', 'kerja', 'pertumbuhan', 'petani', 'bidang', 'inflasi', 'dunia', 'terkait', 'kondisi', 'produk', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['mahasiswa', 'persen', 'data', 'berharap', 'proses', 'produk', 'politik', 'indonesia', 'kondisi', 'negara', 'ekonomi', 'hasil', 'perekonomian', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'ekonomi', 'perekonomian', 'indonesia', 'berharap', 'mahasiswa', 'data', 'politik', 'persen', 'kebijakan', 'kondisi', 'produk', 'proses', 'negara']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['miliar', 'nasional', 'proses', 'jakarta', 'informasi', 'pelaku_usaha', 'negara', 'ekonomi', 'negeri', 'usaha', 'kebijakan', 'langsung']</t>
+          <t>['ekonomi', 'informasi', 'negeri', 'nasional', 'langsung', 'negara', 'kebijakan', 'jakarta', 'miliar', 'proses', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['perusahaan', 'meningkatkan', 'data', 'konsumen', 'produk', 'memiliki', 'informasi', 'dunia', 'layanan', 'usaha']</t>
+          <t>['informasi', 'layanan', 'konsumen', 'memiliki', 'meningkatkan', 'data', 'dunia', 'perusahaan', 'produk', 'usaha']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['ekspor', 'keuangan', 'triliun', 'langsung', 'miliar', 'rumah', 'perusahaan', 'produk', 'bantuan', 'perdagangan', 'bidang', 'indonesia', 'harga', 'negara', 'ekonomi', 'negeri', 'perekonomian', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'perekonomian', 'rumah', 'keuangan', 'indonesia', 'ekspor', 'perdagangan', 'harga', 'negeri', 'langsung', 'bidang', 'produk', 'perusahaan', 'miliar', 'triliun', 'bantuan', 'negara']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['rumah', 'persen', 'pertumbuhan', 'ekonomi', 'angka', 'data', 'pertumbuhan_ekonomi', 'indonesia', 'harga', 'inflasi', 'jawa']</t>
+          <t>['ekonomi', 'rumah', 'indonesia', 'harga', 'data', 'angka', 'pertumbuhan', 'inflasi', 'persen', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['sektor', 'nasabah', 'bumn', 'sistem', 'bri', 'perusahaan', 'pembangunan', 'umkm', 'proses', 'program', 'bidang', 'petani', 'indonesia', 'terkait', 'usaha', 'online', 'langsung']</t>
+          <t>['perusahaan', 'online', 'indonesia', 'program', 'bumn', 'sistem', 'langsung', 'petani', 'bidang', 'umkm', 'bri', 'sektor', 'terkait', 'nasabah', 'pembangunan', 'proses', 'usaha']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['lingkungan', 'rumah', 'produksi', 'meningkatkan', 'pasar', 'angka', 'konsumen', 'produk', 'memiliki', 'bisnis', 'harga']</t>
+          <t>['rumah', 'konsumen', 'harga', 'memiliki', 'meningkatkan', 'lingkungan', 'angka', 'produksi', 'produk', 'pasar', 'bisnis']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['sosial', 'produksi', 'konsumen', 'kegiatan', 'memiliki', 'transaksi', 'informasi', 'ekonomi', 'hasil', 'usaha', 'hidup', 'pendidikan']</t>
+          <t>['hasil', 'ekonomi', 'informasi', 'kegiatan', 'sosial', 'konsumen', 'memiliki', 'transaksi', 'pendidikan', 'hidup', 'produksi', 'usaha']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['triliun', 'sosial', 'rumah', 'ekonomi', 'data', 'program', 'bantuan', 'petani', 'kondisi', 'harga', 'infrastruktur', 'usaha', 'perekonomian', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'perekonomian', 'rumah', 'sosial', 'program', 'harga', 'data', 'petani', 'infrastruktur', 'kebijakan', 'kondisi', 'triliun', 'bantuan', 'usaha']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['sistem', 'acara', 'memiliki', 'jakarta', 'indonesia', 'politik', 'ekonomi', 'hasil', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'ekonomi', 'indonesia', 'memiliki', 'sistem', 'politik', 'jakarta', 'acara']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['jokowi', 'triliun', 'daerah', 'masuk', 'nasional', 'pertumbuhan', 'investasi', 'pertumbuhan_ekonomi', 'memiliki', 'resesi', 'kondisi', 'negara', 'global', 'ekonomi']</t>
+          <t>['ekonomi', 'investasi', 'masuk', 'jokowi', 'resesi', 'memiliki', 'nasional', 'pertumbuhan', 'global', 'negara', 'kondisi', 'daerah', 'triliun', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['sektor', 'persen', 'pelaku_umkm', 'pengembangan', 'bantuan', 'petani', 'jawa', 'pemerintah']</t>
+          <t>['pemerintah', 'pengembangan', 'pelaku_umkm', 'petani', 'sektor', 'persen', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['sistem', 'acara', 'proses', 'dunia', 'usaha', 'kebijakan', 'pemerintah', 'meningkatkan', 'pasar', 'indonesia', 'negeri', 'daerah', 'nasional', 'pertumbuhan', 'investasi', 'program', 'produk', 'informasi', 'pelaku_usaha', 'ekonomi', 'mendukung', 'memiliki', 'bisnis', 'perdagangan', 'resesi', 'pelaku', 'global']</t>
+          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pelaku', 'nasional', 'kebijakan', 'acara', 'usaha', 'perdagangan', 'pertumbuhan', 'global', 'daerah', 'proses', 'pasar', 'informasi', 'resesi', 'negeri', 'meningkatkan', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'sistem', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['miliar', 'saham', 'covid', 'ekspor', 'perusahaan', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'upaya', 'pertumbuhan', 'investasi', 'data', 'transaksi', 'informasi', 'harga', 'ekonomi', 'mendukung', 'perdagangan', 'resesi', 'global', 'inflasi', 'hasil', 'china']</t>
+          <t>['china', 'investasi', 'indonesia', 'perusahaan', 'miliar', 'inflasi', 'hasil', 'perdagangan', 'harga', 'data', 'pertumbuhan', 'global', 'upaya', 'pertumbuhan_ekonomi', 'pasar', 'informasi', 'covid', 'resesi', 'saham', 'transaksi', 'ekonomi', 'mendukung', 'ekspor']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['triliun', 'sistem', 'digital', 'online', 'pemerintah', 'meningkatkan', 'pertumbuhan_ekonomi', 'indonesia', 'pelatihan', 'pandemi', 'kerja', 'pertumbuhan', 'kegiatan', 'program', 'informasi', 'teknologi', 'ekonomi', 'langsung', 'bidang', 'bantuan', 'kementerian', 'terkait', 'perekonomian']</t>
+          <t>['indonesia', 'program', 'pandemi', 'langsung', 'bidang', 'pelatihan', 'kerja', 'pertumbuhan', 'terkait', 'teknologi', 'pertumbuhan_ekonomi', 'kementerian', 'informasi', 'meningkatkan', 'pemerintah', 'ekonomi', 'perekonomian', 'kegiatan', 'online', 'digital', 'sistem', 'triliun', 'bantuan']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['lingkungan', 'triliun', 'universitas', 'miliar', 'masuk', 'rumah', 'hidup', 'proses', 'kondisi', 'dunia', 'covid', 'kebijakan', 'pemerintah', 'keuangan', 'persen', 'bank', 'terkait', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'pandemi', 'hasil', 'upaya', 'kerja', 'sosial', 'nasional', 'pertumbuhan', 'investasi', 'mendorong', 'angka', 'kawasan', 'umkm', 'program', 'transaksi', 'politik', 'ekonomi', 'langsung', 'warga', 'sektor', 'memiliki', 'perdagangan', 'resesi', 'global', 'inflasi', 'bali', 'perekonomian']</t>
+          <t>['bali', 'investasi', 'indonesia', 'program', 'memiliki', 'angka', 'nasional', 'pandemi', 'langsung', 'politik', 'sektor', 'persen', 'kebijakan', 'miliar', 'mendorong', 'negara', 'inflasi', 'hasil', 'sosial', 'perdagangan', 'kerja', 'lingkungan', 'pertumbuhan', 'global', 'upaya', 'terkait', 'proses', 'masuk', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'keuangan', 'covid', 'resesi', 'negeri', 'kawasan', 'umkm', 'transaksi', 'dunia', 'kondisi', 'universitas', 'pemerintah', 'ekonomi', 'perekonomian', 'warga', 'hidup', 'triliun']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['bumn', 'pasar', 'kementerian', 'indonesia', 'covid', 'harga', 'layanan', 'ekonomi', 'jakarta', 'jawa']</t>
+          <t>['ekonomi', 'layanan', 'indonesia', 'covid', 'harga', 'bumn', 'kementerian', 'jakarta', 'jawa', 'pasar']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['rumah', 'nasional', 'acara', 'dunia', 'negara', 'ekonomi', 'terkait']</t>
+          <t>['ekonomi', 'rumah', 'nasional', 'dunia', 'terkait', 'acara', 'negara']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['sistem', 'dunia', 'usaha', 'online', 'pemerintah', 'keuangan', 'meningkatkan', 'bank', 'indonesia', 'upaya', 'mendorong', 'data', 'umkm', 'produk', 'informasi', 'industri', 'ekonomi', 'memiliki', 'bisnis', 'kementerian', 'pembiayaan', 'aplikasi', 'pelaku']</t>
+          <t>['indonesia', 'memiliki', 'pembiayaan', 'pelaku', 'mendorong', 'usaha', 'data', 'upaya', 'kementerian', 'informasi', 'bank', 'keuangan', 'meningkatkan', 'umkm', 'aplikasi', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'online', 'industri', 'sistem', 'bisnis']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['kerja', 'daerah', 'persen', 'pertumbuhan', 'ekonomi', 'angka', 'pertumbuhan_ekonomi', 'covid', 'harga', 'inflasi', 'jawa', 'berharap', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'covid', 'berharap', 'harga', 'angka', 'kerja', 'pertumbuhan', 'inflasi', 'persen', 'daerah', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['kerja', 'universitas', 'mahasiswa', 'pendidikan', 'sektor', 'meningkatkan', 'sosial', 'pembangunan', 'mengaku', 'jalan', 'indonesia', 'dunia', 'covid', 'politik', 'ekonomi', 'pandemi', 'langsung']</t>
+          <t>['mengaku', 'ekonomi', 'sosial', 'indonesia', 'covid', 'mahasiswa', 'meningkatkan', 'kerja', 'pandemi', 'langsung', 'politik', 'sektor', 'dunia', 'pendidikan', 'jalan', 'universitas', 'pembangunan']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['nasabah', 'sistem', 'perbankan', 'digital', 'syariah', 'proses', 'covid', 'online', 'bsi', 'keuangan', 'perusahaan', 'persen', 'bsi_mobile', 'bank', 'pertumbuhan_ekonomi', 'bank_syariah', 'indonesia', 'layanan', 'pandemi', 'sosial', 'pertumbuhan', 'data', 'konsumen', 'program', 'transaksi', 'informasi', 'harga', 'ekonomi', 'langsung', 'sektor', 'global', 'memiliki', 'bisnis', 'pembiayaan', 'aplikasi', 'fitur', 'hasil', 'digitalisasi']</t>
+          <t>['bsi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'pandemi', 'langsung', 'sektor', 'persen', 'perusahaan', 'hasil', 'layanan', 'sosial', 'harga', 'perbankan', 'data', 'pertumbuhan', 'global', 'proses', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'keuangan', 'konsumen', 'covid', 'bsi_mobile', 'aplikasi', 'transaksi', 'digitalisasi', 'ekonomi', 'bank_syariah', 'online', 'digital', 'fitur', 'sistem', 'nasabah', 'syariah', 'bisnis']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['kondisi', 'dunia', 'ekspor', 'keuangan', 'meningkatkan', 'bank', 'jalan', 'negara', 'negeri', 'nasional', 'pertumbuhan', 'angka', 'program', 'harga', 'industri', 'politik', 'ekonomi', 'warga', 'resesi', 'global', 'inflasi', 'terkait']</t>
+          <t>['program', 'angka', 'nasional', 'politik', 'jalan', 'inflasi', 'negara', 'harga', 'pertumbuhan', 'global', 'terkait', 'bank', 'keuangan', 'resesi', 'negeri', 'meningkatkan', 'dunia', 'kondisi', 'ekonomi', 'warga', 'industri', 'ekspor']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['acara', 'dunia', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'wisata', 'upaya', 'daerah', 'pertumbuhan', 'investasi', 'mendorong', 'data', 'angka', 'kawasan', 'kegiatan', 'program', 'produk', 'industri', 'ekonomi', 'langsung', 'sektor', 'mendukung', 'pembangunan', 'bidang', 'perdagangan', 'kementerian', 'perekonomian']</t>
+          <t>['investasi', 'indonesia', 'program', 'angka', 'langsung', 'bidang', 'sektor', 'pembangunan', 'mendorong', 'negara', 'perdagangan', 'data', 'wisata', 'pertumbuhan', 'upaya', 'daerah', 'pertumbuhan_ekonomi', 'kementerian', 'kawasan', 'dunia', 'produk', 'ekonomi', 'perekonomian', 'kegiatan', 'industri', 'mendukung', 'acara']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['jokowi', 'triliun', 'persen', 'nasional', 'pertumbuhan', 'investasi', 'ekonomi', 'pertumbuhan_ekonomi', 'informasi', 'indonesia', 'negara', 'infrastruktur', 'jakarta', 'jawa']</t>
+          <t>['ekonomi', 'informasi', 'investasi', 'indonesia', 'triliun', 'jokowi', 'nasional', 'pertumbuhan', 'negara', 'infrastruktur', 'persen', 'jakarta', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['sistem', 'acara', 'covid', 'keuangan', 'meningkatkan', 'pertumbuhan_ekonomi', 'jakarta', 'negeri', 'pandemi', 'upaya', 'sosial', 'nasional', 'pertumbuhan', 'konsumen', 'kegiatan', 'informasi', 'industri', 'ekonomi', 'sektor', 'mendukung', 'bidang', 'kementerian', 'global', 'pendidikan']</t>
+          <t>['nasional', 'pandemi', 'bidang', 'sektor', 'sosial', 'pertumbuhan', 'global', 'upaya', 'pendidikan', 'jakarta', 'pertumbuhan_ekonomi', 'kementerian', 'informasi', 'keuangan', 'konsumen', 'covid', 'negeri', 'meningkatkan', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'mendukung', 'acara']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['perusahaan', 'persen', 'angka', 'proses', 'terkait', 'pemerintah']</t>
+          <t>['perusahaan', 'pemerintah', 'persen', 'angka', 'terkait', 'proses']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['kerja', 'langsung', 'pendidikan', 'sistem', 'perusahaan', 'sosial', 'sekolah', 'proses', 'bidang', 'memiliki', 'bisnis', 'warga', 'indonesia', 'informasi', 'negara', 'ekonomi', 'usaha', 'pemerintah']</t>
+          <t>['perusahaan', 'pemerintah', 'ekonomi', 'informasi', 'warga', 'sosial', 'indonesia', 'memiliki', 'bisnis', 'kerja', 'sekolah', 'langsung', 'bidang', 'negara', 'sistem', 'pendidikan', 'proses', 'usaha']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'keuangan', 'perusahaan', 'nasional', 'produksi', 'meningkatkan', 'acara', 'data', 'kegiatan', 'indonesia', 'dunia', 'harga', 'negara', 'ekonomi', 'usaha', 'kebijakan']</t>
+          <t>['ekonomi', 'keuangan', 'indonesia', 'kegiatan', 'harga', 'data', 'lingkungan', 'nasional', 'meningkatkan', 'kerja', 'negara', 'dunia', 'perusahaan', 'kebijakan', 'produksi', 'acara', 'usaha']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['perusahaan', 'daerah', 'persen', 'berharap', 'jakarta', 'resesi', 'jalan', 'indonesia', 'negara', 'ekonomi', 'terkait', 'perekonomian']</t>
+          <t>['perusahaan', 'ekonomi', 'perekonomian', 'indonesia', 'berharap', 'resesi', 'persen', 'jalan', 'terkait', 'jakarta', 'daerah', 'negara']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['pasar', 'ton', 'umkm', 'beras', 'perdagangan', 'kondisi', 'harga', 'koperasi', 'pemerintah']</t>
+          <t>['pemerintah', 'koperasi', 'perdagangan', 'harga', 'beras', 'umkm', 'ton', 'kondisi', 'pasar']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['impor', 'keuangan', 'masuk', 'data', 'kawasan', 'jakarta', 'kementerian', 'pelaku', 'negeri']</t>
+          <t>['keuangan', 'impor', 'negeri', 'pelaku', 'kawasan', 'data', 'jakarta', 'masuk', 'kementerian']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['produksi', 'perbankan', 'digital', 'proses', 'koperasi', 'usaha', 'persen', 'meningkatkan', 'pasar', 'upaya', 'pelaku_umkm', 'mendorong', 'umkm', 'program', 'produk', 'informasi', 'pelaku_usaha', 'industri', 'ekonomi', 'sektor', 'aplikasi', 'perdagangan', 'pembiayaan']</t>
+          <t>['program', 'pembiayaan', 'sektor', 'persen', 'mendorong', 'usaha', 'perdagangan', 'perbankan', 'pelaku_umkm', 'upaya', 'proses', 'pasar', 'informasi', 'koperasi', 'meningkatkan', 'umkm', 'aplikasi', 'produk', 'ekonomi', 'digital', 'industri', 'produksi', 'pelaku_usaha']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['daerah', 'masuk', 'pasar', 'acara', 'umkm', 'jakarta', 'harga', 'layanan', 'koperasi', 'usaha', 'online', 'pemerintah']</t>
+          <t>['pemerintah', 'layanan', 'koperasi', 'masuk', 'online', 'harga', 'daerah', 'umkm', 'jakarta', 'usaha', 'acara', 'pasar']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['produksi', 'dunia', 'covid', 'ekspor', 'perusahaan', 'meningkatkan', 'negara', 'pandemi', 'nasional', 'angka', 'data', 'kegiatan', 'ekonomi', 'sektor', 'memiliki', 'resesi', 'global', 'inflasi', 'china', 'perekonomian']</t>
+          <t>['china', 'memiliki', 'angka', 'nasional', 'pandemi', 'sektor', 'perusahaan', 'inflasi', 'negara', 'data', 'global', 'covid', 'resesi', 'meningkatkan', 'dunia', 'ekonomi', 'perekonomian', 'kegiatan', 'produksi', 'ekspor']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['lingkungan', 'produksi', 'acara', 'digital', 'usaha', 'online', 'ekspor', 'perusahaan', 'pasar', 'pelatihan', 'layanan', 'negeri', 'konsumen', 'program', 'produk', 'pelaku_usaha', 'langsung', 'mendukung', 'memiliki', 'pelaku', 'global', 'berharap', 'jawa', 'pengembangan']</t>
+          <t>['program', 'memiliki', 'pelaku', 'langsung', 'pelatihan', 'perusahaan', 'acara', 'usaha', 'layanan', 'berharap', 'pengembangan', 'lingkungan', 'global', 'jawa', 'pasar', 'konsumen', 'negeri', 'produk', 'online', 'digital', 'mendukung', 'produksi', 'pelaku_usaha', 'ekspor']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['jokowi', 'sektor', 'pertumbuhan', 'pembangunan', 'bank', 'pertumbuhan_ekonomi', 'bidang', 'indonesia', 'dunia', 'covid', 'ekonomi', 'jakarta', 'perekonomian']</t>
+          <t>['ekonomi', 'perekonomian', 'bank', 'indonesia', 'covid', 'jokowi', 'pertumbuhan', 'bidang', 'sektor', 'dunia', 'jakarta', 'pembangunan', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'acara', 'usaha', 'online', 'pemerintah', 'ekspor', 'bumn', 'persen', 'meningkatkan', 'pasar', 'indonesia', 'pelatihan', 'negara', 'negeri', 'jakarta', 'pelaku_umkm', 'nasional', 'pertumbuhan', 'mendorong', 'umkm', 'konsumen', 'program', 'produk', 'pelaku_usaha', 'ekonomi', 'mendukung', 'memiliki', 'perdagangan', 'pelaku', 'global', 'berharap', 'perekonomian', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'memiliki', 'nasional', 'pelaku', 'pelatihan', 'persen', 'mendorong', 'acara', 'usaha', 'negara', 'perdagangan', 'berharap', 'pengembangan', 'bumn', 'pelaku_umkm', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'pasar', 'rumah', 'konsumen', 'negeri', 'meningkatkan', 'umkm', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'online', 'mendukung', 'pelaku_usaha', 'ekspor']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['sosial', 'masuk', 'produk', 'memiliki', 'perdagangan', 'bidang', 'jalan', 'indonesia', 'dunia', 'negara', 'ekonomi', 'hasil', 'china']</t>
+          <t>['china', 'hasil', 'ekonomi', 'sosial', 'indonesia', 'perdagangan', 'memiliki', 'bidang', 'jalan', 'dunia', 'produk', 'masuk', 'negara']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['kondisi', 'dunia', 'covid', 'ekspor', 'bank', 'indonesia', 'negara', 'jakarta', 'pandemi', 'daerah', 'pertumbuhan', 'investasi', 'mendorong', 'umkm', 'ekonomi', 'bidang', 'resesi', 'global', 'china', 'perekonomian']</t>
+          <t>['china', 'investasi', 'indonesia', 'pandemi', 'bidang', 'mendorong', 'negara', 'pertumbuhan', 'global', 'jakarta', 'daerah', 'bank', 'covid', 'resesi', 'umkm', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'ekspor']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['sosial', 'daerah', 'pertumbuhan', 'angka', 'data', 'digital', 'pertumbuhan_ekonomi', 'program', 'memiliki', 'bisnis', 'kondisi', 'covid', 'ekonomi', 'hasil', 'pandemi', 'perekonomian']</t>
+          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'perekonomian', 'sosial', 'digital', 'program', 'covid', 'memiliki', 'angka', 'data', 'pandemi', 'pertumbuhan', 'kondisi', 'daerah', 'bisnis']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['ekspor', 'mendukung', 'bali', 'kegiatan', 'terkait', 'jakarta', 'perdagangan', 'kementerian', 'jalan', 'indonesia', 'informasi', 'industri', 'negara', 'aplikasi', 'negeri', 'jawa', 'china', 'warga']</t>
+          <t>['china', 'informasi', 'bali', 'warga', 'indonesia', 'kegiatan', 'perdagangan', 'negeri', 'industri', 'mendukung', 'negara', 'aplikasi', 'jalan', 'terkait', 'jakarta', 'jawa', 'ekspor', 'kementerian']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['kerja', 'jawa', 'pasar', 'pertumbuhan', 'pertumbuhan_ekonomi', 'ekonomi', 'usaha', 'kebijakan']</t>
+          <t>['ekonomi', 'pasar', 'kerja', 'pertumbuhan', 'kebijakan', 'usaha', 'jawa', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['saham', 'data', 'perdagangan', 'kondisi', 'harga', 'ekonomi']</t>
+          <t>['ekonomi', 'perdagangan', 'harga', 'data', 'saham', 'kondisi']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['acara', 'pembangunan', 'mengaku', 'wisata', 'ekonomi', 'jawa']</t>
+          <t>['mengaku', 'ekonomi', 'acara', 'wisata', 'pembangunan', 'jawa']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['impor', 'kerja', 'angka', 'ton', 'kementerian', 'indonesia', 'kondisi', 'informasi', 'harga', 'layanan', 'global', 'negara', 'industri', 'kebijakan', 'langsung']</t>
+          <t>['informasi', 'layanan', 'indonesia', 'harga', 'impor', 'angka', 'industri', 'kerja', 'global', 'langsung', 'negara', 'ton', 'kebijakan', 'kondisi', 'kementerian']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['lingkungan', 'perbankan', 'covid', 'usaha', 'kebijakan', 'bumn', 'meningkatkan', 'perekonomian', 'indonesia', 'negara', 'pandemi', 'sosial', 'pelaku_umkm', 'pertumbuhan', 'umkm', 'program', 'ekonomi', 'sektor', 'berharap', 'hidup', 'pendidikan']</t>
+          <t>['indonesia', 'program', 'pandemi', 'sektor', 'kebijakan', 'negara', 'usaha', 'sosial', 'berharap', 'bumn', 'perbankan', 'lingkungan', 'pelaku_umkm', 'pertumbuhan', 'pendidikan', 'covid', 'meningkatkan', 'umkm', 'ekonomi', 'perekonomian', 'hidup']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['acara', 'kondisi', 'usaha', 'kebijakan', 'pemerintah', 'ekspor', 'keuangan', 'bank', 'terkait', 'indonesia', 'negara', 'negeri', 'hasil', 'kerja', 'mendorong', 'data', 'kegiatan', 'ekonomi', 'langsung', 'impor', 'bidang', 'kementerian', 'bali']</t>
+          <t>['bali', 'indonesia', 'langsung', 'bidang', 'kebijakan', 'mendorong', 'negara', 'usaha', 'hasil', 'data', 'kerja', 'terkait', 'kementerian', 'bank', 'keuangan', 'negeri', 'kondisi', 'pemerintah', 'ekonomi', 'kegiatan', 'impor', 'acara', 'ekspor']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['perusahaan', 'pasar', 'pertumbuhan', 'kawasan', 'jakarta', 'jalan', 'harga', 'ekonomi', 'hasil']</t>
+          <t>['hasil', 'ekonomi', 'harga', 'kawasan', 'pertumbuhan', 'jalan', 'perusahaan', 'jakarta', 'pasar']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['miliar', 'masuk', 'usaha', 'pemerintah', 'persen', 'meningkatkan', 'pertumbuhan_ekonomi', 'kerja', 'daerah', 'pertumbuhan', 'ton', 'kegiatan', 'informasi', 'ekonomi', 'warga', 'pembangunan', 'bidang', 'bantuan', 'berharap', 'hasil', 'pendidikan']</t>
+          <t>['bidang', 'persen', 'miliar', 'pembangunan', 'usaha', 'hasil', 'berharap', 'kerja', 'pertumbuhan', 'pendidikan', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'informasi', 'meningkatkan', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'ton', 'bantuan']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['rumah', 'korban', 'memiliki', 'jakarta', 'mengaku', 'terkait', 'hasil', 'keluarga']</t>
+          <t>['mengaku', 'hasil', 'rumah', 'korban', 'memiliki', 'terkait', 'jakarta', 'keluarga']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['triliun', 'masuk', 'kebijakan', 'pemerintah', 'ekspor', 'pertumbuhan_ekonomi', 'negara', 'negeri', 'jokowi', 'daerah', 'nasional', 'pertumbuhan', 'mendorong', 'program', 'industri', 'ekonomi', 'infrastruktur', 'langsung', 'mendukung', 'terkait']</t>
+          <t>['program', 'nasional', 'langsung', 'kebijakan', 'mendorong', 'negara', 'pertumbuhan', 'terkait', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'jokowi', 'negeri', 'infrastruktur', 'pemerintah', 'ekonomi', 'industri', 'mendukung', 'triliun', 'ekspor']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['nasional', 'pertumbuhan', 'investasi', 'proses', 'pertumbuhan_ekonomi', 'mengaku', 'bidang', 'indonesia', 'ekonomi', 'china', 'pendidikan']</t>
+          <t>['china', 'mengaku', 'ekonomi', 'investasi', 'indonesia', 'nasional', 'pertumbuhan', 'bidang', 'pendidikan', 'proses', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['daerah', 'rumah', 'pasar', 'korban', 'kegiatan', 'bantuan', 'beras', 'warga', 'covid', 'ekonomi', 'pandemi', 'keluarga']</t>
+          <t>['ekonomi', 'rumah', 'warga', 'kegiatan', 'covid', 'keluarga', 'korban', 'pandemi', 'beras', 'daerah', 'bantuan', 'pasar']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['keuangan', 'perusahaan', 'nasional', 'pasar', 'investasi', 'saham', 'data', 'mengaku', 'perdagangan', 'transaksi', 'indonesia', 'harga', 'negara', 'ekonomi', 'perekonomian']</t>
+          <t>['mengaku', 'ekonomi', 'perekonomian', 'investasi', 'indonesia', 'keuangan', 'perdagangan', 'harga', 'data', 'nasional', 'saham', 'negara', 'transaksi', 'perusahaan', 'pasar']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['kerja', 'jokowi', 'mendorong', 'mendukung', 'perdagangan', 'indonesia', 'negara', 'ekonomi', 'terkait', 'jawa', 'china']</t>
+          <t>['china', 'ekonomi', 'indonesia', 'jokowi', 'perdagangan', 'kerja', 'mendukung', 'terkait', 'mendorong', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'langsung', 'upaya', 'rumah', 'masuk', 'pasar', 'konsumen', 'produk', 'bantuan', 'memiliki', 'bisnis', 'bidang', 'harga', 'hasil', 'usaha', 'keluarga']</t>
+          <t>['hasil', 'rumah', 'konsumen', 'harga', 'keluarga', 'memiliki', 'lingkungan', 'bisnis', 'kerja', 'langsung', 'bidang', 'upaya', 'produk', 'usaha', 'masuk', 'bantuan', 'pasar']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['korban', 'terkait', 'memiliki', 'jakarta', 'informasi', 'jalan', 'indonesia', 'negara', 'ekonomi', 'negeri', 'bali']</t>
+          <t>['ekonomi', 'informasi', 'bali', 'indonesia', 'korban', 'memiliki', 'negeri', 'jalan', 'terkait', 'jakarta', 'negara']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['daerah', 'pasar', 'data', 'memiliki', 'bisnis', 'harga', 'ekonomi', 'jakarta']</t>
+          <t>['ekonomi', 'harga', 'memiliki', 'data', 'jakarta', 'daerah', 'pasar', 'bisnis']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['keuangan', 'miliar', 'daerah', 'nasional', 'hasil', 'pembangunan', 'terkait', 'bidang', 'jakarta', 'mengaku', 'indonesia', 'ekonomi', 'negeri', 'online', 'langsung']</t>
+          <t>['miliar', 'mengaku', 'hasil', 'ekonomi', 'keuangan', 'indonesia', 'online', 'negeri', 'nasional', 'langsung', 'bidang', 'terkait', 'jakarta', 'pembangunan', 'daerah']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['mendorong', 'kawasan', 'umkm', 'mengaku', 'indonesia', 'wisata', 'ekonomi', 'bali', 'pemerintah']</t>
+          <t>['pemerintah', 'mengaku', 'ekonomi', 'bali', 'indonesia', 'kawasan', 'wisata', 'umkm', 'mendorong']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['lingkungan', 'bri', 'nasabah', 'rumah', 'saham', 'syariah', 'covid', 'usaha', 'kebijakan', 'pemerintah', 'bsi', 'keuangan', 'persen', 'meningkatkan', 'bank', 'pertumbuhan_ekonomi', 'bank_syariah', 'jalan', 'indonesia', 'kerja', 'daerah', 'pertumbuhan', 'program', 'transaksi', 'ekonomi', 'langsung', 'bisnis', 'pelaku', 'berharap', 'hasil', 'jawa', 'perekonomian']</t>
+          <t>['bsi', 'indonesia', 'program', 'pelaku', 'langsung', 'bri', 'jalan', 'persen', 'kebijakan', 'usaha', 'hasil', 'berharap', 'kerja', 'lingkungan', 'pertumbuhan', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'keuangan', 'covid', 'meningkatkan', 'saham', 'transaksi', 'pemerintah', 'ekonomi', 'perekonomian', 'bank_syariah', 'nasabah', 'syariah', 'bisnis']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['impor', 'masuk', 'nasional', 'ton', 'kegiatan', 'beras', 'jakarta', 'petani', 'indonesia', 'kondisi', 'harga', 'negeri', 'kebijakan', 'hasil', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'kondisi', 'kegiatan', 'indonesia', 'harga', 'impor', 'negeri', 'nasional', 'petani', 'beras', 'ton', 'kebijakan', 'jakarta', 'masuk']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['ekspor', 'kerja', 'jokowi', 'nasional', 'kawasan', 'terkait', 'perdagangan', 'politik', 'jalan', 'kondisi', 'indonesia', 'industri', 'negara', 'dunia', 'ekonomi', 'negeri', 'kebijakan']</t>
+          <t>['ekonomi', 'indonesia', 'jokowi', 'perdagangan', 'negeri', 'kawasan', 'nasional', 'industri', 'kerja', 'politik', 'jalan', 'dunia', 'terkait', 'kebijakan', 'kondisi', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['daerah', 'umkm', 'konsumen', 'mengaku', 'indonesia', 'ekonomi', 'hasil', 'pemerintah', 'langsung']</t>
+          <t>['pemerintah', 'hasil', 'mengaku', 'ekonomi', 'indonesia', 'konsumen', 'langsung', 'umkm', 'daerah']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'masuk', 'acara', 'perbankan', 'digital', 'koperasi', 'usaha', 'kebijakan', 'pemerintah', 'perusahaan', 'bumn', 'persen', 'meningkatkan', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negeri', 'jakarta', 'hasil', 'upaya', 'daerah', 'pelaku_umkm', 'pertumbuhan', 'investasi', 'mendorong', 'umkm', 'kegiatan', 'produk', 'transaksi', 'teknologi', 'industri', 'ekonomi', 'pembangunan', 'bantuan', 'perdagangan', 'kementerian', 'pembiayaan', 'berharap', 'terkait', 'china']</t>
+          <t>['china', 'investasi', 'indonesia', 'pembiayaan', 'persen', 'kebijakan', 'perusahaan', 'pembangunan', 'miliar', 'acara', 'mendorong', 'usaha', 'hasil', 'berharap', 'perdagangan', 'bumn', 'perbankan', 'pelaku_umkm', 'pertumbuhan', 'upaya', 'terkait', 'teknologi', 'jakarta', 'daerah', 'masuk', 'pasar', 'kementerian', 'pertumbuhan_ekonomi', 'koperasi', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'digital', 'industri', 'triliun', 'bantuan']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['impor', 'pasar', 'ton', 'data', 'proses', 'beras', 'perdagangan', 'kementerian', 'indonesia', 'petani', 'harga', 'negeri', 'hasil', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'indonesia', 'perdagangan', 'harga', 'impor', 'negeri', 'data', 'kementerian', 'petani', 'beras', 'ton', 'proses', 'pasar']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['produk', 'usaha', 'persen', 'umkm']</t>
+          <t>['persen', 'produk', 'umkm', 'usaha']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['kerja', 'sektor', 'perusahaan', 'bisnis', 'kondisi', 'industri', 'global', 'ekonomi']</t>
+          <t>['ekonomi', 'kerja', 'industri', 'global', 'sektor', 'perusahaan', 'kondisi', 'bisnis']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['ekspor', 'kerja', 'jokowi', 'investasi', 'kondisi', 'dunia', 'negara', 'global', 'ekonomi', 'jakarta', 'perekonomian']</t>
+          <t>['ekonomi', 'kondisi', 'perekonomian', 'investasi', 'jokowi', 'kerja', 'global', 'dunia', 'jakarta', 'ekspor', 'negara']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['ekonomi', 'terkait', 'masuk']</t>
+          <t>['terkait', 'ekonomi', 'masuk']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'sistem', 'rumah', 'kondisi', 'dunia', 'pemerintah', 'keuangan', 'persen', 'korban', 'sekolah', 'negara', 'wisata', 'negeri', 'upaya', 'sosial', 'daerah', 'mendorong', 'data', 'kegiatan', 'program', 'informasi', 'infrastruktur', 'ekonomi', 'warga', 'memiliki', 'bantuan', 'berharap', 'hasil', 'jawa', 'pengembangan']</t>
+          <t>['program', 'memiliki', 'sekolah', 'persen', 'miliar', 'mendorong', 'negara', 'hasil', 'sosial', 'berharap', 'pengembangan', 'korban', 'data', 'wisata', 'upaya', 'daerah', 'jawa', 'informasi', 'rumah', 'keuangan', 'negeri', 'infrastruktur', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'sistem', 'triliun', 'bantuan']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['rumah', 'perbankan', 'bank', 'indonesia', 'ekonomi', 'jakarta']</t>
+          <t>['ekonomi', 'rumah', 'bank', 'indonesia', 'perbankan', 'jakarta']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['lingkungan', 'miliar', 'rumah', 'produksi', 'hidup', 'proses', 'covid', 'kebijakan', 'pemerintah', 'persen', 'meningkatkan', 'pengembangan', 'sekolah', 'bank', 'pertumbuhan_ekonomi', 'layanan', 'pandemi', 'upaya', 'sosial', 'daerah', 'nasional', 'pertumbuhan', 'mendorong', 'angka', 'program', 'petani', 'teknologi', 'infrastruktur', 'ekonomi', 'berharap', 'langsung', 'pembangunan', 'bidang', 'memiliki', 'inflasi', 'perekonomian', 'pendidikan']</t>
+          <t>['program', 'memiliki', 'angka', 'nasional', 'pandemi', 'sekolah', 'petani', 'langsung', 'bidang', 'persen', 'kebijakan', 'pembangunan', 'miliar', 'mendorong', 'inflasi', 'layanan', 'sosial', 'berharap', 'pengembangan', 'lingkungan', 'pertumbuhan', 'upaya', 'pendidikan', 'teknologi', 'daerah', 'proses', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'covid', 'meningkatkan', 'infrastruktur', 'pemerintah', 'ekonomi', 'perekonomian', 'hidup', 'produksi']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['universitas', 'sistem', 'mahasiswa', 'dunia', 'keuangan', 'perusahaan', 'bank', 'indonesia', 'negara', 'negeri', 'jakarta', 'kerja', 'sosial', 'nasional', 'data', 'program', 'informasi', 'ekonomi', 'warga', 'bidang', 'memiliki', 'bali', 'jawa', 'hidup', 'pendidikan']</t>
+          <t>['bali', 'indonesia', 'program', 'memiliki', 'nasional', 'bidang', 'perusahaan', 'negara', 'sosial', 'mahasiswa', 'data', 'kerja', 'pendidikan', 'jakarta', 'jawa', 'informasi', 'bank', 'keuangan', 'negeri', 'dunia', 'universitas', 'ekonomi', 'warga', 'sistem', 'hidup']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['acara', 'dunia', 'keuangan', 'persen', 'jalan', 'indonesia', 'negara', 'pandemi', 'upaya', 'jokowi', 'daerah', 'nasional', 'pertumbuhan', 'ekonomi', 'infrastruktur', 'pembangunan', 'memiliki', 'global', 'bali']</t>
+          <t>['bali', 'indonesia', 'memiliki', 'nasional', 'pandemi', 'jalan', 'persen', 'pembangunan', 'negara', 'pertumbuhan', 'global', 'upaya', 'daerah', 'keuangan', 'jokowi', 'infrastruktur', 'dunia', 'ekonomi', 'acara']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['keuangan', 'daerah', 'nasional', 'mendorong', 'proses', 'memiliki', 'kementerian', 'politik', 'kondisi', 'negara', 'global', 'ekonomi', 'terkait', 'pandemi', 'hasil']</t>
+          <t>['hasil', 'ekonomi', 'keuangan', 'memiliki', 'nasional', 'pandemi', 'global', 'politik', 'negara', 'proses', 'terkait', 'mendorong', 'kondisi', 'daerah', 'kementerian']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['rumah', 'masuk', 'produksi', 'kondisi', 'kebijakan', 'pemerintah', 'pasar', 'beras', 'indonesia', 'negara', 'negeri', 'hasil', 'nasional', 'ton', 'kegiatan', 'petani', 'harga', 'impor', 'perdagangan', 'kementerian', 'inflasi', 'terkait']</t>
+          <t>['indonesia', 'nasional', 'petani', 'kebijakan', 'negara', 'inflasi', 'hasil', 'perdagangan', 'harga', 'terkait', 'masuk', 'kementerian', 'pasar', 'rumah', 'negeri', 'beras', 'kondisi', 'pemerintah', 'kegiatan', 'impor', 'ton', 'produksi']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['bri', 'nasabah', 'sistem', 'rumah', 'perbankan', 'syariah', 'proses', 'dunia', 'online', 'bsi', 'keuangan', 'indonesia', 'layanan', 'sosial', 'investasi', 'mendorong', 'program', 'transaksi', 'informasi', 'ekonomi', 'langsung', 'keluarga', 'sektor', 'memiliki', 'digitalisasi', 'pembiayaan', 'resesi', 'inflasi', 'hidup']</t>
+          <t>['bsi', 'investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'langsung', 'sektor', 'bri', 'mendorong', 'inflasi', 'layanan', 'sosial', 'perbankan', 'proses', 'informasi', 'rumah', 'keuangan', 'resesi', 'transaksi', 'dunia', 'keluarga', 'digitalisasi', 'ekonomi', 'online', 'sistem', 'nasabah', 'syariah', 'hidup']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'pembangunan', 'transaksi', 'kondisi', 'negara', 'ekonomi', 'jawa', 'warga']</t>
+          <t>['ekonomi', 'warga', 'kerja', 'lingkungan', 'transaksi', 'kondisi', 'pembangunan', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['sistem', 'proses', 'usaha', 'kebijakan', 'online', 'pemerintah', 'pasar', 'negeri', 'jokowi', 'pelaku_umkm', 'umkm', 'produk', 'pelaku_usaha', 'mendukung', 'pembangunan', 'memiliki', 'aplikasi', 'perekonomian', 'pengembangan']</t>
+          <t>['memiliki', 'kebijakan', 'pembangunan', 'usaha', 'pengembangan', 'pelaku_umkm', 'proses', 'pasar', 'jokowi', 'negeri', 'umkm', 'aplikasi', 'produk', 'pemerintah', 'perekonomian', 'online', 'sistem', 'mendukung', 'pelaku_usaha']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['jokowi', 'langsung', 'persen', 'ekonomi', 'data', 'bantuan', 'jakarta', 'mengaku', 'indonesia', 'covid', 'politik', 'infrastruktur', 'terkait', 'pemerintah']</t>
+          <t>['pemerintah', 'mengaku', 'ekonomi', 'indonesia', 'jokowi', 'covid', 'persen', 'data', 'langsung', 'politik', 'infrastruktur', 'terkait', 'jakarta', 'bantuan']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['pembangunan', 'sekolah', 'bantuan', 'jalan', 'kondisi', 'ekonomi', 'jawa', 'pemerintah', 'berharap', 'warga']</t>
+          <t>['pemerintah', 'ekonomi', 'warga', 'berharap', 'sekolah', 'jalan', 'kondisi', 'pembangunan', 'jawa', 'bantuan']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['miliar', 'produksi', 'kondisi', 'ekspor', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'nasional', 'pertumbuhan', 'angka', 'kawasan', 'konsumen', 'produk', 'industri', 'ekonomi', 'impor', 'sektor', 'perdagangan', 'resesi']</t>
+          <t>['indonesia', 'angka', 'nasional', 'sektor', 'miliar', 'negara', 'perdagangan', 'pertumbuhan', 'pertumbuhan_ekonomi', 'pasar', 'konsumen', 'resesi', 'negeri', 'kawasan', 'kondisi', 'produk', 'ekonomi', 'impor', 'industri', 'produksi', 'ekspor']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['upaya', 'sektor', 'perusahaan', 'nasional', 'meningkatkan', 'mendorong', 'kawasan', 'umkm', 'program', 'indonesia', 'wisata', 'ekonomi', 'negeri', 'berharap']</t>
+          <t>['ekonomi', 'indonesia', 'program', 'berharap', 'negeri', 'meningkatkan', 'kawasan', 'nasional', 'wisata', 'umkm', 'sektor', 'upaya', 'perusahaan', 'mendorong']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['rumah', 'kebijakan', 'persen', 'bank', 'pertumbuhan_ekonomi', 'pertumbuhan', 'investasi', 'mendorong', 'data', 'angka', 'konsumen', 'produk', 'ekonomi', 'impor', 'bisnis', 'perdagangan', 'resesi', 'inflasi', 'perekonomian']</t>
+          <t>['investasi', 'angka', 'persen', 'kebijakan', 'mendorong', 'inflasi', 'perdagangan', 'data', 'pertumbuhan', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'konsumen', 'resesi', 'produk', 'ekonomi', 'perekonomian', 'impor', 'bisnis']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['digital', 'covid', 'pemerintah', 'persen', 'pertumbuhan_ekonomi', 'indonesia', 'wisata', 'pandemi', 'upaya', 'kerja', 'daerah', 'nasional', 'pertumbuhan', 'angka', 'umkm', 'program', 'ekonomi', 'warga', 'sektor', 'pembangunan', 'memiliki', 'aplikasi', 'hasil', 'jawa', 'perekonomian', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'memiliki', 'angka', 'nasional', 'pandemi', 'sektor', 'persen', 'pembangunan', 'hasil', 'pengembangan', 'kerja', 'wisata', 'pertumbuhan', 'upaya', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'covid', 'umkm', 'aplikasi', 'pemerintah', 'ekonomi', 'perekonomian', 'warga', 'digital']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['kerja', 'triliun', 'perusahaan', 'bumn', 'investasi', 'pembangunan', 'kementerian', 'jalan', 'informasi', 'ekonomi', 'hasil', 'jawa']</t>
+          <t>['hasil', 'ekonomi', 'informasi', 'investasi', 'triliun', 'bumn', 'kerja', 'jalan', 'perusahaan', 'pembangunan', 'jawa', 'kementerian']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['sistem', 'masuk', 'rumah', 'sekolah', 'jalan', 'wisata', 'sosial', 'daerah', 'nasional', 'kawasan', 'informasi', 'harga', 'ekonomi', 'langsung', 'keluarga', 'bantuan', 'kementerian', 'terkait', 'china']</t>
+          <t>['china', 'nasional', 'sekolah', 'langsung', 'jalan', 'sosial', 'harga', 'wisata', 'terkait', 'daerah', 'masuk', 'kementerian', 'informasi', 'rumah', 'kawasan', 'keluarga', 'ekonomi', 'sistem', 'bantuan']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -15012,7 +15012,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['keuangan', 'upaya', 'nasional', 'pertumbuhan', 'ekonomi', 'konsumen', 'pertumbuhan_ekonomi', 'kementerian', 'harga', 'negara', 'inflasi', 'industri', 'kebijakan', 'hasil']</t>
+          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'keuangan', 'konsumen', 'harga', 'industri', 'nasional', 'pertumbuhan', 'negara', 'inflasi', 'upaya', 'kebijakan', 'kementerian']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['triliun', 'universitas', 'sistem', 'masuk', 'rumah', 'kondisi', 'dunia', 'covid', 'kebijakan', 'pemerintah', 'ekspor', 'keuangan', 'pasar', 'korban', 'sekolah', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'jakarta', 'pandemi', 'kerja', 'sosial', 'nasional', 'pertumbuhan', 'investasi', 'mendorong', 'angka', 'program', 'produk', 'transaksi', 'industri', 'ekonomi', 'impor', 'sektor', 'mendukung', 'bidang', 'memiliki', 'pembiayaan', 'global', 'inflasi', 'perekonomian']</t>
+          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'sekolah', 'bidang', 'sektor', 'kebijakan', 'mendorong', 'negara', 'inflasi', 'sosial', 'korban', 'kerja', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'pertumbuhan_ekonomi', 'pasar', 'rumah', 'bank', 'keuangan', 'covid', 'transaksi', 'dunia', 'universitas', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'impor', 'industri', 'sistem', 'mendukung', 'triliun', 'ekspor']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['acara', 'kegiatan', 'indonesia', 'wisata', 'ekonomi', 'terkait', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'kegiatan', 'indonesia', 'wisata', 'terkait', 'acara']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['lingkungan', 'kerja', 'sektor', 'pengembangan', 'acara', 'indonesia', 'dunia', 'negara', 'wisata', 'ekonomi', 'terkait', 'pandemi', 'langsung']</t>
+          <t>['ekonomi', 'indonesia', 'pengembangan', 'kerja', 'lingkungan', 'wisata', 'pandemi', 'langsung', 'sektor', 'dunia', 'terkait', 'acara', 'negara']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['ekspor', 'kerja', 'lingkungan', 'nasional', 'kegiatan', 'produk', 'memiliki', 'perdagangan', 'jakarta', 'indonesia', 'hasil', 'usaha', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'hasil', 'kegiatan', 'indonesia', 'perdagangan', 'memiliki', 'lingkungan', 'nasional', 'kerja', 'kebijakan', 'jakarta', 'produk', 'ekspor', 'usaha']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['persen', 'pertumbuhan', 'pembangunan', 'berharap', 'pertumbuhan_ekonomi', 'jakarta', 'aplikasi', 'ekonomi', 'terkait', 'perekonomian', 'warga']</t>
+          <t>['ekonomi', 'perekonomian', 'warga', 'berharap', 'persen', 'pertumbuhan', 'aplikasi', 'terkait', 'jakarta', 'pembangunan', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -15548,7 +15548,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['miliar', 'rumah', 'saham', 'kebijakan', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'pertumbuhan', 'investasi', 'mendorong', 'kawasan', 'informasi', 'harga', 'ekonomi', 'perdagangan', 'global', 'inflasi', 'perekonomian']</t>
+          <t>['investasi', 'indonesia', 'kebijakan', 'miliar', 'mendorong', 'negara', 'inflasi', 'perdagangan', 'harga', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'informasi', 'rumah', 'bank', 'negeri', 'kawasan', 'saham', 'ekonomi', 'perekonomian']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'rumah', 'acara', 'dunia', 'pemerintah', 'jalan', 'indonesia', 'wisata', 'negeri', 'daerah', 'nasional', 'investasi', 'mendorong', 'data', 'kegiatan', 'program', 'produk', 'industri', 'ekonomi', 'sektor', 'mendukung', 'kementerian', 'pengembangan']</t>
+          <t>['investasi', 'indonesia', 'program', 'nasional', 'sektor', 'jalan', 'miliar', 'mendorong', 'acara', 'pengembangan', 'data', 'wisata', 'daerah', 'kementerian', 'rumah', 'negeri', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'mendukung', 'triliun']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['produksi', 'saham', 'dunia', 'usaha', 'online', 'keuangan', 'bank', 'bank_syariah', 'indonesia', 'kerja', 'investasi', 'harga', 'ekonomi', 'keluarga', 'memiliki', 'bisnis', 'resesi', 'inflasi', 'terkait', 'hidup']</t>
+          <t>['investasi', 'indonesia', 'memiliki', 'inflasi', 'usaha', 'harga', 'kerja', 'terkait', 'bank', 'keuangan', 'resesi', 'saham', 'dunia', 'keluarga', 'ekonomi', 'online', 'bank_syariah', 'hidup', 'produksi', 'bisnis']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -15788,7 +15788,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['keuangan', 'sektor', 'daerah', 'pertumbuhan', 'mendorong', 'bank', 'syariah', 'pertumbuhan_ekonomi', 'aplikasi', 'pembiayaan', 'covid', 'ekonomi', 'terkait', 'usaha', 'kebijakan', 'langsung']</t>
+          <t>['pertumbuhan_ekonomi', 'ekonomi', 'bank', 'keuangan', 'covid', 'pembiayaan', 'pertumbuhan', 'langsung', 'mendorong', 'sektor', 'aplikasi', 'terkait', 'kebijakan', 'syariah', 'daerah', 'usaha']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['lingkungan', 'sosial', 'rumah', 'keluarga', 'program', 'bantuan', 'mengaku', 'kementerian', 'pembiayaan', 'ekonomi', 'bali', 'hidup', 'hasil', 'warga']</t>
+          <t>['mengaku', 'hasil', 'ekonomi', 'bali', 'warga', 'sosial', 'rumah', 'program', 'lingkungan', 'pembiayaan', 'hidup', 'keluarga', 'bantuan', 'kementerian']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['rumah', 'pemerintah', 'keuangan', 'bank', 'indonesia', 'pelatihan', 'negara', 'jakarta', 'bali', 'kerja', 'sosial', 'program', 'mengaku', 'ekonomi', 'langsung', 'sektor', 'pembangunan', 'bantuan', 'berharap', 'terkait', 'pendidikan']</t>
+          <t>['bali', 'indonesia', 'program', 'langsung', 'sektor', 'pelatihan', 'pembangunan', 'negara', 'sosial', 'berharap', 'kerja', 'pendidikan', 'terkait', 'jakarta', 'rumah', 'bank', 'keuangan', 'pemerintah', 'mengaku', 'ekonomi', 'bantuan']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['acara', 'umkm']</t>
+          <t>['umkm', 'acara']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -16069,7 +16069,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['jokowi', 'perdagangan', 'covid', 'berharap', 'pandemi']</t>
+          <t>['jokowi', 'berharap', 'covid', 'perdagangan', 'pandemi']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['triliun', 'sistem', 'masuk', 'saham', 'kebijakan', 'pemerintah', 'keuangan', 'pasar', 'bank', 'beras', 'indonesia', 'angka', 'data', 'transaksi', 'harga', 'ekonomi', 'mendukung', 'inflasi', 'terkait']</t>
+          <t>['indonesia', 'angka', 'kebijakan', 'inflasi', 'harga', 'data', 'terkait', 'masuk', 'pasar', 'bank', 'keuangan', 'saham', 'beras', 'transaksi', 'pemerintah', 'ekonomi', 'sistem', 'mendukung', 'triliun']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['keuangan', 'jokowi', 'sosial', 'persen', 'pertumbuhan', 'mendorong', 'bank', 'kegiatan', 'pertumbuhan_ekonomi', 'kementerian', 'indonesia', 'covid', 'negara', 'ekonomi', 'jakarta', 'pandemi', 'perekonomian', 'kebijakan']</t>
+          <t>['pertumbuhan_ekonomi', 'ekonomi', 'perekonomian', 'bank', 'sosial', 'indonesia', 'keuangan', 'kegiatan', 'jokowi', 'covid', 'pandemi', 'pertumbuhan', 'negara', 'persen', 'kebijakan', 'jakarta', 'mendorong', 'kementerian']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['acara', 'dunia', 'pemerintah', 'persen', 'meningkatkan', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'wisata', 'jakarta', 'jokowi', 'daerah', 'pertumbuhan', 'harga', 'industri', 'ekonomi', 'infrastruktur', 'pembangunan', 'memiliki', 'resesi', 'hasil', 'jawa']</t>
+          <t>['indonesia', 'memiliki', 'persen', 'pembangunan', 'negara', 'hasil', 'harga', 'wisata', 'pertumbuhan', 'jakarta', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'jokowi', 'resesi', 'meningkatkan', 'infrastruktur', 'dunia', 'pemerintah', 'ekonomi', 'industri', 'acara']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['impor', 'meningkatkan', 'pasar', 'mendukung', 'umkm', 'konsumen', 'produk', 'memiliki', 'bisnis', 'petani', 'indonesia', 'covid', 'usaha', 'pandemi', 'hidup']</t>
+          <t>['indonesia', 'konsumen', 'covid', 'memiliki', 'meningkatkan', 'impor', 'pandemi', 'bisnis', 'petani', 'mendukung', 'umkm', 'hidup', 'produk', 'usaha', 'pasar']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['universitas', 'nasabah', 'sistem', 'perbankan', 'digital', 'syariah', 'dunia', 'covid', 'usaha', 'online', 'keuangan', 'meningkatkan', 'korban', 'bank', 'bank_syariah', 'indonesia', 'layanan', 'pandemi', 'hasil', 'upaya', 'sosial', 'mendorong', 'umkm', 'konsumen', 'kegiatan', 'produk', 'mengaku', 'transaksi', 'pelaku_usaha', 'teknologi', 'informasi', 'industri', 'ekonomi', 'langsung', 'sektor', 'mendukung', 'memiliki', 'bisnis', 'pembiayaan', 'aplikasi', 'digitalisasi', 'pelaku', 'berharap', 'terkait', 'perekonomian', 'pendidikan']</t>
+          <t>['indonesia', 'memiliki', 'pembiayaan', 'pelaku', 'pandemi', 'langsung', 'sektor', 'mendorong', 'usaha', 'hasil', 'layanan', 'sosial', 'berharap', 'korban', 'perbankan', 'upaya', 'pendidikan', 'terkait', 'teknologi', 'informasi', 'bank', 'keuangan', 'konsumen', 'covid', 'meningkatkan', 'umkm', 'aplikasi', 'transaksi', 'dunia', 'universitas', 'produk', 'digitalisasi', 'mengaku', 'ekonomi', 'perekonomian', 'kegiatan', 'bank_syariah', 'digital', 'online', 'industri', 'sistem', 'nasabah', 'mendukung', 'syariah', 'pelaku_usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['lingkungan', 'daerah', 'meningkatkan', 'pembangunan', 'data', 'proses', 'program', 'negara', 'ekonomi', 'terkait', 'jawa', 'berharap']</t>
+          <t>['ekonomi', 'program', 'berharap', 'data', 'meningkatkan', 'lingkungan', 'proses', 'terkait', 'pembangunan', 'daerah', 'jawa', 'negara']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['ekspor', 'persen', 'pasar', 'produk', 'perdagangan', 'dunia', 'harga', 'global', 'negeri']</t>
+          <t>['perdagangan', 'harga', 'negeri', 'global', 'dunia', 'persen', 'produk', 'ekspor', 'pasar']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['impor', 'langsung', 'masuk', 'ton', 'data', 'terkait', 'beras', 'memiliki', 'informasi', 'indonesia', 'pelaku_usaha', 'harga', 'negara', 'pelaku', 'negeri', 'usaha', 'pemerintah']</t>
+          <t>['pemerintah', 'ton', 'informasi', 'indonesia', 'masuk', 'harga', 'negeri', 'memiliki', 'impor', 'data', 'langsung', 'pelaku', 'negara', 'beras', 'terkait', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['miliar', 'produksi', 'acara', 'kondisi', 'kebijakan', 'pemerintah', 'ekspor', 'meningkatkan', 'indonesia', 'negeri', 'nasional', 'pertumbuhan', 'mendorong', 'produk', 'teknologi', 'harga', 'industri', 'ekonomi', 'sektor', 'bidang', 'perdagangan', 'global', 'berharap', 'perekonomian', 'pengembangan']</t>
+          <t>['indonesia', 'nasional', 'bidang', 'sektor', 'kebijakan', 'miliar', 'mendorong', 'perdagangan', 'berharap', 'pengembangan', 'harga', 'pertumbuhan', 'global', 'teknologi', 'negeri', 'meningkatkan', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'industri', 'produksi', 'acara', 'ekspor']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['kerja', 'sosial', 'nasional', 'berharap', 'indonesia', 'covid', 'negara', 'ekonomi', 'pandemi', 'hidup']</t>
+          <t>['ekonomi', 'sosial', 'indonesia', 'covid', 'berharap', 'kerja', 'nasional', 'pandemi', 'hidup', 'negara']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['sistem', 'persen', 'mendukung', 'angka', 'umkm', 'digital', 'bank', 'program', 'aplikasi', 'transaksi', 'indonesia', 'informasi', 'layanan', 'wisata', 'bali', 'hasil']</t>
+          <t>['hasil', 'informasi', 'layanan', 'bali', 'bank', 'digital', 'indonesia', 'program', 'angka', 'wisata', 'sistem', 'mendukung', 'umkm', 'aplikasi', 'transaksi', 'persen']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['sektor', 'daerah', 'masuk', 'sosial', 'pengembangan', 'mendukung', 'kawasan', 'program', 'memiliki', 'bisnis', 'perdagangan', 'indonesia', 'bidang', 'negara', 'wisata', 'ekonomi', 'perekonomian', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'perekonomian', 'sosial', 'indonesia', 'program', 'perdagangan', 'pengembangan', 'memiliki', 'kawasan', 'wisata', 'bidang', 'mendukung', 'negara', 'sektor', 'daerah', 'masuk', 'bisnis']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['universitas', 'nasional', 'pengembangan', 'pasar', 'ekonomi', 'kawasan', 'memiliki', 'bisnis', 'jalan', 'infrastruktur', 'jakarta', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'universitas', 'pengembangan', 'memiliki', 'kawasan', 'bisnis', 'nasional', 'infrastruktur', 'jalan', 'jakarta', 'pasar']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -17084,7 +17084,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'sistem', 'masuk', 'produksi', 'acara', 'proses', 'kebijakan', 'pemerintah', 'keuangan', 'bumn', 'pertumbuhan_ekonomi', 'negeri', 'pertumbuhan', 'investasi', 'angka', 'produk', 'ekonomi', 'bidang']</t>
+          <t>['investasi', 'angka', 'bidang', 'kebijakan', 'miliar', 'triliun', 'bumn', 'pertumbuhan', 'proses', 'masuk', 'pertumbuhan_ekonomi', 'keuangan', 'negeri', 'produk', 'pemerintah', 'ekonomi', 'sistem', 'produksi', 'acara']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['bri', 'nasabah', 'acara', 'digital', 'usaha', 'keuangan', 'pasar', 'bank', 'indonesia', 'layanan', 'pelaku_umkm', 'mendorong', 'umkm', 'kegiatan', 'program', 'produk', 'transaksi', 'informasi', 'langsung', 'memiliki', 'bisnis', 'aplikasi', 'digitalisasi', 'berharap', 'perekonomian']</t>
+          <t>['indonesia', 'program', 'memiliki', 'langsung', 'bri', 'mendorong', 'usaha', 'layanan', 'berharap', 'pelaku_umkm', 'pasar', 'informasi', 'bank', 'keuangan', 'umkm', 'aplikasi', 'transaksi', 'produk', 'digitalisasi', 'perekonomian', 'kegiatan', 'digital', 'nasabah', 'acara', 'bisnis']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['lingkungan', 'produksi', 'acara', 'dunia', 'meningkatkan', 'indonesia', 'pertumbuhan', 'mendorong', 'kegiatan', 'program', 'petani', 'informasi', 'politik', 'ekonomi', 'pembangunan', 'bidang', 'kementerian', 'berharap', 'jawa', 'hidup']</t>
+          <t>['indonesia', 'program', 'petani', 'bidang', 'politik', 'pembangunan', 'mendorong', 'berharap', 'lingkungan', 'pertumbuhan', 'jawa', 'kementerian', 'informasi', 'meningkatkan', 'dunia', 'ekonomi', 'kegiatan', 'hidup', 'produksi', 'acara']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -17310,7 +17310,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['sistem', 'rumah', 'usaha', 'online', 'pemerintah', 'perusahaan', 'indonesia', 'negara', 'negeri', 'hasil', 'kerja', 'daerah', 'nasional', 'angka', 'kegiatan', 'program', 'informasi', 'teknologi', 'politik', 'ekonomi', 'warga', 'pembangunan', 'bidang', 'memiliki', 'kementerian', 'terkait', 'pendidikan']</t>
+          <t>['indonesia', 'program', 'memiliki', 'angka', 'nasional', 'bidang', 'politik', 'perusahaan', 'pembangunan', 'usaha', 'negara', 'hasil', 'kerja', 'pendidikan', 'terkait', 'teknologi', 'daerah', 'kementerian', 'informasi', 'rumah', 'negeri', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'online', 'sistem']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['ekonomi', 'bisnis', 'jakarta']</t>
+          <t>['jakarta', 'ekonomi', 'bisnis']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['dunia', 'keuangan', 'persen', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'jakarta', 'pandemi', 'jokowi', 'kerja', 'daerah', 'pertumbuhan', 'investasi', 'angka', 'industri', 'ekonomi', 'warga', 'mendukung', 'bali']</t>
+          <t>['bali', 'investasi', 'indonesia', 'angka', 'pandemi', 'persen', 'negara', 'kerja', 'pertumbuhan', 'jakarta', 'daerah', 'pertumbuhan_ekonomi', 'keuangan', 'jokowi', 'dunia', 'ekonomi', 'warga', 'industri', 'mendukung']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['universitas', 'mahasiswa', 'nasabah', 'rumah', 'digital', 'syariah', 'kondisi', 'online', 'bsi', 'meningkatkan', 'pengembangan', 'bsi_mobile', 'bank_syariah', 'indonesia', 'layanan', 'negara', 'negeri', 'investasi', 'mendorong', 'transaksi', 'teknologi', 'informasi', 'industri', 'ekonomi', 'langsung', 'warga', 'memiliki', 'bisnis', 'fitur', 'perekonomian', 'pendidikan']</t>
+          <t>['bsi', 'investasi', 'indonesia', 'memiliki', 'langsung', 'mendorong', 'negara', 'layanan', 'pengembangan', 'mahasiswa', 'pendidikan', 'teknologi', 'informasi', 'rumah', 'negeri', 'meningkatkan', 'bsi_mobile', 'transaksi', 'universitas', 'kondisi', 'ekonomi', 'perekonomian', 'warga', 'bank_syariah', 'digital', 'online', 'industri', 'fitur', 'nasabah', 'syariah', 'bisnis']</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>['pertumbuhan', 'acara', 'investasi', 'ekonomi', 'bank', 'pertumbuhan_ekonomi', 'resesi', 'indonesia', 'dunia', 'negara', 'global', 'inflasi', 'terkait', 'china', 'perekonomian', 'kebijakan']</t>
+          <t>['china', 'ekonomi', 'perekonomian', 'bank', 'investasi', 'indonesia', 'resesi', 'pertumbuhan', 'global', 'negara', 'inflasi', 'dunia', 'terkait', 'kebijakan', 'acara', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>['triliun', 'miliar', 'nasabah', 'masuk', 'bri', 'digital', 'online', 'ekspor', 'persen', 'pasar', 'bank', 'indonesia', 'negara', 'negeri', 'jakarta', 'upaya', 'umkm', 'kegiatan', 'program', 'produk', 'transaksi', 'mendukung', 'memiliki', 'bisnis', 'global']</t>
+          <t>['indonesia', 'program', 'memiliki', 'bri', 'persen', 'miliar', 'negara', 'global', 'upaya', 'jakarta', 'masuk', 'pasar', 'bank', 'negeri', 'umkm', 'transaksi', 'produk', 'kegiatan', 'online', 'digital', 'nasabah', 'mendukung', 'triliun', 'ekspor', 'bisnis']</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>['kerja', 'triliun', 'sosial', 'nasional', 'ekonomi', 'angka', 'data', 'bidang', 'kementerian', 'jalan', 'kondisi', 'harga', 'negara', 'infrastruktur', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'sosial', 'harga', 'angka', 'data', 'nasional', 'kerja', 'bidang', 'negara', 'infrastruktur', 'jalan', 'kebijakan', 'kondisi', 'triliun', 'kementerian']</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>['pendidikan', 'masuk', 'saham', 'digital', 'dunia', 'usaha', 'keuangan', 'perusahaan', 'pasar', 'bank', 'indonesia', 'kerja', 'program', 'informasi', 'harga', 'ekonomi', 'sektor', 'bidang', 'berharap', 'hasil', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'bidang', 'sektor', 'perusahaan', 'usaha', 'hasil', 'berharap', 'harga', 'pengembangan', 'kerja', 'pendidikan', 'masuk', 'pasar', 'informasi', 'bank', 'keuangan', 'saham', 'dunia', 'ekonomi', 'digital']</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>['mengaku', 'jakarta', 'sektor', 'masuk']</t>
+          <t>['mengaku', 'jakarta', 'masuk', 'sektor']</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>['kerja', 'sektor', 'pasar', 'pertumbuhan', 'angka', 'data', 'ekonomi', 'hidup', 'bank', 'resesi', 'covid', 'inflasi', 'perekonomian', 'kebijakan']</t>
+          <t>['ekonomi', 'perekonomian', 'bank', 'covid', 'resesi', 'angka', 'data', 'kerja', 'pertumbuhan', 'inflasi', 'hidup', 'sektor', 'kebijakan', 'pasar']</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>['upaya', 'daerah', 'nasional', 'produksi', 'ekonomi', 'mendorong', 'terkait', 'indonesia', 'pelaku_usaha', 'covid', 'harga', 'inflasi', 'negeri', 'usaha', 'pandemi', 'hidup', 'langsung']</t>
+          <t>['ekonomi', 'indonesia', 'covid', 'harga', 'negeri', 'nasional', 'pandemi', 'langsung', 'mendorong', 'inflasi', 'upaya', 'terkait', 'hidup', 'produksi', 'daerah', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>['lingkungan', 'triliun', 'universitas', 'sistem', 'rumah', 'produksi', 'proses', 'kondisi', 'dunia', 'kebijakan', 'pemerintah', 'keuangan', 'meningkatkan', 'sekolah', 'jalan', 'indonesia', 'negara', 'negeri', 'jakarta', 'hasil', 'mendorong', 'angka', 'kegiatan', 'program', 'informasi', 'teknologi', 'harga', 'industri', 'infrastruktur', 'ekonomi', 'langsung', 'sektor', 'pembangunan', 'memiliki', 'kementerian', 'pelaku', 'terkait', 'pengembangan']</t>
+          <t>['indonesia', 'program', 'memiliki', 'angka', 'pelaku', 'sekolah', 'langsung', 'sektor', 'jalan', 'kebijakan', 'pembangunan', 'mendorong', 'negara', 'hasil', 'harga', 'pengembangan', 'lingkungan', 'terkait', 'teknologi', 'jakarta', 'proses', 'kementerian', 'informasi', 'rumah', 'keuangan', 'negeri', 'meningkatkan', 'infrastruktur', 'dunia', 'universitas', 'kondisi', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'produksi', 'triliun']</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>['masuk', 'kondisi', 'usaha', 'pemerintah', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'upaya', 'jokowi', 'daerah', 'nasional', 'pertumbuhan', 'investasi', 'data', 'politik', 'ekonomi', 'resesi', 'global', 'inflasi', 'china']</t>
+          <t>['china', 'investasi', 'indonesia', 'nasional', 'politik', 'negara', 'inflasi', 'usaha', 'data', 'pertumbuhan', 'global', 'upaya', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'jokowi', 'resesi', 'negeri', 'kondisi', 'pemerintah', 'ekonomi']</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>['kerja', 'jokowi', 'masuk', 'ekonomi', 'terkait', 'bidang', 'resesi', 'kondisi', 'negara', 'global', 'inflasi', 'negeri', 'perekonomian', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'perekonomian', 'jokowi', 'resesi', 'negeri', 'kerja', 'global', 'bidang', 'inflasi', 'terkait', 'kondisi', 'masuk', 'negara']</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -18609,7 +18609,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>['lingkungan', 'keuangan', 'triliun', 'jokowi', 'bumn', 'persen', 'acara', 'mendorong', 'bank', 'indonesia', 'dunia', 'covid', 'kondisi', 'negara', 'global', 'ekonomi', 'jakarta', 'perekonomian']</t>
+          <t>['ekonomi', 'perekonomian', 'kondisi', 'bank', 'indonesia', 'keuangan', 'jokowi', 'acara', 'covid', 'bumn', 'lingkungan', 'global', 'dunia', 'persen', 'jakarta', 'mendorong', 'triliun', 'negara']</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>['sistem', 'digital', 'kondisi', 'dunia', 'covid', 'usaha', 'bsi', 'persen', 'meningkatkan', 'pasar', 'bank', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'negeri', 'pandemi', 'upaya', 'daerah', 'nasional', 'pertumbuhan', 'investasi', 'angka', 'data', 'produk', 'informasi', 'pelaku_usaha', 'teknologi', 'harga', 'ekonomi', 'sektor', 'mendukung', 'pembangunan', 'bidang', 'memiliki', 'perdagangan', 'pembiayaan', 'fitur', 'hasil', 'perekonomian']</t>
+          <t>['bsi', 'investasi', 'indonesia', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'bidang', 'sektor', 'persen', 'pembangunan', 'usaha', 'negara', 'hasil', 'perdagangan', 'harga', 'data', 'pertumbuhan', 'upaya', 'teknologi', 'daerah', 'pasar', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'covid', 'negeri', 'meningkatkan', 'dunia', 'kondisi', 'produk', 'ekonomi', 'perekonomian', 'digital', 'fitur', 'sistem', 'mendukung', 'pelaku_usaha']</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>['memiliki', 'mengaku', 'petani', 'jalan', 'harga', 'ekonomi', 'terkait', 'usaha', 'hasil', 'warga']</t>
+          <t>['mengaku', 'hasil', 'ekonomi', 'warga', 'harga', 'memiliki', 'petani', 'jalan', 'terkait', 'usaha']</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>['sosial', 'nasional', 'ekonomi', 'mendorong', 'mendukung', 'ton', 'kegiatan', 'bisnis', 'kementerian', 'indonesia', 'kondisi', 'harga', 'industri', 'inflasi', 'usaha', 'kebijakan']</t>
+          <t>['ekonomi', 'kegiatan', 'sosial', 'indonesia', 'harga', 'industri', 'nasional', 'kementerian', 'mendorong', 'mendukung', 'inflasi', 'ton', 'kebijakan', 'kondisi', 'usaha', 'bisnis']</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>['pasar', 'memiliki', 'bisnis', 'kondisi', 'harga', 'ekonomi', 'jakarta', 'usaha', 'hidup']</t>
+          <t>['ekonomi', 'kondisi', 'harga', 'memiliki', 'bisnis', 'hidup', 'jakarta', 'usaha', 'pasar']</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>['acara', 'umkm', 'kegiatan', 'program', 'warga', 'pelaku_usaha', 'usaha', 'langsung']</t>
+          <t>['warga', 'kegiatan', 'program', 'acara', 'langsung', 'umkm', 'pelaku_usaha', 'usaha']</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>['lingkungan', 'masuk', 'digital', 'dunia', 'pemerintah', 'indonesia', 'pelatihan', 'wisata', 'kerja', 'sosial', 'daerah', 'mendorong', 'umkm', 'kegiatan', 'mengaku', 'informasi', 'langsung', 'memiliki', 'berharap', 'pengembangan']</t>
+          <t>['indonesia', 'memiliki', 'langsung', 'pelatihan', 'mendorong', 'sosial', 'berharap', 'pengembangan', 'kerja', 'lingkungan', 'wisata', 'daerah', 'masuk', 'informasi', 'umkm', 'dunia', 'pemerintah', 'mengaku', 'kegiatan', 'digital']</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>['rumah', 'sekolah', 'umkm', 'bidang', 'covid', 'pandemi', 'warga']</t>
+          <t>['rumah', 'warga', 'covid', 'pandemi', 'sekolah', 'bidang', 'umkm']</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>['keuangan', 'jawa', 'persen', 'pelaku_umkm', 'perusahaan', 'mendorong', 'umkm', 'digital', 'program', 'produk', 'mengaku', 'informasi', 'pelaku_usaha', 'pelatihan', 'usaha', 'warga']</t>
+          <t>['perusahaan', 'mengaku', 'informasi', 'warga', 'keuangan', 'digital', 'program', 'pelaku_umkm', 'umkm', 'pelatihan', 'persen', 'pelaku_usaha', 'produk', 'mendorong', 'jawa', 'usaha']</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>['miliar', 'perusahaan', 'produksi', 'meningkatkan', 'pasar', 'investasi', 'produk', 'memiliki', 'informasi', 'negara', 'ekonomi', 'warga']</t>
+          <t>['ekonomi', 'informasi', 'investasi', 'warga', 'memiliki', 'meningkatkan', 'produk', 'negara', 'perusahaan', 'produksi', 'miliar', 'pasar']</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>['keuangan', 'miliar', 'pasar', 'pembangunan', 'bank', 'bidang', 'kondisi', 'ekonomi']</t>
+          <t>['miliar', 'ekonomi', 'bank', 'keuangan', 'bidang', 'kondisi', 'pembangunan', 'pasar']</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>['perbankan', 'kondisi', 'covid', 'usaha', 'pemerintah', 'persen', 'bank', 'pertumbuhan_ekonomi', 'jalan', 'indonesia', 'pandemi', 'pertumbuhan', 'investasi', 'angka', 'konsumen', 'pelaku_usaha', 'harga', 'industri', 'ekonomi', 'sektor', 'memiliki', 'resesi', 'pelaku', 'inflasi', 'perekonomian']</t>
+          <t>['investasi', 'indonesia', 'memiliki', 'angka', 'pelaku', 'pandemi', 'sektor', 'jalan', 'persen', 'usaha', 'inflasi', 'harga', 'perbankan', 'pertumbuhan', 'pertumbuhan_ekonomi', 'bank', 'konsumen', 'covid', 'resesi', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'industri', 'pelaku_usaha']</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>['pendidikan', 'daerah', 'nasional', 'pertumbuhan', 'investasi', 'acara', 'korban', 'umkm', 'pertumbuhan_ekonomi', 'produk', 'jalan', 'indonesia', 'covid', 'negara', 'ekonomi', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'investasi', 'indonesia', 'covid', 'korban', 'nasional', 'pertumbuhan', 'negara', 'umkm', 'jalan', 'pendidikan', 'produk', 'daerah', 'acara', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>['pertumbuhan', 'ekonomi', 'bank', 'pertumbuhan_ekonomi', 'perdagangan', 'indonesia', 'kondisi', 'inflasi', 'negeri', 'china']</t>
+          <t>['china', 'ekonomi', 'bank', 'indonesia', 'perdagangan', 'negeri', 'pertumbuhan', 'inflasi', 'kondisi', 'pertumbuhan_ekonomi']</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>['jakarta', 'informasi', 'harga', 'negara', 'ekonomi', 'industri', 'pemerintah', 'kebijakan', 'langsung']</t>
+          <t>['pemerintah', 'ekonomi', 'informasi', 'harga', 'industri', 'langsung', 'kebijakan', 'jakarta', 'negara']</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>['kerja', 'persen', 'pertumbuhan', 'ekonomi', 'angka', 'pertumbuhan_ekonomi', 'jalan', 'indonesia', 'inflasi', 'terkait', 'usaha', 'hasil']</t>
+          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'indonesia', 'persen', 'angka', 'kerja', 'pertumbuhan', 'inflasi', 'jalan', 'terkait', 'usaha']</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>['acara', 'proses', 'kementerian', 'indonesia', 'ekonomi', 'jakarta']</t>
+          <t>['ekonomi', 'indonesia', 'jakarta', 'proses', 'acara', 'kementerian']</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['daerah', 'mendorong', 'konsumen', 'kementerian', 'jalan', 'negara', 'ekonomi', 'terkait', 'perekonomian', 'online', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'perekonomian', 'online', 'konsumen', 'negara', 'jalan', 'terkait', 'mendorong', 'daerah', 'kementerian']</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>['langsung', 'sektor', 'pelaku_umkm', 'produksi', 'meningkatkan', 'umkm', 'proses', 'program', 'bantuan', 'memiliki', 'produk', 'indonesia', 'aplikasi', 'digitalisasi', 'ekonomi', 'berharap', 'pemerintah']</t>
+          <t>['pemerintah', 'ekonomi', 'indonesia', 'program', 'berharap', 'memiliki', 'meningkatkan', 'pelaku_umkm', 'langsung', 'umkm', 'sektor', 'aplikasi', 'produksi', 'produk', 'proses', 'bantuan', 'digitalisasi']</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>['universitas', 'sistem', 'investasi', 'acara', 'bali', 'ekonomi', 'bantuan', 'memiliki', 'indonesia', 'dunia', 'negara', 'infrastruktur', 'negeri', 'langsung']</t>
+          <t>['ekonomi', 'bali', 'investasi', 'indonesia', 'memiliki', 'negeri', 'sistem', 'langsung', 'infrastruktur', 'dunia', 'universitas', 'acara', 'bantuan', 'negara']</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>['upaya', 'kerja', 'sektor', 'jawa', 'masuk', 'pertumbuhan', 'konsumen', 'pertumbuhan_ekonomi', 'produk', 'perdagangan', 'resesi', 'indonesia', 'pelaku_usaha', 'negara', 'global', 'ekonomi', 'usaha', 'pemerintah']</t>
+          <t>['pertumbuhan_ekonomi', 'pemerintah', 'ekonomi', 'indonesia', 'konsumen', 'masuk', 'perdagangan', 'resesi', 'kerja', 'pertumbuhan', 'global', 'negara', 'sektor', 'upaya', 'pelaku_usaha', 'produk', 'jawa', 'usaha']</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -20233,7 +20233,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>['masuk', 'ekonomi', 'global', 'hidup', 'produk', 'pandemi', 'kondisi', 'dunia', 'covid', 'negara', 'harga', 'inflasi', 'negeri', 'china', 'perekonomian', 'hasil']</t>
+          <t>['china', 'hasil', 'ekonomi', 'perekonomian', 'covid', 'harga', 'negeri', 'pandemi', 'global', 'inflasi', 'dunia', 'hidup', 'kondisi', 'produk', 'masuk', 'negara']</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>['miliar', 'rumah', 'acara', 'kebijakan', 'pemerintah', 'persen', 'pasar', 'indonesia', 'jakarta', 'kerja', 'sosial', 'nasional', 'mendorong', 'program', 'informasi', 'ekonomi', 'langsung', 'warga', 'keluarga', 'mendukung', 'bantuan', 'pembiayaan', 'berharap', 'jawa']</t>
+          <t>['indonesia', 'program', 'pembiayaan', 'nasional', 'langsung', 'persen', 'kebijakan', 'miliar', 'mendorong', 'sosial', 'berharap', 'kerja', 'jakarta', 'jawa', 'pasar', 'informasi', 'rumah', 'keluarga', 'pemerintah', 'ekonomi', 'warga', 'mendukung', 'acara', 'bantuan']</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>['sosial', 'sistem', 'politik', 'negara', 'ekonomi', 'terkait']</t>
+          <t>['ekonomi', 'sosial', 'sistem', 'politik', 'terkait', 'negara']</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>['keuangan', 'sektor', 'daerah', 'mendorong', 'perbankan', 'digital', 'proses', 'produk', 'memiliki', 'aplikasi', 'informasi', 'layanan', 'ekonomi', 'jakarta', 'pengembangan']</t>
+          <t>['ekonomi', 'informasi', 'layanan', 'keuangan', 'digital', 'pengembangan', 'memiliki', 'perbankan', 'sektor', 'aplikasi', 'proses', 'mendorong', 'jakarta', 'produk', 'daerah']</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>['upaya', 'kerja', 'langsung', 'universitas', 'acara', 'pembangunan', 'digital', 'memiliki', 'politik', 'indonesia', 'dunia', 'negara', 'warga']</t>
+          <t>['warga', 'indonesia', 'digital', 'memiliki', 'kerja', 'langsung', 'dunia', 'politik', 'upaya', 'universitas', 'pembangunan', 'acara', 'negara']</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>['ekonomi', 'pembangunan']</t>
+          <t>['pembangunan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['keuangan', 'investasi', 'mendorong', 'saham', 'bisnis', 'resesi', 'kondisi', 'covid', 'global', 'ekonomi']</t>
+          <t>['ekonomi', 'investasi', 'keuangan', 'covid', 'resesi', 'saham', 'global', 'kondisi', 'mendorong', 'bisnis']</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['upaya', 'persen', 'pembangunan', 'proses', 'warga', 'jalan', 'kondisi', 'politik', 'ekonomi', 'pemerintah', 'langsung']</t>
+          <t>['pemerintah', 'ekonomi', 'warga', 'langsung', 'politik', 'jalan', 'upaya', 'persen', 'kondisi', 'pembangunan', 'proses']</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>['persen', 'produksi', 'angka', 'konsumen', 'proses', 'jakarta', 'bidang', 'kementerian', 'jalan', 'kondisi', 'indonesia', 'ekonomi', 'terkait', 'kebijakan', 'pemerintah']</t>
+          <t>['pemerintah', 'produksi', 'ekonomi', 'kondisi', 'indonesia', 'konsumen', 'persen', 'angka', 'bidang', 'jalan', 'terkait', 'kebijakan', 'jakarta', 'proses', 'kementerian']</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>['produksi', 'proses', 'pemerintah', 'ekspor', 'pasar', 'bank', 'pertumbuhan_ekonomi', 'negara', 'negeri', 'kerja', 'daerah', 'nasional', 'pertumbuhan', 'harga', 'industri', 'ekonomi', 'langsung', 'impor', 'pembangunan', 'pendidikan']</t>
+          <t>['nasional', 'langsung', 'pembangunan', 'negara', 'harga', 'kerja', 'pertumbuhan', 'pendidikan', 'proses', 'daerah', 'pertumbuhan_ekonomi', 'pasar', 'bank', 'negeri', 'pemerintah', 'ekonomi', 'impor', 'industri', 'produksi', 'ekspor']</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>['upaya', 'sektor', 'daerah', 'meningkatkan', 'acara', 'data', 'kegiatan', 'covid', 'ekonomi', 'jawa', 'pandemi', 'berharap']</t>
+          <t>['ekonomi', 'kegiatan', 'covid', 'berharap', 'acara', 'data', 'meningkatkan', 'pandemi', 'sektor', 'upaya', 'daerah', 'jawa']</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>['sistem', 'proses', 'kondisi', 'dunia', 'koperasi', 'usaha', 'kebijakan', 'pemerintah', 'ekspor', 'meningkatkan', 'pasar', 'pertumbuhan_ekonomi', 'indonesia', 'negara', 'wisata', 'daerah', 'nasional', 'pertumbuhan', 'kawasan', 'kegiatan', 'program', 'produk', 'pelaku_usaha', 'industri', 'ekonomi', 'keluarga', 'memiliki', 'global', 'bali', 'jawa', 'china', 'hidup']</t>
+          <t>['china', 'bali', 'indonesia', 'program', 'memiliki', 'nasional', 'kebijakan', 'usaha', 'negara', 'wisata', 'pertumbuhan', 'global', 'daerah', 'jawa', 'proses', 'pertumbuhan_ekonomi', 'pasar', 'koperasi', 'kawasan', 'meningkatkan', 'dunia', 'kondisi', 'produk', 'keluarga', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'hidup', 'pelaku_usaha', 'ekspor']</t>
         </is>
       </c>
       <c r="F253" t="n">

--- a/what/ekonomi/df_result_lda.xlsx
+++ b/what/ekonomi/df_result_lda.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'memiliki', 'angka', 'nasional', 'sektor', 'persen', 'kebijakan', 'miliar', 'mendorong', 'usaha', 'negara', 'inflasi', 'hasil', 'mahasiswa', 'data', 'pelaku_umkm', 'pertumbuhan', 'global', 'jakarta', 'kementerian', 'pertumbuhan_ekonomi', 'bank', 'keuangan', 'resesi', 'negeri', 'umkm', 'dunia', 'universitas', 'kondisi', 'produk', 'ekonomi', 'perekonomian', 'kegiatan', 'digital', 'impor', 'produksi', 'ekspor']</t>
+          <t>['umkm', 'pelaku_umkm', 'global', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'kondisi', 'kebijakan', 'bangsa', 'keuangan', 'usaha', 'universitas', 'ekspor', 'data', 'mahasiswa', 'impor', 'mendorong', 'nasional', 'produk', 'jakarta', 'negara', 'bank', 'produksi', 'ekonomi', 'inflasi', 'investasi', 'miliar', 'juta', 'dunia', 'kegiatan', 'perekonomian', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -621,7 +621,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kondisi', 'keuangan', 'indonesia', 'digitalisasi', 'industri', 'bisnis', 'kerja', 'pandemi', 'langsung', 'aplikasi', 'transaksi', 'perusahaan', 'teknologi', 'produk', 'proses', 'masuk', 'usaha']</t>
+          <t>['keuangan', 'kondisi', 'produk', 'perusahaan', 'transaksi', 'usaha', 'bisnis', 'indonesia', 'kerja', 'digitalisasi', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -689,7 +689,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['ekonomi', 'program', 'pengembangan', 'meningkatkan', 'pelatihan', 'acara']</t>
+          <t>['program', 'ekonomi', 'acara', 'ganjar']</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -755,7 +755,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'berharap', 'politik', 'jakarta', 'pembangunan', 'masuk']</t>
+          <t>['mengaku', 'pembangunan', 'presiden', 'politik', 'jakarta', 'kali', 'menteri', 'ekonomi']</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -822,7 +822,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'langsung', 'petani', 'perusahaan', 'persen', 'usaha', 'hasil', 'proses', 'rumah', 'bank', 'umkm', 'kondisi', 'keluarga', 'ekonomi', 'online', 'mendukung', 'hidup', 'produksi', 'ekspor', 'bisnis']</t>
+          <t>['kampus', 'perusahaan', 'umkm', 'memiliki', 'keluarga', 'usaha', 'petani', 'kali', 'bisnis', 'juta', 'indonesia', 'ekspor', 'persen', 'bank', 'rumah', 'kondisi', 'produksi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -922,7 +922,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['ekonomi', 'investasi', 'indonesia', 'kegiatan', 'negeri', 'memiliki', 'nasional', 'negara', 'pembangunan', 'daerah', 'usaha']</t>
+          <t>['pembangunan', 'nasional', 'memiliki', 'investasi', 'usaha', 'daerah', 'kegiatan', 'indonesia', 'ribu', 'negara', 'menteri', 'ekonomi']</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'layanan', 'warga', 'indonesia', 'berharap', 'memiliki', 'pelaku_umkm', 'wisata', 'langsung', 'pertumbuhan', 'mendorong', 'jawa']</t>
+          <t>['presiden', 'pelaku_umkm', 'memiliki', 'banyuwangi', 'wisata', 'jawa', 'indonesia', 'warga', 'layanan', 'ekonomi', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['indonesia', 'nasional', 'pandemi', 'perusahaan', 'persen', 'miliar', 'negara', 'inflasi', 'harga', 'kerja', 'pertumbuhan', 'keuangan', 'covid', 'resesi', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'industri', 'mendukung', 'ton', 'produksi', 'triliun', 'bisnis']</t>
+          <t>['perusahaan', 'indonesia', 'kondisi', 'keuangan', 'ton', 'ribu', 'industri', 'nasional', 'negara', 'produksi', 'ekonomi', 'inflasi', 'miliar', 'dunia', 'bisnis', 'kerja', 'perekonomian', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'nasional', 'sektor', 'perusahaan', 'pembangunan', 'mendorong', 'negara', 'berharap', 'bumn', 'pertumbuhan', 'jakarta', 'proses', 'pertumbuhan_ekonomi', 'pasar', 'saham', 'infrastruktur', 'transaksi', 'pemerintah', 'ekonomi', 'industri', 'mendukung', 'produksi']</t>
+          <t>['program', 'pembangunan', 'perusahaan', 'transaksi', 'memiliki', 'indonesia', 'bumn', 'pertumbuhan_ekonomi', 'infrastruktur', 'industri', 'mendorong', 'nasional', 'jakarta', 'pasar', 'negara', 'produksi', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['ekonomi', 'koperasi', 'indonesia', 'kegiatan', 'program', 'kerja', 'kawasan', 'pelaku', 'nasional', 'jalan', 'terkait', 'proses', 'jawa']</t>
+          <t>['koperasi', 'program', 'nasional', 'terkait', 'pariwisata', 'jawa', 'kegiatan', 'indonesia', 'kerja', 'pelaku', 'ekonomi']</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['indonesia', 'nasional', 'langsung', 'persen', 'usaha', 'hasil', 'perdagangan', 'harga', 'terkait', 'jakarta', 'masuk', 'pasar', 'informasi', 'konsumen', 'universitas', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'industri', 'sistem', 'produksi', 'bisnis']</t>
+          <t>['indonesia', 'harga', 'kondisi', 'usaha', 'universitas', 'hukum', 'industri', 'nasional', 'produk', 'jakarta', 'pasar', 'produksi', 'ekonomi', 'pemerintah', 'terkait', 'juta', 'bisnis', 'perdagangan', 'persen', 'informasi']</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'mengaku', 'pemerintah', 'ekonomi', 'investasi', 'indonesia', 'program', 'jokowi', 'acara', 'bumn', 'negeri', 'pertumbuhan', 'produk', 'bidang', 'terkait', 'miliar', 'triliun', 'kementerian']</t>
+          <t>['program', 'mengaku', 'bidang', 'acara', 'presiden', 'produk', 'terkait', 'jokowi', 'miliar', 'investasi', 'indonesia', 'bumn', 'pertumbuhan_ekonomi', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'kondisi', 'rumah', 'warga', 'sosial', 'keuangan', 'negeri', 'lingkungan', 'memiliki', 'kawasan', 'sekolah', 'kerja', 'hidup', 'jakarta', 'keluarga', 'bantuan', 'usaha']</t>
+          <t>['bantuan', 'keuangan', 'mengaku', 'sekolah', 'hidup', 'memiliki', 'keluarga', 'jakarta', 'usaha', 'warga', 'kerja', 'rumah', 'lingkungan', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'hasil', 'pemerintah', 'ekonomi', 'universitas', 'kegiatan', 'sosial', 'indonesia', 'industri', 'pertumbuhan', 'teknologi', 'kondisi', 'ekspor', 'pasar']</t>
+          <t>['pertumbuhan', 'sosial', 'kegiatan', 'indonesia', 'universitas', 'ekspor', 'pertumbuhan_ekonomi', 'pasar', 'kondisi', 'ekonomi', 'pemerintah', 'industri']</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['hasil', 'informasi', 'program', 'ekspor', 'harga', 'acara', 'kementerian', 'langsung', 'sistem', 'aplikasi', 'hidup', 'miliar', 'jawa', 'bantuan', 'pasar']</t>
+          <t>['bantuan', 'program', 'acara', 'ganjar', 'hidup', 'miliar', 'jawa', 'ekspor', 'harga', 'pasar', 'informasi']</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['china', 'program', 'memiliki', 'pembiayaan', 'sekolah', 'pelatihan', 'bri', 'persen', 'jalan', 'usaha', 'masuk', 'kementerian', 'pasar', 'konsumen', 'umkm', 'produk', 'mengaku', 'kegiatan', 'online', 'bantuan']</t>
+          <t>['bantuan', 'program', 'mengaku', 'sekolah', 'produk', 'umkm', 'memiliki', 'usaha', 'juta', 'kali', 'kegiatan', 'persen', 'bri', 'jalan', 'pasar']</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'memiliki', 'pelaku', 'pandemi', 'mendorong', 'acara', 'usaha', 'negara', 'perdagangan', 'bumn', 'data', 'pelaku_umkm', 'pertumbuhan', 'terkait', 'daerah', 'pertumbuhan_ekonomi', 'kementerian', 'pasar', 'konsumen', 'covid', 'negeri', 'meningkatkan', 'umkm', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'online', 'impor', 'sistem', 'pelaku_usaha', 'ekspor']</t>
+          <t>['umkm', 'pelaku_umkm', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'pelaku', 'pelaku_usaha', 'usaha', 'ekspor', 'impor', 'mendorong', 'produk', 'daerah', 'negara', 'pasar', 'ekonomi', 'pemerintah', 'acara', 'terkait', 'investasi', 'juta', 'dunia', 'perdagangan', 'kegiatan', 'umk', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'perekonomian', 'covid', 'harga', 'korban', 'industri', 'data', 'kebijakan', 'produksi', 'mendorong', 'ekspor', 'negara']</t>
+          <t>['mendorong', 'data', 'produksi', 'juta', 'korban', 'ekspor', 'perekonomian', 'negara', 'harga', 'kebijakan', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['perusahaan', 'ekonomi', 'indonesia', 'jalan', 'terkait', 'jakarta', 'miliar', 'bantuan', 'kementerian']</t>
+          <t>['bantuan', 'perusahaan', 'terkait', 'miliar', 'jakarta', 'kali', 'indonesia', 'jalan', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'investasi', 'online', 'indonesia', 'perdagangan', 'resesi', 'acara', 'negeri', 'angka', 'nasional', 'produk', 'transaksi', 'dunia', 'miliar', 'triliun', 'ekspor', 'negara']</t>
+          <t>['acara', 'produk', 'nasional', 'transaksi', 'investasi', 'miliar', 'juta', 'kali', 'perdagangan', 'dunia', 'indonesia', 'ekspor', 'ribu', 'negara', 'ekonomi']</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'nasional', 'langsung', 'pelatihan', 'bri', 'persen', 'mendorong', 'usaha', 'negara', 'hasil', 'perdagangan', 'lingkungan', 'pelaku_umkm', 'terkait', 'jakarta', 'proses', 'masuk', 'pasar', 'kementerian', 'bank', 'koperasi', 'keuangan', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'ekonomi', 'kegiatan', 'online', 'nasabah', 'mendukung', 'produksi', 'acara', 'bisnis']</t>
+          <t>['program', 'rakyat', 'umkm', 'pelaku_umkm', 'global', 'transaksi', 'memiliki', 'nasabah', 'indonesia', 'bri', 'bangsa', 'keuangan', 'usaha', 'ribu', 'ukm', 'mendorong', 'nasional', 'produk', 'jakarta', 'bali', 'negara', 'pasar', 'bank', 'produksi', 'ekonomi', 'acara', 'terkait', 'bisnis', 'perdagangan', 'kegiatan', 'persen']</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['ekonomi', 'layanan', 'investasi', 'indonesia', 'digital', 'keuangan', 'kerja', 'meningkatkan', 'nasabah', 'perusahaan', 'kondisi', 'bisnis']</t>
+          <t>['keuangan', 'perusahaan', 'global', 'nasabah', 'investasi', 'digital', 'bisnis', 'indonesia', 'kerja', 'layanan', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['layanan', 'online', 'harga', 'jakarta', 'pasar']</t>
+          <t>['pasar', 'jakarta', 'harga', 'layanan']</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'pelatihan', 'bri', 'acara', 'negara', 'usaha', 'berharap', 'pengembangan', 'kerja', 'jakarta', 'pasar', 'informasi', 'rumah', 'bank', 'negeri', 'meningkatkan', 'kegiatan', 'industri', 'mendukung', 'produksi', 'pelaku_usaha', 'bisnis']</t>
+          <t>['program', 'rakyat', 'indonesia', 'bri', 'bangsa', 'pelaku_usaha', 'usaha', 'industri', 'jakarta', 'bank', 'negara', 'pasar', 'produksi', 'acara', 'bisnis', 'kegiatan', 'kerja', 'rumah', 'informasi']</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'indonesia', 'jokowi', 'industri', 'nasional', 'dunia', 'kondisi', 'acara']</t>
+          <t>['mengaku', 'acara', 'nasional', 'global', 'jokowi', 'dunia', 'kali', 'indonesia', 'kondisi', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['keuangan', 'indonesia', 'bumn', 'memiliki', 'negara', 'perusahaan', 'jakarta', 'ekspor', 'pasar']</t>
+          <t>['keuangan', 'perusahaan', 'memiliki', 'jakarta', 'bumn', 'indonesia', 'ekspor', 'negara', 'pasar']</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'bidang', 'jalan', 'kebijakan', 'pembangunan', 'mendorong', 'hasil', 'berharap', 'lingkungan', 'upaya', 'terkait', 'jakarta', 'proses', 'negeri', 'meningkatkan', 'produk', 'pemerintah', 'perekonomian', 'industri', 'mendukung', 'ekspor']</t>
+          <t>['pembangunan', 'mendorong', 'presiden', 'produk', 'terkait', 'jakarta', 'ton', 'indonesia', 'ekspor', 'perekonomian', 'jalan', 'kebijakan', 'pemerintah', 'bangsa', 'industri']</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['ekonomi', 'online', 'program', 'berharap', 'harga', 'meningkatkan', 'aplikasi', 'jakarta', 'pasar', 'bisnis']</t>
+          <t>['program', 'jakarta', 'banyuwangi', 'bisnis', 'harga', 'pasar', 'ekonomi']</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'langsung', 'bidang', 'persen', 'negara', 'pertumbuhan', 'upaya', 'kementerian', 'bank', 'keuangan', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'triliun']</t>
+          <t>['keuangan', 'bidang', 'presiden', 'nasional', 'memiliki', 'dunia', 'indonesia', 'bank', 'perekonomian', 'persen', 'negara', 'kondisi', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['china', 'indonesia', 'nasional', 'bidang', 'mendorong', 'negara', 'perdagangan', 'perbankan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'bank', 'transaksi', 'produk', 'digitalisasi', 'ekonomi', 'digital', 'nasabah', 'bisnis']</t>
+          <t>['perbankan', 'mendorong', 'nasional', 'produk', 'transaksi', 'global', 'nasabah', 'digital', 'bisnis', 'perdagangan', 'bank', 'pertumbuhan_ekonomi', 'negara', 'digitalisasi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'politik', 'sektor', 'miliar', 'negara', 'triliun', 'perdagangan', 'upaya', 'daerah', 'masuk', 'meningkatkan', 'transaksi', 'produk', 'keluarga', 'pemerintah', 'mengaku', 'ekonomi', 'kegiatan', 'acara', 'bisnis']</t>
+          <t>['mengaku', 'acara', 'produk', 'politik', 'transaksi', 'keluarga', 'miliar', 'investasi', 'daerah', 'bisnis', 'perdagangan', 'kegiatan', 'indonesia', 'juta', 'ribu', 'negara', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['china', 'perusahaan', 'pemerintah', 'ekonomi', 'investasi', 'covid', 'memiliki', 'meningkatkan', 'pandemi', 'saham', 'pertumbuhan', 'sektor', 'upaya', 'terkait', 'teknologi', 'miliar', 'triliun']</t>
+          <t>['perusahaan', 'terkait', 'memiliki', 'investasi', 'miliar', 'pemerintah', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['sosial', 'digital', 'konsumen', 'harga', 'pelaku_umkm', 'umkm', 'produk', 'pelaku_usaha', 'usaha']</t>
+          <t>['pelaku_usaha', 'produk', 'umkm', 'pelaku_umkm', 'usaha', 'digital', 'harga', 'sosial']</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'informasi', 'program', 'perdagangan', 'harga', 'negeri', 'aplikasi', 'kebijakan', 'kondisi', 'produk', 'ekspor', 'pasar']</t>
+          <t>['program', 'produk', 'rakyat', 'kali', 'perdagangan', 'ekspor', 'harga', 'pasar', 'kondisi', 'kebijakan', 'informasi']</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3245,7 +3245,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'ton', 'kegiatan', 'indonesia', 'program', 'industri', 'nasional', 'pertumbuhan', 'produk', 'umkm', 'upaya', 'perusahaan', 'produksi', 'pembangunan', 'daerah', 'triliun', 'pasar']</t>
+          <t>['program', 'pembangunan', 'ekonomi', 'nasional', 'produk', 'perusahaan', 'umkm', 'global', 'pertumbuhan', 'ton', 'daerah', 'kegiatan', 'indonesia', 'ribu', 'pasar', 'produksi', 'pemerintah', 'industri']</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'mendorong', 'negara', 'usaha', 'berharap', 'perbankan', 'pertumbuhan', 'global', 'proses', 'bank', 'negeri', 'meningkatkan', 'saham', 'umkm', 'transaksi', 'dunia', 'produk', 'digitalisasi', 'ekonomi', 'perekonomian', 'kegiatan', 'ekspor', 'bisnis']</t>
+          <t>['perbankan', 'mendorong', 'produk', 'umkm', 'transaksi', 'global', 'memiliki', 'usaha', 'dunia', 'bisnis', 'kegiatan', 'bank', 'ekspor', 'perekonomian', 'negara', 'digitalisasi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'memiliki', 'langsung', 'bidang', 'sektor', 'jalan', 'perusahaan', 'mendorong', 'negara', 'bumn', 'perbankan', 'kerja', 'pendidikan', 'teknologi', 'proses', 'masuk', 'bank', 'keuangan', 'meningkatkan', 'saham', 'infrastruktur', 'dunia', 'transaksi', 'produk', 'keluarga', 'digital', 'nasabah', 'bisnis']</t>
+          <t>['program', 'perusahaan', 'transaksi', 'memiliki', 'nasabah', 'kali', 'indonesia', 'bumn', 'infrastruktur', 'keuangan', 'digital', 'perbankan', 'mendorong', 'bidang', 'produk', 'keluarga', 'bank', 'negara', 'investasi', 'dunia', 'bisnis', 'kerja', 'jalan']</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'program', 'angka', 'lingkungan', 'umkm', 'upaya', 'persen', 'kondisi', 'bantuan']</t>
+          <t>['program', 'bantuan', 'umkm', 'banyuwangi', 'persen', 'lingkungan', 'kondisi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['ekonomi', 'investasi', 'sosial', 'bumn', 'lingkungan', 'hidup']</t>
+          <t>['politik', 'bumn', 'sosial', 'menteri', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['ekonomi', 'jalan']</t>
+          <t>['jalan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'angka', 'pembiayaan', 'nasional', 'pandemi', 'langsung', 'bidang', 'sektor', 'pelatihan', 'jalan', 'pembangunan', 'mendorong', 'usaha', 'negara', 'inflasi', 'pengembangan', 'data', 'lingkungan', 'kerja', 'pertumbuhan', 'terkait', 'teknologi', 'pertumbuhan_ekonomi', 'bank', 'covid', 'resesi', 'negeri', 'meningkatkan', 'umkm', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'industri', 'mendukung', 'produksi', 'pelaku_usaha', 'bantuan']</t>
+          <t>['program', 'pembangunan', 'umkm', 'indonesia', 'pertumbuhan_ekonomi', 'lingkungan', 'pelaku_usaha', 'usaha', 'digital', 'data', 'industri', 'bantuan', 'bidang', 'nasional', 'produk', 'negara', 'menteri', 'produksi', 'ekonomi', 'pemerintah', 'inflasi', 'terkait', 'juta', 'dunia', 'kerja', 'perekonomian', 'jalan', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['perusahaan', 'hasil', 'layanan', 'online', 'program', 'digital', 'triliun', 'digitalisasi', 'pengembangan', 'memiliki', 'bisnis', 'pertumbuhan', 'umkm', 'pelatihan', 'persen', 'pelaku_usaha', 'usaha']</t>
+          <t>['program', 'pelaku_usaha', 'perusahaan', 'umkm', 'memiliki', 'usaha', 'bisnis', 'persen', 'layanan', 'digitalisasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'memiliki', 'pandemi', 'langsung', 'persen', 'kebijakan', 'mendorong', 'negara', 'harga', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'bank', 'jokowi', 'covid', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'ekspor']</t>
+          <t>['global', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'harga', 'kondisi', 'kebijakan', 'jokowi', 'ekspor', 'mendorong', 'bank', 'negara', 'ekonomi', 'pemerintah', 'gubernur', 'investasi', 'dunia', 'perekonomian', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['china', 'indonesia', 'memiliki', 'pandemi', 'bidang', 'sektor', 'kebijakan', 'negara', 'inflasi', 'perdagangan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'kementerian', 'pasar', 'covid', 'resesi', 'kawasan', 'meningkatkan', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'ekspor']</t>
+          <t>['inflasi', 'global', 'memiliki', 'pertumbuhan', 'dunia', 'perdagangan', 'indonesia', 'pertumbuhan_ekonomi', 'ekspor', 'perekonomian', 'negara', 'kondisi', 'kebijakan', 'ekonomi', 'pasar']</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'angka', 'pembiayaan', 'bri', 'persen', 'miliar', 'mendorong', 'acara', 'usaha', 'negara', 'kerja', 'pelaku_umkm', 'terkait', 'jakarta', 'koperasi', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'pemerintah', 'kegiatan', 'mendukung', 'triliun', 'ekspor', 'bisnis']</t>
+          <t>['umkm', 'pelaku_umkm', 'transaksi', 'kali', 'indonesia', 'bri', 'usaha', 'ekspor', 'ukm', 'mendorong', 'produk', 'jakarta', 'negara', 'menteri', 'pemerintah', 'acara', 'terkait', 'investasi', 'miliar', 'juta', 'bisnis', 'kegiatan', 'kerja', 'persen']</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'pandemi', 'politik', 'negara', 'harga', 'lingkungan', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'keuangan', 'covid', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'acara', 'ekspor']</t>
+          <t>['keuangan', 'acara', 'politik', 'global', 'investasi', 'lingkungan', 'jakarta', 'dunia', 'indonesia', 'ekspor', 'perekonomian', 'negara', 'kondisi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4309,7 +4309,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'indonesia', 'perdagangan', 'berharap', 'negeri', 'kawasan', 'nasional', 'mahasiswa', 'politik', 'dunia', 'kebijakan', 'universitas', 'negara']</t>
+          <t>['nasional', 'politik', 'dunia', 'perdagangan', 'indonesia', 'universitas', 'negara', 'kebijakan', 'ekonomi', 'mahasiswa']</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4400,7 +4400,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'informasi', 'bali', 'bank', 'rumah', 'indonesia', 'memiliki', 'sistem', 'transaksi']</t>
+          <t>['transaksi', 'memiliki', 'bali', 'indonesia', 'rumah', 'bank', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'sektor', 'perusahaan', 'miliar', 'negara', 'usaha', 'perdagangan', 'berharap', 'pengembangan', 'kerja', 'global', 'upaya', 'terkait', 'jakarta', 'kementerian', 'jokowi', 'negeri', 'ekonomi', 'industri', 'triliun']</t>
+          <t>['rakyat', 'terkait', 'perusahaan', 'global', 'jokowi', 'miliar', 'jakarta', 'usaha', 'investasi', 'perdagangan', 'indonesia', 'kerja', 'negara', 'menteri', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -4549,7 +4549,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['indonesia', 'impor', 'kawasan', 'langsung', 'beras', 'aplikasi', 'jalan', 'usaha']</t>
+          <t>['impor', 'usaha', 'indonesia', 'jalan', 'beras']</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -4621,7 +4621,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'informasi', 'rumah', 'program', 'data', 'langsung', 'terkait', 'kebijakan', 'jakarta', 'masuk', 'usaha']</t>
+          <t>['program', 'ekonomi', 'terkait', 'jakarta', 'usaha', 'data', 'kebijakan', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'perekonomian', 'indonesia', 'resesi', 'angka', 'pertumbuhan', 'dunia', 'kondisi', 'pertumbuhan_ekonomi']</t>
+          <t>['dunia', 'indonesia', 'pertumbuhan_ekonomi', 'perekonomian', 'ekonomi', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'hasil', 'pemerintah', 'ekonomi', 'indonesia', 'kerja', 'nasional', 'pertumbuhan', 'inflasi', 'produk', 'usaha', 'kementerian']</t>
+          <t>['gubernur', 'nasional', 'produk', 'inflasi', 'pertumbuhan', 'pemerintah', 'usaha', 'indonesia', 'pertumbuhan_ekonomi', 'kerja', 'umk', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['hasil', 'indonesia', 'berharap', 'kerja', 'lingkungan', 'perusahaan', 'hidup', 'proses', 'jawa', 'masuk']</t>
+          <t>['perusahaan', 'jakarta', 'jawa', 'indonesia', 'kerja']</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -4895,7 +4895,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['indonesia', 'nasional', 'pandemi', 'politik', 'sektor', 'persen', 'kebijakan', 'miliar', 'negara', 'inflasi', 'hasil', 'perdagangan', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'keuangan', 'covid', 'negeri', 'transaksi', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'warga']</t>
+          <t>['transaksi', 'global', 'indonesia', 'pertumbuhan_ekonomi', 'kebijakan', 'bangsa', 'keuangan', 'ribu', 'nasional', 'negara', 'ekonomi', 'pemerintah', 'politik', 'inflasi', 'miliar', 'juta', 'perdagangan', 'warga', 'perekonomian', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'nasional', 'sekolah', 'bidang', 'politik', 'perusahaan', 'kebijakan', 'pembangunan', 'usaha', 'lingkungan', 'pendidikan', 'jakarta', 'daerah', 'masuk', 'rumah', 'negeri', 'ekonomi', 'warga', 'industri', 'hidup', 'bantuan']</t>
+          <t>['pembangunan', 'pendidikan', 'perusahaan', 'memiliki', 'kali', 'indonesia', 'kebijakan', 'sekolah', 'usaha', 'industri', 'bantuan', 'bidang', 'nasional', 'jakarta', 'daerah', 'menteri', 'ekonomi', 'politik', 'warga', 'rumah']</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['bsi', 'investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'sekolah', 'bri', 'jalan', 'perusahaan', 'usaha', 'hasil', 'layanan', 'sosial', 'pengembangan', 'perbankan', 'global', 'pendidikan', 'teknologi', 'proses', 'masuk', 'informasi', 'bank', 'keuangan', 'bsi_mobile', 'aplikasi', 'transaksi', 'produk', 'keluarga', 'pemerintah', 'ekonomi', 'bank_syariah', 'online', 'digital', 'fitur', 'nasabah', 'mendukung', 'syariah', 'hidup', 'bisnis']</t>
+          <t>['program', 'pendidikan', 'perusahaan', 'syariah', 'transaksi', 'global', 'memiliki', 'nasabah', 'indonesia', 'layanan', 'bri', 'bank_syariah', 'keuangan', 'sekolah', 'hidup', 'usaha', 'digital', 'produk', 'keluarga', 'bank', 'pemerintah', 'ekonomi', 'bsi', 'investasi', 'bisnis', 'sosial', 'jalan', 'informasi']</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['pemerintah', 'indonesia', 'jokowi', 'bumn', 'negeri', 'industri', 'langsung', 'kebijakan', 'ekspor', 'negara']</t>
+          <t>['jokowi', 'indonesia', 'bumn', 'ekspor', 'negara', 'kebijakan', 'pemerintah', 'industri']</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['produksi', 'ekonomi', 'kegiatan', 'nasional', 'mendukung', 'jakarta', 'pembangunan', 'proses', 'jawa', 'kementerian']</t>
+          <t>['pembangunan', 'nasional', 'jakarta', 'juta', 'jawa', 'kegiatan', 'produksi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -5323,7 +5323,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['ekonomi', 'warga', 'sosial', 'jalan', 'hidup', 'kondisi']</t>
+          <t>['hidup', 'warga', 'sosial', 'jalan', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pelaku', 'pandemi', 'nasional', 'bidang', 'sektor', 'jalan', 'persen', 'perusahaan', 'pembangunan', 'mendorong', 'usaha', 'layanan', 'triliun', 'berharap', 'data', 'pertumbuhan', 'global', 'upaya', 'pendidikan', 'terkait', 'teknologi', 'proses', 'kementerian', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'keuangan', 'konsumen', 'meningkatkan', 'infrastruktur', 'transaksi', 'dunia', 'produk', 'keluarga', 'digitalisasi', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'industri', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
+          <t>['program', 'pembangunan', 'pendidikan', 'perusahaan', 'transaksi', 'global', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'layanan', 'digitalisasi', 'infrastruktur', 'bangsa', 'keuangan', 'pelaku_usaha', 'usaha', 'digital', 'data', 'industri', 'mendorong', 'bidang', 'nasional', 'produk', 'keluarga', 'bank', 'pemerintah', 'ekonomi', 'gubernur', 'terkait', 'investasi', 'dunia', 'bisnis', 'perekonomian', 'persen', 'jalan', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'layanan', 'bali', 'bank', 'upaya', 'indonesia', 'berharap', 'harga', 'program', 'industri', 'online', 'nasional', 'pertumbuhan', 'aplikasi', 'transaksi', 'persen', 'jakarta']</t>
+          <t>['program', 'nasional', 'transaksi', 'pertumbuhan', 'pariwisata', 'jakarta', 'bali', 'bank', 'persen', 'layanan', 'harga', 'ekonomi', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['pemerintah', 'layanan', 'warga', 'indonesia', 'harga', 'negeri', 'wisata', 'sistem', 'umkm', 'aplikasi', 'jalan', 'terkait', 'daerah', 'jawa', 'negara']</t>
+          <t>['terkait', 'umkm', 'pariwisata', 'banyuwangi', 'daerah', 'juta', 'wisata', 'jawa', 'indonesia', 'warga', 'harga', 'layanan', 'negara', 'jalan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'keuangan', 'indonesia', 'perdagangan', 'impor', 'pertumbuhan', 'dunia', 'persen', 'miliar', 'ekspor', 'inflasi']</t>
+          <t>['keuangan', 'impor', 'inflasi', 'miliar', 'dunia', 'perdagangan', 'indonesia', 'ekspor', 'perekonomian', 'persen', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengaku', 'bali', 'investasi', 'indonesia', 'program', 'perdagangan', 'kerja', 'dunia', 'terkait', 'kebijakan', 'ekspor', 'negara']</t>
+          <t>['mengaku', 'terkait', 'investasi', 'bali', 'dunia', 'perdagangan', 'indonesia', 'kerja', 'ekspor', 'negara', 'menteri', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'bidang', 'perusahaan', 'persen', 'hasil', 'sosial', 'upaya', 'jakarta', 'jawa', 'bank', 'konsumen', 'infrastruktur', 'produk', 'ekonomi', 'kegiatan', 'industri', 'ton', 'bisnis']</t>
+          <t>['produk', 'perusahaan', 'jakarta', 'bali', 'ton', 'bisnis', 'juta', 'kegiatan', 'indonesia', 'bank', 'jawa', 'persen', 'sosial', 'ekonomi', 'infrastruktur', 'industri']</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['bsi', 'indonesia', 'program', 'memiliki', 'mendorong', 'usaha', 'hasil', 'layanan', 'pengembangan', 'mahasiswa', 'lingkungan', 'perbankan', 'global', 'upaya', 'pendidikan', 'bank', 'keuangan', 'jokowi', 'negeri', 'meningkatkan', 'bsi_mobile', 'aplikasi', 'dunia', 'transaksi', 'universitas', 'produk', 'pemerintah', 'ekonomi', 'bank_syariah', 'digital', 'industri', 'nasabah', 'mendukung', 'syariah']</t>
+          <t>['program', 'kampus', 'pendidikan', 'syariah', 'transaksi', 'global', 'memiliki', 'nasabah', 'indonesia', 'layanan', 'lingkungan', 'bank_syariah', 'keuangan', 'jokowi', 'usaha', 'digital', 'universitas', 'mahasiswa', 'industri', 'perbankan', 'mendorong', 'produk', 'bank', 'pemerintah', 'ekonomi', 'presiden', 'bsi', 'pariwisata', 'juta', 'dunia']</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['ekonomi', 'bank', 'indonesia', 'pertumbuhan', 'inflasi', 'dunia', 'persen', 'pertumbuhan_ekonomi']</t>
+          <t>['inflasi', 'dunia', 'indonesia', 'pertumbuhan_ekonomi', 'persen', 'bank', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'langsung', 'bidang', 'sektor', 'persen', 'pembangunan', 'miliar', 'mendorong', 'negara', 'perdagangan', 'global', 'upaya', 'pendidikan', 'informasi', 'jokowi', 'negeri', 'kawasan', 'dunia', 'digitalisasi', 'ekonomi', 'perekonomian', 'kegiatan', 'impor', 'mendukung', 'ekspor']</t>
+          <t>['pembangunan', 'pendidikan', 'global', 'kali', 'indonesia', 'digitalisasi', 'jokowi', 'ekspor', 'impor', 'mendorong', 'negara', 'menteri', 'ekonomi', 'investasi', 'miliar', 'dunia', 'perdagangan', 'perekonomian', 'persen', 'informasi']</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -6079,7 +6079,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengaku', 'ekonomi', 'rumah', 'warga', 'sosial', 'program', 'data', 'pandemi', 'sekolah', 'jalan', 'keluarga', 'bantuan', 'usaha']</t>
+          <t>['bantuan', 'program', 'mengaku', 'sekolah', 'data', 'keluarga', 'usaha', 'warga', 'rumah', 'sosial', 'jalan', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'ekonomi', 'kegiatan', 'indonesia', 'konsumen', 'jokowi', 'perdagangan', 'berharap', 'resesi', 'memiliki', 'online', 'sistem', 'global', 'pertumbuhan', 'kebijakan', 'masuk', 'pasar']</t>
+          <t>['memiliki', 'jokowi', 'jakarta', 'perdagangan', 'kegiatan', 'indonesia', 'pertumbuhan_ekonomi', 'pasar', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['mengaku', 'hasil', 'ekonomi', 'rumah', 'indonesia', 'resesi', 'bumn', 'memiliki', 'nasional', 'politik', 'kondisi', 'daerah', 'jawa']</t>
+          <t>['mengaku', 'presiden', 'politik', 'rakyat', 'memiliki', 'daerah', 'jawa', 'indonesia', 'rumah', 'ekonomi', 'bangsa']</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'pandemi', 'pelatihan', 'persen', 'mendorong', 'usaha', 'layanan', 'kerja', 'pelaku_umkm', 'teknologi', 'masuk', 'kementerian', 'pasar', 'koperasi', 'meningkatkan', 'umkm', 'pemerintah', 'ekonomi', 'perekonomian', 'digital', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
+          <t>['program', 'mendorong', 'layanan', 'pelaku_usaha', 'umkm', 'pelaku_umkm', 'memiliki', 'usaha', 'digital', 'bisnis', 'indonesia', 'kerja', 'perekonomian', 'ukm', 'pasar', 'persen', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'angka', 'memiliki', 'kawasan', 'pertumbuhan', 'negara', 'pembangunan', 'mendorong', 'masuk', 'pertumbuhan_ekonomi']</t>
+          <t>['pembangunan', 'memiliki', 'pertumbuhan_ekonomi', 'negara', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['perusahaan', 'pemerintah', 'ekonomi', 'keuangan', 'berharap', 'angka', 'pertumbuhan', 'inflasi', 'persen', 'kondisi', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['keuangan', 'gubernur', 'perusahaan', 'inflasi', 'pemerintah', 'juta', 'pertumbuhan_ekonomi', 'persen', 'umk', 'kondisi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['pemerintah', 'produksi', 'ekonomi', 'kondisi', 'layanan', 'kegiatan', 'digital', 'berharap', 'memiliki', 'industri', 'bidang', 'dunia', 'pendidikan', 'universitas', 'produk', 'daerah']</t>
+          <t>['ekonomi', 'bidang', 'pendidikan', 'produk', 'memiliki', 'banyuwangi', 'daerah', 'digital', 'dunia', 'kegiatan', 'universitas', 'layanan', 'kondisi', 'produksi', 'pemerintah', 'bangsa', 'industri']</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -6595,7 +6595,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['hasil', 'produksi', 'impor', 'angka', 'memiliki', 'pertumbuhan', 'bidang', 'persen', 'kondisi', 'miliar']</t>
+          <t>['impor', 'bidang', 'memiliki', 'miliar', 'persen', 'kondisi', 'produksi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -6653,7 +6653,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'nasional', 'pelatihan', 'persen', 'mendorong', 'usaha', 'negara', 'sosial', 'perdagangan', 'berharap', 'pengembangan', 'bumn', 'lingkungan', 'pelaku_umkm', 'pertumbuhan', 'global', 'upaya', 'masuk', 'pasar', 'rumah', 'konsumen', 'negeri', 'meningkatkan', 'umkm', 'produk', 'digitalisasi', 'pemerintah', 'ekonomi', 'perekonomian', 'kegiatan', 'online', 'mendukung', 'produksi', 'ekspor', 'bisnis']</t>
+          <t>['program', 'umkm', 'pelaku_umkm', 'global', 'memiliki', 'indonesia', 'lingkungan', 'digitalisasi', 'usaha', 'ekspor', 'ukm', 'mendorong', 'produk', 'negara', 'pasar', 'produksi', 'pemerintah', 'ekonomi', 'bisnis', 'perdagangan', 'kegiatan', 'perekonomian', 'persen', 'sosial', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -6766,7 +6766,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['china', 'mengaku', 'pemerintah', 'ekonomi', 'layanan', 'keuangan', 'covid', 'resesi', 'pembiayaan', 'pandemi', 'global', 'pertumbuhan', 'negara', 'jalan', 'kebijakan', 'universitas', 'pertumbuhan_ekonomi']</t>
+          <t>['keuangan', 'mengaku', 'ekonomi', 'global', 'universitas', 'pertumbuhan_ekonomi', 'layanan', 'negara', 'jalan', 'kebijakan', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'kondisi', 'perekonomian', 'investasi', 'jokowi', 'kerja', 'global', 'dunia', 'jakarta', 'ekspor', 'negara']</t>
+          <t>['presiden', 'global', 'jokowi', 'investasi', 'jakarta', 'dunia', 'kali', 'kerja', 'ekspor', 'perekonomian', 'negara', 'kondisi', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['bali', 'investasi', 'indonesia', 'pandemi', 'langsung', 'sektor', 'usaha', 'berharap', 'mahasiswa', 'kerja', 'pelaku_umkm', 'pertumbuhan', 'global', 'terkait', 'pertumbuhan_ekonomi', 'umkm', 'universitas', 'pemerintah', 'mengaku', 'ekonomi', 'kegiatan', 'pelaku_usaha', 'bantuan']</t>
+          <t>['mengaku', 'umkm', 'pelaku_umkm', 'global', 'indonesia', 'pertumbuhan_ekonomi', 'pelaku_usaha', 'usaha', 'universitas', 'mahasiswa', 'hukum', 'bantuan', 'bali', 'ekonomi', 'pemerintah', 'terkait', 'investasi', 'kegiatan', 'kerja', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'indonesia', 'jokowi', 'acara', 'nasional', 'pertumbuhan', 'global', 'petani', 'negara', 'infrastruktur', 'jalan', 'pembangunan', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['pembangunan', 'acara', 'nasional', 'jokowi', 'jakarta', 'banyuwangi', 'petani', 'jawa', 'indonesia', 'pertumbuhan_ekonomi', 'perekonomian', 'ribu', 'jalan', 'ekonomi', 'infrastruktur', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -7036,7 +7036,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'angka', 'nasional', 'mendorong', 'triliun', 'perdagangan', 'berharap', 'pertumbuhan', 'daerah', 'pertumbuhan_ekonomi', 'informasi', 'negeri', 'umkm', 'transaksi', 'produk', 'pemerintah', 'ekonomi', 'online', 'acara']</t>
+          <t>['program', 'acara', 'produk', 'nasional', 'umkm', 'transaksi', 'daerah', 'perdagangan', 'indonesia', 'ekonomi', 'pemerintah', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['ekonomi', 'universitas', 'indonesia', 'berharap', 'resesi', 'mahasiswa', 'memiliki', 'wisata', 'industri', 'kerja', 'dunia', 'hidup', 'teknologi', 'negara']</t>
+          <t>['hidup', 'memiliki', 'juta', 'dunia', 'wisata', 'bangsa', 'indonesia', 'universitas', 'kerja', 'negara', 'ekonomi', 'mahasiswa', 'industri']</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['perusahaan', 'hasil', 'pemerintah', 'ekonomi', 'kegiatan', 'memiliki', 'kerja', 'pertumbuhan', 'petani', 'bidang', 'inflasi', 'dunia', 'terkait', 'kondisi', 'produk', 'pertumbuhan_ekonomi']</t>
+          <t>['gubernur', 'bidang', 'presiden', 'produk', 'perusahaan', 'terkait', 'inflasi', 'memiliki', 'pertumbuhan', 'petani', 'dunia', 'kegiatan', 'pertumbuhan_ekonomi', 'kerja', 'ekonomi', 'pemerintah', 'hukum']</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'ekonomi', 'perekonomian', 'indonesia', 'berharap', 'mahasiswa', 'data', 'politik', 'persen', 'kebijakan', 'kondisi', 'produk', 'proses', 'negara']</t>
+          <t>['data', 'ekonomi', 'produk', 'politik', 'bangsa', 'indonesia', 'perekonomian', 'persen', 'negara', 'kebijakan', 'pemerintah', 'mahasiswa', 'hukum']</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'negeri', 'nasional', 'langsung', 'negara', 'kebijakan', 'jakarta', 'miliar', 'proses', 'pelaku_usaha', 'usaha']</t>
+          <t>['pelaku_usaha', 'nasional', 'miliar', 'jakarta', 'usaha', 'negara', 'menteri', 'kebijakan', 'ekonomi', 'informasi', 'hukum']</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['informasi', 'layanan', 'konsumen', 'memiliki', 'meningkatkan', 'data', 'dunia', 'perusahaan', 'produk', 'usaha']</t>
+          <t>['produk', 'perusahaan', 'memiliki', 'usaha', 'dunia', 'layanan', 'data', 'informasi']</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -7531,7 +7531,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'perekonomian', 'rumah', 'keuangan', 'indonesia', 'ekspor', 'perdagangan', 'harga', 'negeri', 'langsung', 'bidang', 'produk', 'perusahaan', 'miliar', 'triliun', 'bantuan', 'negara']</t>
+          <t>['bantuan', 'keuangan', 'bidang', 'produk', 'perusahaan', 'miliar', 'juta', 'perdagangan', 'indonesia', 'ekspor', 'perekonomian', 'negara', 'harga', 'menteri', 'ekonomi', 'pemerintah', 'hukum']</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['ekonomi', 'rumah', 'indonesia', 'harga', 'data', 'angka', 'pertumbuhan', 'inflasi', 'persen', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['data', 'presiden', 'rakyat', 'inflasi', 'pertumbuhan', 'jawa', 'indonesia', 'pertumbuhan_ekonomi', 'persen', 'ribu', 'harga', 'rumah', 'ekonomi', 'umk']</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['perusahaan', 'online', 'indonesia', 'program', 'bumn', 'sistem', 'langsung', 'petani', 'bidang', 'umkm', 'bri', 'sektor', 'terkait', 'nasabah', 'pembangunan', 'proses', 'usaha']</t>
+          <t>['program', 'pembangunan', 'bidang', 'rakyat', 'terkait', 'perusahaan', 'umkm', 'nasabah', 'usaha', 'petani', 'juta', 'indonesia', 'bumn', 'kerja', 'ribu', 'bri']</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['rumah', 'konsumen', 'harga', 'memiliki', 'meningkatkan', 'lingkungan', 'angka', 'produksi', 'produk', 'pasar', 'bisnis']</t>
+          <t>['produk', 'memiliki', 'bisnis', 'harga', 'rumah', 'lingkungan', 'produksi', 'pasar']</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['hasil', 'ekonomi', 'informasi', 'kegiatan', 'sosial', 'konsumen', 'memiliki', 'transaksi', 'pendidikan', 'hidup', 'produksi', 'usaha']</t>
+          <t>['pendidikan', 'hidup', 'transaksi', 'memiliki', 'usaha', 'kegiatan', 'sosial', 'produksi', 'ekonomi', 'informasi', 'hukum']</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'perekonomian', 'rumah', 'sosial', 'program', 'harga', 'data', 'petani', 'infrastruktur', 'kebijakan', 'kondisi', 'triliun', 'bantuan', 'usaha']</t>
+          <t>['bantuan', 'program', 'data', 'ekonomi', 'pemerintah', 'usaha', 'petani', 'perekonomian', 'harga', 'sosial', 'kebijakan', 'infrastruktur']</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'ekonomi', 'indonesia', 'memiliki', 'sistem', 'politik', 'jakarta', 'acara']</t>
+          <t>['acara', 'presiden', 'rakyat', 'politik', 'memiliki', 'jakarta', 'indonesia', 'ekonomi', 'pemerintah', 'bangsa']</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['ekonomi', 'investasi', 'masuk', 'jokowi', 'resesi', 'memiliki', 'nasional', 'pertumbuhan', 'global', 'negara', 'kondisi', 'daerah', 'triliun', 'pertumbuhan_ekonomi']</t>
+          <t>['nasional', 'memiliki', 'jokowi', 'investasi', 'daerah', 'pertumbuhan_ekonomi', 'negara', 'kondisi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -8174,7 +8174,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['pemerintah', 'pengembangan', 'pelaku_umkm', 'petani', 'sektor', 'persen', 'jawa', 'bantuan']</t>
+          <t>['bantuan', 'ganjar', 'pelaku_umkm', 'petani', 'kali', 'juta', 'jawa', 'persen', 'ribu']</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pelaku', 'nasional', 'kebijakan', 'acara', 'usaha', 'perdagangan', 'pertumbuhan', 'global', 'daerah', 'proses', 'pasar', 'informasi', 'resesi', 'negeri', 'meningkatkan', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'sistem', 'mendukung', 'pelaku_usaha', 'bisnis']</t>
+          <t>['program', 'global', 'memiliki', 'indonesia', 'kebijakan', 'pelaku', 'pelaku_usaha', 'usaha', 'ukm', 'nasional', 'produk', 'daerah', 'pasar', 'ekonomi', 'pemerintah', 'acara', 'investasi', 'dunia', 'bisnis', 'perdagangan', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'perusahaan', 'miliar', 'inflasi', 'hasil', 'perdagangan', 'harga', 'data', 'pertumbuhan', 'global', 'upaya', 'pertumbuhan_ekonomi', 'pasar', 'informasi', 'covid', 'resesi', 'saham', 'transaksi', 'ekonomi', 'mendukung', 'ekspor']</t>
+          <t>['data', 'perusahaan', 'inflasi', 'transaksi', 'global', 'investasi', 'miliar', 'kali', 'perdagangan', 'indonesia', 'pertumbuhan_ekonomi', 'ekspor', 'harga', 'pasar', 'ekonomi', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -8439,7 +8439,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'pandemi', 'langsung', 'bidang', 'pelatihan', 'kerja', 'pertumbuhan', 'terkait', 'teknologi', 'pertumbuhan_ekonomi', 'kementerian', 'informasi', 'meningkatkan', 'pemerintah', 'ekonomi', 'perekonomian', 'kegiatan', 'online', 'digital', 'sistem', 'triliun', 'bantuan']</t>
+          <t>['bantuan', 'program', 'presiden', 'terkait', 'digital', 'juta', 'kegiatan', 'indonesia', 'pertumbuhan_ekonomi', 'perekonomian', 'kerja', 'ekonomi', 'pemerintah', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>['bali', 'investasi', 'indonesia', 'program', 'memiliki', 'angka', 'nasional', 'pandemi', 'langsung', 'politik', 'sektor', 'persen', 'kebijakan', 'miliar', 'mendorong', 'negara', 'inflasi', 'hasil', 'sosial', 'perdagangan', 'kerja', 'lingkungan', 'pertumbuhan', 'global', 'upaya', 'terkait', 'proses', 'masuk', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'keuangan', 'covid', 'resesi', 'negeri', 'kawasan', 'umkm', 'transaksi', 'dunia', 'kondisi', 'universitas', 'pemerintah', 'ekonomi', 'perekonomian', 'warga', 'hidup', 'triliun']</t>
+          <t>['program', 'rakyat', 'umkm', 'transaksi', 'global', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'kebijakan', 'bangsa', 'keuangan', 'universitas', 'ribu', 'hukum', 'mendorong', 'nasional', 'bali', 'negara', 'bank', 'pemerintah', 'ekonomi', 'politik', 'terkait', 'inflasi', 'investasi', 'miliar', 'juta', 'dunia', 'perdagangan', 'warga', 'kerja', 'perekonomian', 'persen', 'sosial', 'rumah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>['ekonomi', 'layanan', 'indonesia', 'covid', 'harga', 'bumn', 'kementerian', 'jakarta', 'jawa', 'pasar']</t>
+          <t>['rakyat', 'jakarta', 'jawa', 'indonesia', 'bumn', 'harga', 'layanan', 'pasar', 'ekonomi']</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>['ekonomi', 'rumah', 'nasional', 'dunia', 'terkait', 'acara', 'negara']</t>
+          <t>['acara', 'nasional', 'rakyat', 'terkait', 'dunia', 'rumah', 'negara', 'ekonomi', 'bangsa']</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'pembiayaan', 'pelaku', 'mendorong', 'usaha', 'data', 'upaya', 'kementerian', 'informasi', 'bank', 'keuangan', 'meningkatkan', 'umkm', 'aplikasi', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'online', 'industri', 'sistem', 'bisnis']</t>
+          <t>['keuangan', 'mendorong', 'ekonomi', 'produk', 'umkm', 'memiliki', 'usaha', 'dunia', 'bisnis', 'indonesia', 'bank', 'data', 'hukum', 'pelaku', 'pemerintah', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'covid', 'berharap', 'harga', 'angka', 'kerja', 'pertumbuhan', 'inflasi', 'persen', 'daerah', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['gubernur', 'inflasi', 'pertumbuhan', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'harga', 'persen', 'kerja', 'ekonomi', 'umk']</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'sosial', 'indonesia', 'covid', 'mahasiswa', 'meningkatkan', 'kerja', 'pandemi', 'langsung', 'politik', 'sektor', 'dunia', 'pendidikan', 'jalan', 'universitas', 'pembangunan']</t>
+          <t>['mengaku', 'kampus', 'pembangunan', 'pendidikan', 'politik', 'dunia', 'indonesia', 'universitas', 'kerja', 'sosial', 'jalan', 'ekonomi', 'mahasiswa']</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -9026,7 +9026,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['bsi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'pandemi', 'langsung', 'sektor', 'persen', 'perusahaan', 'hasil', 'layanan', 'sosial', 'harga', 'perbankan', 'data', 'pertumbuhan', 'global', 'proses', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'keuangan', 'konsumen', 'covid', 'bsi_mobile', 'aplikasi', 'transaksi', 'digitalisasi', 'ekonomi', 'bank_syariah', 'online', 'digital', 'fitur', 'sistem', 'nasabah', 'syariah', 'bisnis']</t>
+          <t>['program', 'perusahaan', 'syariah', 'transaksi', 'global', 'memiliki', 'nasabah', 'indonesia', 'pertumbuhan_ekonomi', 'harga', 'layanan', 'digitalisasi', 'bank_syariah', 'keuangan', 'digital', 'data', 'perbankan', 'bank', 'ekonomi', 'bsi', 'juta', 'bisnis', 'persen', 'sosial', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['program', 'angka', 'nasional', 'politik', 'jalan', 'inflasi', 'negara', 'harga', 'pertumbuhan', 'global', 'terkait', 'bank', 'keuangan', 'resesi', 'negeri', 'meningkatkan', 'dunia', 'kondisi', 'ekonomi', 'warga', 'industri', 'ekspor']</t>
+          <t>['keuangan', 'nasional', 'politik', 'terkait', 'inflasi', 'pertumbuhan', 'dunia', 'warga', 'ekspor', 'harga', 'negara', 'jalan', 'kondisi', 'menteri', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -9227,7 +9227,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'angka', 'langsung', 'bidang', 'sektor', 'pembangunan', 'mendorong', 'negara', 'perdagangan', 'data', 'wisata', 'pertumbuhan', 'upaya', 'daerah', 'pertumbuhan_ekonomi', 'kementerian', 'kawasan', 'dunia', 'produk', 'ekonomi', 'perekonomian', 'kegiatan', 'industri', 'mendukung', 'acara']</t>
+          <t>['program', 'pembangunan', 'indonesia', 'pertumbuhan_ekonomi', 'data', 'industri', 'mendorong', 'bidang', 'produk', 'daerah', 'negara', 'ekonomi', 'acara', 'investasi', 'pariwisata', 'dunia', 'wisata', 'perdagangan', 'kegiatan', 'perekonomian', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'investasi', 'indonesia', 'triliun', 'jokowi', 'nasional', 'pertumbuhan', 'negara', 'infrastruktur', 'persen', 'jakarta', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['presiden', 'nasional', 'jokowi', 'investasi', 'jakarta', 'jawa', 'indonesia', 'pertumbuhan_ekonomi', 'persen', 'negara', 'menteri', 'ekonomi', 'infrastruktur', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>['nasional', 'pandemi', 'bidang', 'sektor', 'sosial', 'pertumbuhan', 'global', 'upaya', 'pendidikan', 'jakarta', 'pertumbuhan_ekonomi', 'kementerian', 'informasi', 'keuangan', 'konsumen', 'covid', 'negeri', 'meningkatkan', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'mendukung', 'acara']</t>
+          <t>['keuangan', 'bidang', 'acara', 'pendidikan', 'nasional', 'pertumbuhan', 'jakarta', 'kegiatan', 'pertumbuhan_ekonomi', 'sosial', 'ekonomi', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['perusahaan', 'pemerintah', 'persen', 'angka', 'terkait', 'proses']</t>
+          <t>['gubernur', 'perusahaan', 'terkait', 'juta', 'persen', 'umk', 'pemerintah', 'hukum']</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>['perusahaan', 'pemerintah', 'ekonomi', 'informasi', 'warga', 'sosial', 'indonesia', 'memiliki', 'bisnis', 'kerja', 'sekolah', 'langsung', 'bidang', 'negara', 'sistem', 'pendidikan', 'proses', 'usaha']</t>
+          <t>['sekolah', 'bidang', 'pendidikan', 'perusahaan', 'memiliki', 'usaha', 'sosial', 'bisnis', 'indonesia', 'warga', 'kerja', 'negara', 'ekonomi', 'pemerintah', 'informasi', 'hukum']</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>['ekonomi', 'keuangan', 'indonesia', 'kegiatan', 'harga', 'data', 'lingkungan', 'nasional', 'meningkatkan', 'kerja', 'negara', 'dunia', 'perusahaan', 'kebijakan', 'produksi', 'acara', 'usaha']</t>
+          <t>['keuangan', 'data', 'acara', 'nasional', 'produksi', 'perusahaan', 'lingkungan', 'usaha', 'dunia', 'kegiatan', 'indonesia', 'kerja', 'harga', 'negara', 'menteri', 'kebijakan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -9692,7 +9692,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['perusahaan', 'ekonomi', 'perekonomian', 'indonesia', 'berharap', 'resesi', 'persen', 'jalan', 'terkait', 'jakarta', 'daerah', 'negara']</t>
+          <t>['presiden', 'rakyat', 'terkait', 'perusahaan', 'jakarta', 'daerah', 'juta', 'indonesia', 'perekonomian', 'persen', 'negara', 'jalan', 'ekonomi', 'umk']</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>['pemerintah', 'koperasi', 'perdagangan', 'harga', 'beras', 'umkm', 'ton', 'kondisi', 'pasar']</t>
+          <t>['umkm', 'ton', 'perdagangan', 'harga', 'pasar', 'kondisi', 'koperasi', 'pemerintah', 'beras']</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['keuangan', 'impor', 'negeri', 'pelaku', 'kawasan', 'data', 'jakarta', 'masuk', 'kementerian']</t>
+          <t>['keuangan', 'impor', 'jakarta', 'data', 'pelaku']</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>['program', 'pembiayaan', 'sektor', 'persen', 'mendorong', 'usaha', 'perdagangan', 'perbankan', 'pelaku_umkm', 'upaya', 'proses', 'pasar', 'informasi', 'koperasi', 'meningkatkan', 'umkm', 'aplikasi', 'produk', 'ekonomi', 'digital', 'industri', 'produksi', 'pelaku_usaha']</t>
+          <t>['program', 'rakyat', 'umkm', 'pelaku_umkm', 'kali', 'pelaku_usaha', 'usaha', 'digital', 'ukm', 'industri', 'perbankan', 'mendorong', 'produk', 'pasar', 'menteri', 'produksi', 'ekonomi', 'juta', 'perdagangan', 'persen', 'koperasi', 'informasi']</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>['pemerintah', 'layanan', 'koperasi', 'masuk', 'online', 'harga', 'daerah', 'umkm', 'jakarta', 'usaha', 'acara', 'pasar']</t>
+          <t>['layanan', 'acara', 'umkm', 'jakarta', 'usaha', 'daerah', 'harga', 'ukm', 'pasar', 'menteri', 'pemerintah']</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>['china', 'memiliki', 'angka', 'nasional', 'pandemi', 'sektor', 'perusahaan', 'inflasi', 'negara', 'data', 'global', 'covid', 'resesi', 'meningkatkan', 'dunia', 'ekonomi', 'perekonomian', 'kegiatan', 'produksi', 'ekspor']</t>
+          <t>['data', 'nasional', 'perusahaan', 'inflasi', 'memiliki', 'dunia', 'kegiatan', 'perekonomian', 'ekspor', 'negara', 'produksi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>['program', 'memiliki', 'pelaku', 'langsung', 'pelatihan', 'perusahaan', 'acara', 'usaha', 'layanan', 'berharap', 'pengembangan', 'lingkungan', 'global', 'jawa', 'pasar', 'konsumen', 'negeri', 'produk', 'online', 'digital', 'mendukung', 'produksi', 'pelaku_usaha', 'ekspor']</t>
+          <t>['program', 'umk', 'acara', 'pelaku_usaha', 'produk', 'perusahaan', 'global', 'memiliki', 'usaha', 'digital', 'jawa', 'ekspor', 'layanan', 'lingkungan', 'produksi', 'pasar']</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'bank', 'indonesia', 'covid', 'jokowi', 'pertumbuhan', 'bidang', 'sektor', 'dunia', 'jakarta', 'pembangunan', 'pertumbuhan_ekonomi']</t>
+          <t>['pembangunan', 'jokowi', 'jakarta', 'dunia', 'indonesia', 'pertumbuhan_ekonomi', 'perekonomian', 'bank', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'nasional', 'pelaku', 'pelatihan', 'persen', 'mendorong', 'acara', 'usaha', 'negara', 'perdagangan', 'berharap', 'pengembangan', 'bumn', 'pelaku_umkm', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'pasar', 'rumah', 'konsumen', 'negeri', 'meningkatkan', 'umkm', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'online', 'mendukung', 'pelaku_usaha', 'ekspor']</t>
+          <t>['program', 'umkm', 'pelaku_umkm', 'global', 'memiliki', 'indonesia', 'pelaku', 'pelaku_usaha', 'usaha', 'ekspor', 'ukm', 'mendorong', 'produk', 'jakarta', 'negara', 'pasar', 'ekonomi', 'pemerintah', 'acara', 'perdagangan', 'perekonomian', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>['china', 'hasil', 'ekonomi', 'sosial', 'indonesia', 'perdagangan', 'memiliki', 'bidang', 'jalan', 'dunia', 'produk', 'masuk', 'negara']</t>
+          <t>['bidang', 'produk', 'memiliki', 'juta', 'sosial', 'perdagangan', 'dunia', 'indonesia', 'negara', 'jalan', 'ekonomi', 'bangsa']</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'pandemi', 'bidang', 'mendorong', 'negara', 'pertumbuhan', 'global', 'jakarta', 'daerah', 'bank', 'covid', 'resesi', 'umkm', 'dunia', 'kondisi', 'ekonomi', 'perekonomian', 'ekspor']</t>
+          <t>['mendorong', 'bidang', 'umkm', 'investasi', 'jakarta', 'daerah', 'dunia', 'indonesia', 'ekspor', 'perekonomian', 'bank', 'kondisi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -10479,7 +10479,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'perekonomian', 'sosial', 'digital', 'program', 'covid', 'memiliki', 'angka', 'data', 'pandemi', 'pertumbuhan', 'kondisi', 'daerah', 'bisnis']</t>
+          <t>['program', 'data', 'memiliki', 'daerah', 'digital', 'bisnis', 'pertumbuhan_ekonomi', 'perekonomian', 'sosial', 'kondisi', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -10564,7 +10564,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>['china', 'informasi', 'bali', 'warga', 'indonesia', 'kegiatan', 'perdagangan', 'negeri', 'industri', 'mendukung', 'negara', 'aplikasi', 'jalan', 'terkait', 'jakarta', 'jawa', 'ekspor', 'kementerian']</t>
+          <t>['hukum', 'terkait', 'jakarta', 'bali', 'perdagangan', 'kegiatan', 'indonesia', 'warga', 'jawa', 'ekspor', 'negara', 'jalan', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -10831,7 +10831,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>['ekonomi', 'pasar', 'kerja', 'pertumbuhan', 'kebijakan', 'usaha', 'jawa', 'pertumbuhan_ekonomi']</t>
+          <t>['gubernur', 'usaha', 'juta', 'jawa', 'pertumbuhan_ekonomi', 'kerja', 'ribu', 'pasar', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perdagangan', 'harga', 'data', 'saham', 'kondisi']</t>
+          <t>['data', 'perdagangan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'acara', 'wisata', 'pembangunan', 'jawa']</t>
+          <t>['mengaku', 'pembangunan', 'acara', 'kali', 'wisata', 'jawa', 'ekonomi']</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>['informasi', 'layanan', 'indonesia', 'harga', 'impor', 'angka', 'industri', 'kerja', 'global', 'langsung', 'negara', 'ton', 'kebijakan', 'kondisi', 'kementerian']</t>
+          <t>['impor', 'global', 'ton', 'indonesia', 'kerja', 'harga', 'layanan', 'negara', 'kondisi', 'kebijakan', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'pandemi', 'sektor', 'kebijakan', 'negara', 'usaha', 'sosial', 'berharap', 'bumn', 'perbankan', 'lingkungan', 'pelaku_umkm', 'pertumbuhan', 'pendidikan', 'covid', 'meningkatkan', 'umkm', 'ekonomi', 'perekonomian', 'hidup']</t>
+          <t>['program', 'perbankan', 'pendidikan', 'umkm', 'pelaku_umkm', 'lingkungan', 'usaha', 'sosial', 'indonesia', 'bumn', 'perekonomian', 'negara', 'menteri', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'langsung', 'bidang', 'kebijakan', 'mendorong', 'negara', 'usaha', 'hasil', 'data', 'kerja', 'terkait', 'kementerian', 'bank', 'keuangan', 'negeri', 'kondisi', 'pemerintah', 'ekonomi', 'kegiatan', 'impor', 'acara', 'ekspor']</t>
+          <t>['indonesia', 'kondisi', 'kebijakan', 'keuangan', 'usaha', 'ekspor', 'data', 'impor', 'mendorong', 'bidang', 'bali', 'bank', 'negara', 'ekonomi', 'pemerintah', 'acara', 'terkait', 'kegiatan', 'kerja']</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>['hasil', 'ekonomi', 'harga', 'kawasan', 'pertumbuhan', 'jalan', 'perusahaan', 'jakarta', 'pasar']</t>
+          <t>['perusahaan', 'jakarta', 'harga', 'pasar', 'jalan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>['bidang', 'persen', 'miliar', 'pembangunan', 'usaha', 'hasil', 'berharap', 'kerja', 'pertumbuhan', 'pendidikan', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'informasi', 'meningkatkan', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'ton', 'bantuan']</t>
+          <t>['bantuan', 'pembangunan', 'bidang', 'pendidikan', 'miliar', 'usaha', 'ton', 'daerah', 'kegiatan', 'warga', 'pertumbuhan_ekonomi', 'persen', 'kerja', 'ekonomi', 'pemerintah', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>['mengaku', 'hasil', 'rumah', 'korban', 'memiliki', 'terkait', 'jakarta', 'keluarga']</t>
+          <t>['mengaku', 'terkait', 'memiliki', 'keluarga', 'jakarta', 'korban', 'rumah']</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>['program', 'nasional', 'langsung', 'kebijakan', 'mendorong', 'negara', 'pertumbuhan', 'terkait', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'jokowi', 'negeri', 'infrastruktur', 'pemerintah', 'ekonomi', 'industri', 'mendukung', 'triliun', 'ekspor']</t>
+          <t>['mendorong', 'ekonomi', 'presiden', 'nasional', 'rakyat', 'terkait', 'jokowi', 'pemerintah', 'pertumbuhan', 'daerah', 'pertumbuhan_ekonomi', 'ekspor', 'negara', 'kebijakan', 'infrastruktur', 'industri']</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>['china', 'mengaku', 'ekonomi', 'investasi', 'indonesia', 'nasional', 'pertumbuhan', 'bidang', 'pendidikan', 'proses', 'pertumbuhan_ekonomi']</t>
+          <t>['mengaku', 'bidang', 'nasional', 'pendidikan', 'indonesia', 'pertumbuhan_ekonomi', 'ribu', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>['ekonomi', 'rumah', 'warga', 'kegiatan', 'covid', 'keluarga', 'korban', 'pandemi', 'beras', 'daerah', 'bantuan', 'pasar']</t>
+          <t>['bantuan', 'keluarga', 'daerah', 'korban', 'kegiatan', 'warga', 'rumah', 'pasar', 'ekonomi', 'beras']</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -11606,7 +11606,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['mengaku', 'ekonomi', 'perekonomian', 'investasi', 'indonesia', 'keuangan', 'perdagangan', 'harga', 'data', 'nasional', 'saham', 'negara', 'transaksi', 'perusahaan', 'pasar']</t>
+          <t>['keuangan', 'mengaku', 'data', 'nasional', 'perusahaan', 'transaksi', 'investasi', 'juta', 'kali', 'perdagangan', 'indonesia', 'perekonomian', 'negara', 'ekonomi', 'pasar']</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -11672,7 +11672,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'indonesia', 'jokowi', 'perdagangan', 'kerja', 'mendukung', 'terkait', 'mendorong', 'jawa', 'negara']</t>
+          <t>['mendorong', 'presiden', 'terkait', 'jokowi', 'perdagangan', 'jawa', 'indonesia', 'kerja', 'negara', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['hasil', 'rumah', 'konsumen', 'harga', 'keluarga', 'memiliki', 'lingkungan', 'bisnis', 'kerja', 'langsung', 'bidang', 'upaya', 'produk', 'usaha', 'masuk', 'bantuan', 'pasar']</t>
+          <t>['bantuan', 'bidang', 'produk', 'memiliki', 'keluarga', 'usaha', 'bisnis', 'kerja', 'harga', 'rumah', 'lingkungan', 'pasar']</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'bali', 'indonesia', 'korban', 'memiliki', 'negeri', 'jalan', 'terkait', 'jakarta', 'negara']</t>
+          <t>['terkait', 'memiliki', 'jakarta', 'bali', 'korban', 'indonesia', 'negara', 'jalan', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['ekonomi', 'harga', 'memiliki', 'data', 'jakarta', 'daerah', 'pasar', 'bisnis']</t>
+          <t>['data', 'memiliki', 'jakarta', 'daerah', 'kali', 'bisnis', 'harga', 'pasar', 'ekonomi']</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['miliar', 'mengaku', 'hasil', 'ekonomi', 'keuangan', 'indonesia', 'online', 'negeri', 'nasional', 'langsung', 'bidang', 'terkait', 'jakarta', 'pembangunan', 'daerah']</t>
+          <t>['keuangan', 'pembangunan', 'mengaku', 'bidang', 'nasional', 'gubernur', 'terkait', 'miliar', 'jakarta', 'daerah', 'kali', 'indonesia', 'menteri', 'ekonomi']</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengaku', 'ekonomi', 'bali', 'indonesia', 'kawasan', 'wisata', 'umkm', 'mendorong']</t>
+          <t>['mendorong', 'mengaku', 'gubernur', 'umkm', 'pariwisata', 'bali', 'juta', 'wisata', 'indonesia', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['bsi', 'indonesia', 'program', 'pelaku', 'langsung', 'bri', 'jalan', 'persen', 'kebijakan', 'usaha', 'hasil', 'berharap', 'kerja', 'lingkungan', 'pertumbuhan', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'keuangan', 'covid', 'meningkatkan', 'saham', 'transaksi', 'pemerintah', 'ekonomi', 'perekonomian', 'bank_syariah', 'nasabah', 'syariah', 'bisnis']</t>
+          <t>['program', 'rakyat', 'syariah', 'transaksi', 'nasabah', 'indonesia', 'pertumbuhan_ekonomi', 'lingkungan', 'bri', 'kebijakan', 'pelaku', 'bank_syariah', 'keuangan', 'usaha', 'ribu', 'daerah', 'bank', 'pemerintah', 'ekonomi', 'bsi', 'juta', 'bisnis', 'jawa', 'kerja', 'perekonomian', 'persen', 'rumah', 'jalan', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'kondisi', 'kegiatan', 'indonesia', 'harga', 'impor', 'negeri', 'nasional', 'petani', 'beras', 'ton', 'kebijakan', 'jakarta', 'masuk']</t>
+          <t>['impor', 'nasional', 'jakarta', 'ton', 'petani', 'kali', 'kegiatan', 'indonesia', 'harga', 'kondisi', 'kebijakan', 'pemerintah', 'beras']</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['ekonomi', 'indonesia', 'jokowi', 'perdagangan', 'negeri', 'kawasan', 'nasional', 'industri', 'kerja', 'politik', 'jalan', 'dunia', 'terkait', 'kebijakan', 'kondisi', 'ekspor', 'negara']</t>
+          <t>['nasional', 'politik', 'terkait', 'jokowi', 'dunia', 'perdagangan', 'indonesia', 'kerja', 'ekspor', 'negara', 'jalan', 'kondisi', 'kebijakan', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'mengaku', 'ekonomi', 'indonesia', 'konsumen', 'langsung', 'umkm', 'daerah']</t>
+          <t>['mengaku', 'umkm', 'pemerintah', 'daerah', 'indonesia', 'ekonomi']</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -12496,7 +12496,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'pembiayaan', 'persen', 'kebijakan', 'perusahaan', 'pembangunan', 'miliar', 'acara', 'mendorong', 'usaha', 'hasil', 'berharap', 'perdagangan', 'bumn', 'perbankan', 'pelaku_umkm', 'pertumbuhan', 'upaya', 'terkait', 'teknologi', 'jakarta', 'daerah', 'masuk', 'pasar', 'kementerian', 'pertumbuhan_ekonomi', 'koperasi', 'negeri', 'meningkatkan', 'umkm', 'transaksi', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'digital', 'industri', 'triliun', 'bantuan']</t>
+          <t>['pembangunan', 'rakyat', 'perusahaan', 'pelaku_umkm', 'transaksi', 'umkm', 'indonesia', 'bumn', 'pertumbuhan_ekonomi', 'kebijakan', 'usaha', 'digital', 'ukm', 'industri', 'bantuan', 'perbankan', 'mendorong', 'produk', 'jakarta', 'daerah', 'pasar', 'menteri', 'pemerintah', 'ekonomi', 'acara', 'terkait', 'investasi', 'miliar', 'perdagangan', 'kegiatan', 'persen', 'umk', 'koperasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'indonesia', 'perdagangan', 'harga', 'impor', 'negeri', 'data', 'kementerian', 'petani', 'beras', 'ton', 'proses', 'pasar']</t>
+          <t>['impor', 'ton', 'petani', 'kali', 'perdagangan', 'indonesia', 'harga', 'pasar', 'pemerintah', 'beras']</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -12687,7 +12687,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['persen', 'produk', 'umkm', 'usaha']</t>
+          <t>['produk', 'rakyat', 'umkm', 'usaha', 'persen']</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -12751,7 +12751,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kerja', 'industri', 'global', 'sektor', 'perusahaan', 'kondisi', 'bisnis']</t>
+          <t>['perusahaan', 'global', 'bisnis', 'kerja', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -12820,7 +12820,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kondisi', 'perekonomian', 'investasi', 'jokowi', 'kerja', 'global', 'dunia', 'jakarta', 'ekspor', 'negara']</t>
+          <t>['presiden', 'global', 'jokowi', 'investasi', 'jakarta', 'dunia', 'kali', 'kerja', 'ekspor', 'perekonomian', 'negara', 'kondisi', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['terkait', 'ekonomi', 'masuk']</t>
+          <t>['terkait', 'ekonomi']</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['program', 'memiliki', 'sekolah', 'persen', 'miliar', 'mendorong', 'negara', 'hasil', 'sosial', 'berharap', 'pengembangan', 'korban', 'data', 'wisata', 'upaya', 'daerah', 'jawa', 'informasi', 'rumah', 'keuangan', 'negeri', 'infrastruktur', 'dunia', 'kondisi', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'sistem', 'triliun', 'bantuan']</t>
+          <t>['program', 'memiliki', 'kondisi', 'infrastruktur', 'keuangan', 'sekolah', 'korban', 'data', 'hukum', 'bantuan', 'mendorong', 'daerah', 'negara', 'pemerintah', 'ekonomi', 'miliar', 'juta', 'dunia', 'wisata', 'kegiatan', 'jawa', 'warga', 'persen', 'rumah', 'sosial', 'informasi']</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['ekonomi', 'rumah', 'bank', 'indonesia', 'perbankan', 'jakarta']</t>
+          <t>['perbankan', 'presiden', 'jakarta', 'kali', 'indonesia', 'rumah', 'bank', 'ekonomi']</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['program', 'memiliki', 'angka', 'nasional', 'pandemi', 'sekolah', 'petani', 'langsung', 'bidang', 'persen', 'kebijakan', 'pembangunan', 'miliar', 'mendorong', 'inflasi', 'layanan', 'sosial', 'berharap', 'pengembangan', 'lingkungan', 'pertumbuhan', 'upaya', 'pendidikan', 'teknologi', 'daerah', 'proses', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'covid', 'meningkatkan', 'infrastruktur', 'pemerintah', 'ekonomi', 'perekonomian', 'hidup', 'produksi']</t>
+          <t>['program', 'pembangunan', 'pendidikan', 'memiliki', 'pertumbuhan_ekonomi', 'layanan', 'kebijakan', 'infrastruktur', 'sekolah', 'mendorong', 'bidang', 'nasional', 'daerah', 'petani', 'bank', 'produksi', 'pemerintah', 'ekonomi', 'inflasi', 'miliar', 'juta', 'perekonomian', 'persen', 'sosial', 'rumah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'program', 'memiliki', 'nasional', 'bidang', 'perusahaan', 'negara', 'sosial', 'mahasiswa', 'data', 'kerja', 'pendidikan', 'jakarta', 'jawa', 'informasi', 'bank', 'keuangan', 'negeri', 'dunia', 'universitas', 'ekonomi', 'warga', 'sistem', 'hidup']</t>
+          <t>['program', 'pendidikan', 'perusahaan', 'memiliki', 'indonesia', 'keuangan', 'hidup', 'universitas', 'data', 'mahasiswa', 'bidang', 'nasional', 'jakarta', 'bali', 'bank', 'negara', 'ekonomi', 'pariwisata', 'dunia', 'jawa', 'warga', 'kerja', 'sosial', 'informasi']</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -13794,7 +13794,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'memiliki', 'nasional', 'pandemi', 'jalan', 'persen', 'pembangunan', 'negara', 'pertumbuhan', 'global', 'upaya', 'daerah', 'keuangan', 'jokowi', 'infrastruktur', 'dunia', 'ekonomi', 'acara']</t>
+          <t>['keuangan', 'pembangunan', 'nasional', 'global', 'jokowi', 'memiliki', 'bali', 'daerah', 'dunia', 'indonesia', 'persen', 'negara', 'ekonomi', 'infrastruktur', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -13864,7 +13864,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['hasil', 'ekonomi', 'keuangan', 'memiliki', 'nasional', 'pandemi', 'global', 'politik', 'negara', 'proses', 'terkait', 'mendorong', 'kondisi', 'daerah', 'kementerian']</t>
+          <t>['keuangan', 'mendorong', 'nasional', 'politik', 'terkait', 'global', 'memiliki', 'negara', 'kondisi', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['indonesia', 'nasional', 'petani', 'kebijakan', 'negara', 'inflasi', 'hasil', 'perdagangan', 'harga', 'terkait', 'masuk', 'kementerian', 'pasar', 'rumah', 'negeri', 'beras', 'kondisi', 'pemerintah', 'kegiatan', 'impor', 'ton', 'produksi']</t>
+          <t>['impor', 'presiden', 'nasional', 'produksi', 'terkait', 'inflasi', 'ton', 'petani', 'perdagangan', 'kegiatan', 'indonesia', 'harga', 'negara', 'kondisi', 'kebijakan', 'pemerintah', 'beras', 'pasar']</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['bsi', 'investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'langsung', 'sektor', 'bri', 'mendorong', 'inflasi', 'layanan', 'sosial', 'perbankan', 'proses', 'informasi', 'rumah', 'keuangan', 'resesi', 'transaksi', 'dunia', 'keluarga', 'digitalisasi', 'ekonomi', 'online', 'sistem', 'nasabah', 'syariah', 'hidup']</t>
+          <t>['program', 'syariah', 'transaksi', 'memiliki', 'nasabah', 'indonesia', 'layanan', 'bri', 'digitalisasi', 'keuangan', 'hidup', 'perbankan', 'mendorong', 'keluarga', 'ekonomi', 'inflasi', 'bsi', 'investasi', 'dunia', 'rumah', 'sosial', 'informasi']</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['ekonomi', 'warga', 'kerja', 'lingkungan', 'transaksi', 'kondisi', 'pembangunan', 'jawa', 'negara']</t>
+          <t>['pembangunan', 'rakyat', 'transaksi', 'lingkungan', 'jawa', 'warga', 'kerja', 'negara', 'menteri', 'kondisi', 'ekonomi', 'bangsa']</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -14233,7 +14233,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>['memiliki', 'kebijakan', 'pembangunan', 'usaha', 'pengembangan', 'pelaku_umkm', 'proses', 'pasar', 'jokowi', 'negeri', 'umkm', 'aplikasi', 'produk', 'pemerintah', 'perekonomian', 'online', 'sistem', 'mendukung', 'pelaku_usaha']</t>
+          <t>['pembangunan', 'pelaku_usaha', 'produk', 'umkm', 'pelaku_umkm', 'memiliki', 'jokowi', 'usaha', 'perekonomian', 'pasar', 'pemerintah']</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -14303,7 +14303,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['pemerintah', 'mengaku', 'ekonomi', 'indonesia', 'jokowi', 'covid', 'persen', 'data', 'langsung', 'politik', 'infrastruktur', 'terkait', 'jakarta', 'bantuan']</t>
+          <t>['bantuan', 'mengaku', 'presiden', 'ganjar', 'politik', 'terkait', 'jokowi', 'pemerintah', 'jakarta', 'indonesia', 'persen', 'data', 'ekonomi', 'infrastruktur', 'hukum']</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -14371,7 +14371,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'warga', 'berharap', 'sekolah', 'jalan', 'kondisi', 'pembangunan', 'jawa', 'bantuan']</t>
+          <t>['bantuan', 'pembangunan', 'sekolah', 'jawa', 'warga', 'jalan', 'kondisi', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -14438,7 +14438,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['indonesia', 'angka', 'nasional', 'sektor', 'miliar', 'negara', 'perdagangan', 'pertumbuhan', 'pertumbuhan_ekonomi', 'pasar', 'konsumen', 'resesi', 'negeri', 'kawasan', 'kondisi', 'produk', 'ekonomi', 'impor', 'industri', 'produksi', 'ekspor']</t>
+          <t>['impor', 'nasional', 'produk', 'pertumbuhan', 'miliar', 'juta', 'kali', 'perdagangan', 'pasar', 'indonesia', 'pertumbuhan_ekonomi', 'ekspor', 'negara', 'kondisi', 'produksi', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -14574,7 +14574,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['ekonomi', 'indonesia', 'program', 'berharap', 'negeri', 'meningkatkan', 'kawasan', 'nasional', 'wisata', 'umkm', 'sektor', 'upaya', 'perusahaan', 'mendorong']</t>
+          <t>['program', 'mendorong', 'nasional', 'perusahaan', 'umkm', 'pariwisata', 'wisata', 'indonesia', 'ribu', 'ekonomi']</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -14642,7 +14642,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>['investasi', 'angka', 'persen', 'kebijakan', 'mendorong', 'inflasi', 'perdagangan', 'data', 'pertumbuhan', 'pertumbuhan_ekonomi', 'rumah', 'bank', 'konsumen', 'resesi', 'produk', 'ekonomi', 'perekonomian', 'impor', 'bisnis']</t>
+          <t>['mendorong', 'impor', 'produk', 'inflasi', 'investasi', 'bisnis', 'perdagangan', 'pertumbuhan_ekonomi', 'perekonomian', 'persen', 'data', 'rumah', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'angka', 'nasional', 'pandemi', 'sektor', 'persen', 'pembangunan', 'hasil', 'pengembangan', 'kerja', 'wisata', 'pertumbuhan', 'upaya', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'covid', 'umkm', 'aplikasi', 'pemerintah', 'ekonomi', 'perekonomian', 'warga', 'digital']</t>
+          <t>['program', 'pembangunan', 'nasional', 'umkm', 'memiliki', 'daerah', 'juta', 'wisata', 'indonesia', 'warga', 'pertumbuhan_ekonomi', 'perekonomian', 'persen', 'kerja', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -14813,7 +14813,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['hasil', 'ekonomi', 'informasi', 'investasi', 'triliun', 'bumn', 'kerja', 'jalan', 'perusahaan', 'pembangunan', 'jawa', 'kementerian']</t>
+          <t>['pembangunan', 'rakyat', 'perusahaan', 'investasi', 'jawa', 'bumn', 'kerja', 'jalan', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['china', 'nasional', 'sekolah', 'langsung', 'jalan', 'sosial', 'harga', 'wisata', 'terkait', 'daerah', 'masuk', 'kementerian', 'informasi', 'rumah', 'kawasan', 'keluarga', 'ekonomi', 'sistem', 'bantuan']</t>
+          <t>['bantuan', 'sekolah', 'nasional', 'terkait', 'keluarga', 'pariwisata', 'daerah', 'wisata', 'harga', 'rumah', 'sosial', 'jalan', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -15012,7 +15012,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'keuangan', 'konsumen', 'harga', 'industri', 'nasional', 'pertumbuhan', 'negara', 'inflasi', 'upaya', 'kebijakan', 'kementerian']</t>
+          <t>['keuangan', 'nasional', 'inflasi', 'pertumbuhan', 'pertumbuhan_ekonomi', 'harga', 'negara', 'kebijakan', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -15103,7 +15103,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'sekolah', 'bidang', 'sektor', 'kebijakan', 'mendorong', 'negara', 'inflasi', 'sosial', 'korban', 'kerja', 'pertumbuhan', 'global', 'jakarta', 'masuk', 'pertumbuhan_ekonomi', 'pasar', 'rumah', 'bank', 'keuangan', 'covid', 'transaksi', 'dunia', 'universitas', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'impor', 'industri', 'sistem', 'mendukung', 'triliun', 'ekspor']</t>
+          <t>['program', 'transaksi', 'global', 'memiliki', 'kali', 'indonesia', 'pertumbuhan_ekonomi', 'kondisi', 'kebijakan', 'keuangan', 'sekolah', 'korban', 'universitas', 'ekspor', 'industri', 'impor', 'bidang', 'nasional', 'produk', 'jakarta', 'pasar', 'negara', 'bank', 'pemerintah', 'ekonomi', 'gubernur', 'inflasi', 'investasi', 'dunia', 'kerja', 'perekonomian', 'rumah', 'sosial', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'kegiatan', 'indonesia', 'wisata', 'terkait', 'acara']</t>
+          <t>['acara', 'presiden', 'terkait', 'wisata', 'kegiatan', 'indonesia', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -15348,7 +15348,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>['ekonomi', 'indonesia', 'pengembangan', 'kerja', 'lingkungan', 'wisata', 'pandemi', 'langsung', 'sektor', 'dunia', 'terkait', 'acara', 'negara']</t>
+          <t>['acara', 'presiden', 'terkait', 'pariwisata', 'lingkungan', 'dunia', 'indonesia', 'kerja', 'negara', 'ekonomi']</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>['pemerintah', 'hasil', 'kegiatan', 'indonesia', 'perdagangan', 'memiliki', 'lingkungan', 'nasional', 'kerja', 'kebijakan', 'jakarta', 'produk', 'ekspor', 'usaha']</t>
+          <t>['nasional', 'produk', 'memiliki', 'jakarta', 'usaha', 'perdagangan', 'kegiatan', 'indonesia', 'kerja', 'ekspor', 'lingkungan', 'menteri', 'kebijakan', 'pemerintah', 'hukum']</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -15479,7 +15479,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'warga', 'berharap', 'persen', 'pertumbuhan', 'aplikasi', 'terkait', 'jakarta', 'pembangunan', 'pertumbuhan_ekonomi']</t>
+          <t>['pembangunan', 'terkait', 'jakarta', 'kali', 'warga', 'pertumbuhan_ekonomi', 'persen', 'perekonomian', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -15548,7 +15548,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'kebijakan', 'miliar', 'mendorong', 'negara', 'inflasi', 'perdagangan', 'harga', 'pertumbuhan', 'global', 'pertumbuhan_ekonomi', 'informasi', 'rumah', 'bank', 'negeri', 'kawasan', 'saham', 'ekonomi', 'perekonomian']</t>
+          <t>['mendorong', 'presiden', 'inflasi', 'global', 'investasi', 'miliar', 'perdagangan', 'indonesia', 'bank', 'pertumbuhan_ekonomi', 'perekonomian', 'harga', 'negara', 'ekonomi', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'program', 'nasional', 'sektor', 'jalan', 'miliar', 'mendorong', 'acara', 'pengembangan', 'data', 'wisata', 'daerah', 'kementerian', 'rumah', 'negeri', 'dunia', 'produk', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'mendukung', 'triliun']</t>
+          <t>['program', 'rakyat', 'indonesia', 'industri', 'mendorong', 'nasional', 'produk', 'daerah', 'ekonomi', 'pemerintah', 'presiden', 'investasi', 'miliar', 'juta', 'dunia', 'wisata', 'kegiatan', 'rumah', 'jalan']</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -15678,7 +15678,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'memiliki', 'inflasi', 'usaha', 'harga', 'kerja', 'terkait', 'bank', 'keuangan', 'resesi', 'saham', 'dunia', 'keluarga', 'ekonomi', 'online', 'bank_syariah', 'hidup', 'produksi', 'bisnis']</t>
+          <t>['keuangan', 'inflasi', 'terkait', 'memiliki', 'keluarga', 'investasi', 'usaha', 'dunia', 'kali', 'bisnis', 'indonesia', 'kerja', 'harga', 'bank', 'produksi', 'ekonomi', 'bank_syariah']</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -15788,7 +15788,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'ekonomi', 'bank', 'keuangan', 'covid', 'pembiayaan', 'pertumbuhan', 'langsung', 'mendorong', 'sektor', 'aplikasi', 'terkait', 'kebijakan', 'syariah', 'daerah', 'usaha']</t>
+          <t>['keuangan', 'mendorong', 'rakyat', 'syariah', 'terkait', 'usaha', 'daerah', 'pertumbuhan_ekonomi', 'umk', 'bank', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>['mengaku', 'hasil', 'ekonomi', 'bali', 'warga', 'sosial', 'rumah', 'program', 'lingkungan', 'pembiayaan', 'hidup', 'keluarga', 'bantuan', 'kementerian']</t>
+          <t>['bantuan', 'program', 'mengaku', 'hidup', 'keluarga', 'bali', 'juta', 'sosial', 'warga', 'rumah', 'lingkungan', 'menteri', 'ekonomi']</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -15931,7 +15931,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>['bali', 'indonesia', 'program', 'langsung', 'sektor', 'pelatihan', 'pembangunan', 'negara', 'sosial', 'berharap', 'kerja', 'pendidikan', 'terkait', 'jakarta', 'rumah', 'bank', 'keuangan', 'pemerintah', 'mengaku', 'ekonomi', 'bantuan']</t>
+          <t>['program', 'mengaku', 'pembangunan', 'pendidikan', 'kali', 'indonesia', 'bangsa', 'keuangan', 'bantuan', 'jakarta', 'bali', 'bank', 'negara', 'ekonomi', 'pemerintah', 'presiden', 'terkait', 'kerja', 'rumah', 'sosial']</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -16009,7 +16009,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>['umkm', 'acara']</t>
+          <t>['umkm', 'pariwisata', 'acara']</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -16069,7 +16069,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>['jokowi', 'berharap', 'covid', 'perdagangan', 'pandemi']</t>
+          <t>['perdagangan', 'jokowi', 'presiden', 'ukm']</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -16108,7 +16108,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>['indonesia', 'angka', 'kebijakan', 'inflasi', 'harga', 'data', 'terkait', 'masuk', 'pasar', 'bank', 'keuangan', 'saham', 'beras', 'transaksi', 'pemerintah', 'ekonomi', 'sistem', 'mendukung', 'triliun']</t>
+          <t>['keuangan', 'ekonomi', 'inflasi', 'terkait', 'transaksi', 'indonesia', 'bank', 'harga', 'pasar', 'kebijakan', 'pemerintah', 'beras']</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -16171,7 +16171,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'ekonomi', 'perekonomian', 'bank', 'sosial', 'indonesia', 'keuangan', 'kegiatan', 'jokowi', 'covid', 'pandemi', 'pertumbuhan', 'negara', 'persen', 'kebijakan', 'jakarta', 'mendorong', 'kementerian']</t>
+          <t>['keuangan', 'gubernur', 'presiden', 'jokowi', 'jakarta', 'sosial', 'kegiatan', 'indonesia', 'bank', 'pertumbuhan_ekonomi', 'perekonomian', 'persen', 'negara', 'menteri', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'persen', 'pembangunan', 'negara', 'hasil', 'harga', 'wisata', 'pertumbuhan', 'jakarta', 'daerah', 'jawa', 'pertumbuhan_ekonomi', 'jokowi', 'resesi', 'meningkatkan', 'infrastruktur', 'dunia', 'pemerintah', 'ekonomi', 'industri', 'acara']</t>
+          <t>['pembangunan', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'harga', 'infrastruktur', 'jokowi', 'industri', 'jakarta', 'daerah', 'negara', 'pemerintah', 'ekonomi', 'acara', 'juta', 'dunia', 'jawa', 'persen', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>['indonesia', 'konsumen', 'covid', 'memiliki', 'meningkatkan', 'impor', 'pandemi', 'bisnis', 'petani', 'mendukung', 'umkm', 'hidup', 'produk', 'usaha', 'pasar']</t>
+          <t>['impor', 'produk', 'hidup', 'umkm', 'memiliki', 'usaha', 'petani', 'bisnis', 'indonesia', 'pasar']</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -16397,7 +16397,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'pembiayaan', 'pelaku', 'pandemi', 'langsung', 'sektor', 'mendorong', 'usaha', 'hasil', 'layanan', 'sosial', 'berharap', 'korban', 'perbankan', 'upaya', 'pendidikan', 'terkait', 'teknologi', 'informasi', 'bank', 'keuangan', 'konsumen', 'covid', 'meningkatkan', 'umkm', 'aplikasi', 'transaksi', 'dunia', 'universitas', 'produk', 'digitalisasi', 'mengaku', 'ekonomi', 'perekonomian', 'kegiatan', 'bank_syariah', 'digital', 'online', 'industri', 'sistem', 'nasabah', 'mendukung', 'syariah', 'pelaku_usaha', 'bisnis']</t>
+          <t>['mengaku', 'pendidikan', 'syariah', 'transaksi', 'memiliki', 'nasabah', 'umkm', 'indonesia', 'layanan', 'digitalisasi', 'pelaku', 'bank_syariah', 'keuangan', 'pelaku_usaha', 'usaha', 'digital', 'korban', 'universitas', 'industri', 'perbankan', 'mendorong', 'produk', 'bank', 'ekonomi', 'terkait', 'dunia', 'bisnis', 'kegiatan', 'perekonomian', 'sosial', 'informasi']</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -16507,7 +16507,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>['ekonomi', 'program', 'berharap', 'data', 'meningkatkan', 'lingkungan', 'proses', 'terkait', 'pembangunan', 'daerah', 'jawa', 'negara']</t>
+          <t>['program', 'pembangunan', 'data', 'gubernur', 'terkait', 'lingkungan', 'daerah', 'kali', 'negara', 'ekonomi']</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -16587,7 +16587,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>['perdagangan', 'harga', 'negeri', 'global', 'dunia', 'persen', 'produk', 'ekspor', 'pasar']</t>
+          <t>['produk', 'global', 'dunia', 'perdagangan', 'persen', 'ekspor', 'pasar', 'harga']</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ton', 'informasi', 'indonesia', 'masuk', 'harga', 'negeri', 'memiliki', 'impor', 'data', 'langsung', 'pelaku', 'negara', 'beras', 'terkait', 'pelaku_usaha', 'usaha']</t>
+          <t>['impor', 'data', 'pelaku_usaha', 'terkait', 'memiliki', 'pemerintah', 'usaha', 'ton', 'indonesia', 'harga', 'negara', 'menteri', 'pelaku', 'beras', 'informasi', 'hukum']</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>['indonesia', 'nasional', 'bidang', 'sektor', 'kebijakan', 'miliar', 'mendorong', 'perdagangan', 'berharap', 'pengembangan', 'harga', 'pertumbuhan', 'global', 'teknologi', 'negeri', 'meningkatkan', 'kondisi', 'produk', 'pemerintah', 'ekonomi', 'perekonomian', 'industri', 'produksi', 'acara', 'ekspor']</t>
+          <t>['mendorong', 'ekonomi', 'acara', 'produk', 'produksi', 'nasional', 'pertumbuhan', 'miliar', 'perdagangan', 'indonesia', 'ekspor', 'perekonomian', 'harga', 'kebijakan', 'pemerintah', 'industri']</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -16799,7 +16799,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['ekonomi', 'sosial', 'indonesia', 'covid', 'berharap', 'kerja', 'nasional', 'pandemi', 'hidup', 'negara']</t>
+          <t>['nasional', 'rakyat', 'hidup', 'sosial', 'kali', 'indonesia', 'kerja', 'negara', 'ekonomi', 'bangsa']</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['hasil', 'informasi', 'layanan', 'bali', 'bank', 'digital', 'indonesia', 'program', 'angka', 'wisata', 'sistem', 'mendukung', 'umkm', 'aplikasi', 'transaksi', 'persen']</t>
+          <t>['program', 'transaksi', 'pariwisata', 'bali', 'digital', 'wisata', 'indonesia', 'persen', 'layanan', 'bank', 'informasi']</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'perekonomian', 'sosial', 'indonesia', 'program', 'perdagangan', 'pengembangan', 'memiliki', 'kawasan', 'wisata', 'bidang', 'mendukung', 'negara', 'sektor', 'daerah', 'masuk', 'bisnis']</t>
+          <t>['program', 'bidang', 'memiliki', 'pariwisata', 'daerah', 'kali', 'wisata', 'perdagangan', 'indonesia', 'sosial', 'bisnis', 'perekonomian', 'negara', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'universitas', 'pengembangan', 'memiliki', 'kawasan', 'bisnis', 'nasional', 'infrastruktur', 'jalan', 'jakarta', 'pasar']</t>
+          <t>['nasional', 'memiliki', 'pemerintah', 'jakarta', 'bisnis', 'universitas', 'pasar', 'jalan', 'ekonomi', 'infrastruktur']</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -17084,7 +17084,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['investasi', 'angka', 'bidang', 'kebijakan', 'miliar', 'triliun', 'bumn', 'pertumbuhan', 'proses', 'masuk', 'pertumbuhan_ekonomi', 'keuangan', 'negeri', 'produk', 'pemerintah', 'ekonomi', 'sistem', 'produksi', 'acara']</t>
+          <t>['keuangan', 'ekonomi', 'bidang', 'acara', 'produk', 'investasi', 'miliar', 'juta', 'bumn', 'pertumbuhan_ekonomi', 'ribu', 'produksi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -17152,7 +17152,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'langsung', 'bri', 'mendorong', 'usaha', 'layanan', 'berharap', 'pelaku_umkm', 'pasar', 'informasi', 'bank', 'keuangan', 'umkm', 'aplikasi', 'transaksi', 'produk', 'digitalisasi', 'perekonomian', 'kegiatan', 'digital', 'nasabah', 'acara', 'bisnis']</t>
+          <t>['program', 'rakyat', 'umkm', 'pelaku_umkm', 'transaksi', 'memiliki', 'nasabah', 'kali', 'indonesia', 'layanan', 'bri', 'digitalisasi', 'keuangan', 'usaha', 'digital', 'ribu', 'mendorong', 'produk', 'pasar', 'bank', 'acara', 'bisnis', 'kegiatan', 'perekonomian', 'informasi']</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'petani', 'bidang', 'politik', 'pembangunan', 'mendorong', 'berharap', 'lingkungan', 'pertumbuhan', 'jawa', 'kementerian', 'informasi', 'meningkatkan', 'dunia', 'ekonomi', 'kegiatan', 'hidup', 'produksi', 'acara']</t>
+          <t>['program', 'pembangunan', 'rakyat', 'kali', 'indonesia', 'lingkungan', 'ribu', 'hukum', 'mendorong', 'bidang', 'petani', 'produksi', 'ekonomi', 'acara', 'politik', 'juta', 'dunia', 'jawa', 'kegiatan', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -17310,7 +17310,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'angka', 'nasional', 'bidang', 'politik', 'perusahaan', 'pembangunan', 'usaha', 'negara', 'hasil', 'kerja', 'pendidikan', 'terkait', 'teknologi', 'daerah', 'kementerian', 'informasi', 'rumah', 'negeri', 'pemerintah', 'ekonomi', 'warga', 'kegiatan', 'online', 'sistem']</t>
+          <t>['program', 'pembangunan', 'pendidikan', 'perusahaan', 'memiliki', 'indonesia', 'usaha', 'hukum', 'bidang', 'nasional', 'daerah', 'negara', 'ekonomi', 'pemerintah', 'politik', 'terkait', 'kegiatan', 'warga', 'kerja', 'informasi']</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>['jakarta', 'ekonomi', 'bisnis']</t>
+          <t>['bisnis', 'ekonomi', 'jakarta', 'ribu']</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -17542,7 +17542,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>['bali', 'investasi', 'indonesia', 'angka', 'pandemi', 'persen', 'negara', 'kerja', 'pertumbuhan', 'jakarta', 'daerah', 'pertumbuhan_ekonomi', 'keuangan', 'jokowi', 'dunia', 'ekonomi', 'warga', 'industri', 'mendukung']</t>
+          <t>['keuangan', 'global', 'jokowi', 'investasi', 'jakarta', 'pertumbuhan', 'daerah', 'dunia', 'indonesia', 'warga', 'pertumbuhan_ekonomi', 'persen', 'kerja', 'negara', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -17607,7 +17607,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>['bsi', 'investasi', 'indonesia', 'memiliki', 'langsung', 'mendorong', 'negara', 'layanan', 'pengembangan', 'mahasiswa', 'pendidikan', 'teknologi', 'informasi', 'rumah', 'negeri', 'meningkatkan', 'bsi_mobile', 'transaksi', 'universitas', 'kondisi', 'ekonomi', 'perekonomian', 'warga', 'bank_syariah', 'digital', 'online', 'industri', 'fitur', 'nasabah', 'syariah', 'bisnis']</t>
+          <t>['pendidikan', 'syariah', 'transaksi', 'memiliki', 'nasabah', 'indonesia', 'layanan', 'kondisi', 'bangsa', 'bank_syariah', 'digital', 'universitas', 'mahasiswa', 'industri', 'mendorong', 'negara', 'ekonomi', 'bsi', 'investasi', 'juta', 'bisnis', 'warga', 'perekonomian', 'informasi']</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'perekonomian', 'bank', 'investasi', 'indonesia', 'resesi', 'pertumbuhan', 'global', 'negara', 'inflasi', 'dunia', 'terkait', 'kebijakan', 'acara', 'pertumbuhan_ekonomi']</t>
+          <t>['gubernur', 'acara', 'inflasi', 'terkait', 'global', 'investasi', 'dunia', 'indonesia', 'bank', 'pertumbuhan_ekonomi', 'perekonomian', 'negara', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'bri', 'persen', 'miliar', 'negara', 'global', 'upaya', 'jakarta', 'masuk', 'pasar', 'bank', 'negeri', 'umkm', 'transaksi', 'produk', 'kegiatan', 'online', 'digital', 'nasabah', 'mendukung', 'triliun', 'ekspor', 'bisnis']</t>
+          <t>['program', 'rakyat', 'umkm', 'transaksi', 'global', 'memiliki', 'nasabah', 'indonesia', 'bri', 'digital', 'ekspor', 'ribu', 'produk', 'jakarta', 'bank', 'negara', 'pasar', 'miliar', 'juta', 'bisnis', 'kegiatan', 'persen']</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -17893,7 +17893,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'sosial', 'harga', 'angka', 'data', 'nasional', 'kerja', 'bidang', 'negara', 'infrastruktur', 'jalan', 'kebijakan', 'kondisi', 'triliun', 'kementerian']</t>
+          <t>['data', 'ekonomi', 'bidang', 'nasional', 'pemerintah', 'sosial', 'kerja', 'harga', 'negara', 'jalan', 'kondisi', 'kebijakan', 'infrastruktur']</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -17977,7 +17977,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'bidang', 'sektor', 'perusahaan', 'usaha', 'hasil', 'berharap', 'harga', 'pengembangan', 'kerja', 'pendidikan', 'masuk', 'pasar', 'informasi', 'bank', 'keuangan', 'saham', 'dunia', 'ekonomi', 'digital']</t>
+          <t>['program', 'keuangan', 'pendidikan', 'perusahaan', 'usaha', 'digital', 'dunia', 'indonesia', 'bank', 'kerja', 'harga', 'pasar', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -18072,7 +18072,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>['mengaku', 'jakarta', 'masuk', 'sektor']</t>
+          <t>['mengaku', 'pariwisata', 'jakarta', 'menteri', 'hukum']</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'bank', 'covid', 'resesi', 'angka', 'data', 'kerja', 'pertumbuhan', 'inflasi', 'hidup', 'sektor', 'kebijakan', 'pasar']</t>
+          <t>['data', 'inflasi', 'hidup', 'bank', 'kerja', 'perekonomian', 'pasar', 'kebijakan', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -18214,7 +18214,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>['ekonomi', 'indonesia', 'covid', 'harga', 'negeri', 'nasional', 'pandemi', 'langsung', 'mendorong', 'inflasi', 'upaya', 'terkait', 'hidup', 'produksi', 'daerah', 'pelaku_usaha', 'usaha']</t>
+          <t>['mendorong', 'pelaku_usaha', 'presiden', 'rakyat', 'terkait', 'hidup', 'nasional', 'inflasi', 'usaha', 'daerah', 'indonesia', 'harga', 'menteri', 'produksi', 'ekonomi', 'hukum']</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'memiliki', 'angka', 'pelaku', 'sekolah', 'langsung', 'sektor', 'jalan', 'kebijakan', 'pembangunan', 'mendorong', 'negara', 'hasil', 'harga', 'pengembangan', 'lingkungan', 'terkait', 'teknologi', 'jakarta', 'proses', 'kementerian', 'informasi', 'rumah', 'keuangan', 'negeri', 'meningkatkan', 'infrastruktur', 'dunia', 'universitas', 'kondisi', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'produksi', 'triliun']</t>
+          <t>['program', 'pembangunan', 'rakyat', 'memiliki', 'kali', 'indonesia', 'harga', 'lingkungan', 'kondisi', 'kebijakan', 'pelaku', 'infrastruktur', 'keuangan', 'sekolah', 'universitas', 'industri', 'mendorong', 'jakarta', 'negara', 'produksi', 'pemerintah', 'ekonomi', 'presiden', 'terkait', 'dunia', 'kegiatan', 'jalan', 'informasi']</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -18470,7 +18470,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>['china', 'investasi', 'indonesia', 'nasional', 'politik', 'negara', 'inflasi', 'usaha', 'data', 'pertumbuhan', 'global', 'upaya', 'daerah', 'masuk', 'pertumbuhan_ekonomi', 'jokowi', 'resesi', 'negeri', 'kondisi', 'pemerintah', 'ekonomi']</t>
+          <t>['data', 'nasional', 'politik', 'inflasi', 'global', 'jokowi', 'investasi', 'usaha', 'daerah', 'indonesia', 'pertumbuhan_ekonomi', 'negara', 'kondisi', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -18551,7 +18551,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'perekonomian', 'jokowi', 'resesi', 'negeri', 'kerja', 'global', 'bidang', 'inflasi', 'terkait', 'kondisi', 'masuk', 'negara']</t>
+          <t>['presiden', 'inflasi', 'terkait', 'global', 'jokowi', 'kerja', 'perekonomian', 'negara', 'kondisi', 'ekonomi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -18609,7 +18609,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>['ekonomi', 'perekonomian', 'kondisi', 'bank', 'indonesia', 'keuangan', 'jokowi', 'acara', 'covid', 'bumn', 'lingkungan', 'global', 'dunia', 'persen', 'jakarta', 'mendorong', 'triliun', 'negara']</t>
+          <t>['keuangan', 'mendorong', 'acara', 'global', 'jokowi', 'lingkungan', 'jakarta', 'dunia', 'indonesia', 'bumn', 'bank', 'perekonomian', 'persen', 'negara', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -18669,7 +18669,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>['bsi', 'investasi', 'indonesia', 'memiliki', 'pembiayaan', 'angka', 'pandemi', 'nasional', 'bidang', 'sektor', 'persen', 'pembangunan', 'usaha', 'negara', 'hasil', 'perdagangan', 'harga', 'data', 'pertumbuhan', 'upaya', 'teknologi', 'daerah', 'pasar', 'pertumbuhan_ekonomi', 'informasi', 'bank', 'covid', 'negeri', 'meningkatkan', 'dunia', 'kondisi', 'produk', 'ekonomi', 'perekonomian', 'digital', 'fitur', 'sistem', 'mendukung', 'pelaku_usaha']</t>
+          <t>['pembangunan', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'harga', 'kondisi', 'bangsa', 'pelaku_usaha', 'usaha', 'digital', 'data', 'bidang', 'nasional', 'produk', 'daerah', 'bank', 'negara', 'pasar', 'ekonomi', 'bsi', 'investasi', 'dunia', 'perdagangan', 'perekonomian', 'persen', 'informasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -18810,7 +18810,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>['mengaku', 'hasil', 'ekonomi', 'warga', 'harga', 'memiliki', 'petani', 'jalan', 'terkait', 'usaha']</t>
+          <t>['mengaku', 'terkait', 'memiliki', 'usaha', 'petani', 'warga', 'harga', 'jalan', 'ekonomi']</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kegiatan', 'sosial', 'indonesia', 'harga', 'industri', 'nasional', 'kementerian', 'mendorong', 'mendukung', 'inflasi', 'ton', 'kebijakan', 'kondisi', 'usaha', 'bisnis']</t>
+          <t>['mendorong', 'nasional', 'inflasi', 'usaha', 'ton', 'bisnis', 'kegiatan', 'indonesia', 'harga', 'sosial', 'kondisi', 'kebijakan', 'ekonomi', 'industri']</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kondisi', 'harga', 'memiliki', 'bisnis', 'hidup', 'jakarta', 'usaha', 'pasar']</t>
+          <t>['hidup', 'memiliki', 'jakarta', 'usaha', 'bisnis', 'harga', 'pasar', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -19024,7 +19024,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>['warga', 'kegiatan', 'program', 'acara', 'langsung', 'umkm', 'pelaku_usaha', 'usaha']</t>
+          <t>['program', 'acara', 'presiden', 'pelaku_usaha', 'ganjar', 'umkm', 'usaha', 'kegiatan', 'warga', 'bangsa']</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -19106,7 +19106,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>['indonesia', 'memiliki', 'langsung', 'pelatihan', 'mendorong', 'sosial', 'berharap', 'pengembangan', 'kerja', 'lingkungan', 'wisata', 'daerah', 'masuk', 'informasi', 'umkm', 'dunia', 'pemerintah', 'mengaku', 'kegiatan', 'digital']</t>
+          <t>['mengaku', 'mendorong', 'umkm', 'memiliki', 'daerah', 'sosial', 'wisata', 'kegiatan', 'indonesia', 'digital', 'dunia', 'kerja', 'lingkungan', 'pemerintah', 'informasi']</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -19206,7 +19206,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>['rumah', 'warga', 'covid', 'pandemi', 'sekolah', 'bidang', 'umkm']</t>
+          <t>['sekolah', 'bidang', 'umkm', 'warga', 'rumah']</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -19284,7 +19284,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>['perusahaan', 'mengaku', 'informasi', 'warga', 'keuangan', 'digital', 'program', 'pelaku_umkm', 'umkm', 'pelatihan', 'persen', 'pelaku_usaha', 'produk', 'mendorong', 'jawa', 'usaha']</t>
+          <t>['program', 'keuangan', 'mengaku', 'mendorong', 'pelaku_usaha', 'produk', 'ganjar', 'perusahaan', 'pelaku_umkm', 'umkm', 'usaha', 'digital', 'juta', 'warga', 'persen', 'informasi']</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'investasi', 'warga', 'memiliki', 'meningkatkan', 'produk', 'negara', 'perusahaan', 'produksi', 'miliar', 'pasar']</t>
+          <t>['produk', 'perusahaan', 'memiliki', 'investasi', 'miliar', 'juta', 'warga', 'negara', 'produksi', 'ekonomi', 'informasi', 'pasar']</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>['miliar', 'ekonomi', 'bank', 'keuangan', 'bidang', 'kondisi', 'pembangunan', 'pasar']</t>
+          <t>['keuangan', 'pembangunan', 'bidang', 'miliar', 'bank', 'ribu', 'pasar', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>['investasi', 'indonesia', 'memiliki', 'angka', 'pelaku', 'pandemi', 'sektor', 'jalan', 'persen', 'usaha', 'inflasi', 'harga', 'perbankan', 'pertumbuhan', 'pertumbuhan_ekonomi', 'bank', 'konsumen', 'covid', 'resesi', 'kondisi', 'pemerintah', 'ekonomi', 'perekonomian', 'industri', 'pelaku_usaha']</t>
+          <t>['memiliki', 'kali', 'indonesia', 'pertumbuhan_ekonomi', 'harga', 'pelaku', 'pelaku_usaha', 'usaha', 'industri', 'perbankan', 'bank', 'ekonomi', 'pemerintah', 'presiden', 'inflasi', 'investasi', 'perekonomian', 'persen', 'jalan', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -19559,7 +19559,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'investasi', 'indonesia', 'covid', 'korban', 'nasional', 'pertumbuhan', 'negara', 'umkm', 'jalan', 'pendidikan', 'produk', 'daerah', 'acara', 'pertumbuhan_ekonomi']</t>
+          <t>['acara', 'pendidikan', 'produk', 'nasional', 'daerah', 'korban', 'indonesia', 'pertumbuhan_ekonomi', 'negara', 'jalan', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -19620,7 +19620,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>['china', 'ekonomi', 'bank', 'indonesia', 'perdagangan', 'negeri', 'pertumbuhan', 'inflasi', 'kondisi', 'pertumbuhan_ekonomi']</t>
+          <t>['inflasi', 'perdagangan', 'indonesia', 'pertumbuhan_ekonomi', 'bank', 'ekonomi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'informasi', 'harga', 'industri', 'langsung', 'kebijakan', 'jakarta', 'negara']</t>
+          <t>['ekonomi', 'presiden', 'jakarta', 'juta', 'harga', 'negara', 'menteri', 'kebijakan', 'pemerintah', 'informasi', 'industri']</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'hasil', 'ekonomi', 'indonesia', 'persen', 'angka', 'kerja', 'pertumbuhan', 'inflasi', 'jalan', 'terkait', 'usaha']</t>
+          <t>['gubernur', 'inflasi', 'terkait', 'pertumbuhan', 'usaha', 'juta', 'indonesia', 'pertumbuhan_ekonomi', 'persen', 'ribu', 'kerja', 'jalan', 'ekonomi', 'umk']</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>['ekonomi', 'indonesia', 'jakarta', 'proses', 'acara', 'kementerian']</t>
+          <t>['acara', 'presiden', 'jakarta', 'indonesia', 'ekonomi']</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'perekonomian', 'online', 'konsumen', 'negara', 'jalan', 'terkait', 'mendorong', 'daerah', 'kementerian']</t>
+          <t>['mendorong', 'gubernur', 'terkait', 'daerah', 'perekonomian', 'negara', 'jalan', 'ekonomi', 'pemerintah', 'hukum']</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -20017,7 +20017,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'indonesia', 'program', 'berharap', 'memiliki', 'meningkatkan', 'pelaku_umkm', 'langsung', 'umkm', 'sektor', 'aplikasi', 'produksi', 'produk', 'proses', 'bantuan', 'digitalisasi']</t>
+          <t>['bantuan', 'program', 'ekonomi', 'produk', 'umkm', 'pelaku_umkm', 'memiliki', 'indonesia', 'digitalisasi', 'produksi', 'pemerintah']</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>['ekonomi', 'bali', 'investasi', 'indonesia', 'memiliki', 'negeri', 'sistem', 'langsung', 'infrastruktur', 'dunia', 'universitas', 'acara', 'bantuan', 'negara']</t>
+          <t>['bantuan', 'acara', 'memiliki', 'bali', 'dunia', 'indonesia', 'universitas', 'negara', 'ekonomi', 'infrastruktur', 'bangsa']</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -20170,7 +20170,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>['pertumbuhan_ekonomi', 'pemerintah', 'ekonomi', 'indonesia', 'konsumen', 'masuk', 'perdagangan', 'resesi', 'kerja', 'pertumbuhan', 'global', 'negara', 'sektor', 'upaya', 'pelaku_usaha', 'produk', 'jawa', 'usaha']</t>
+          <t>['pelaku_usaha', 'produk', 'global', 'usaha', 'perdagangan', 'jawa', 'indonesia', 'pertumbuhan_ekonomi', 'kerja', 'ribu', 'negara', 'ekonomi', 'pemerintah', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -20233,7 +20233,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>['china', 'hasil', 'ekonomi', 'perekonomian', 'covid', 'harga', 'negeri', 'pandemi', 'global', 'inflasi', 'dunia', 'hidup', 'kondisi', 'produk', 'masuk', 'negara']</t>
+          <t>['produk', 'inflasi', 'hidup', 'global', 'dunia', 'perekonomian', 'negara', 'ekonomi']</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>['indonesia', 'program', 'pembiayaan', 'nasional', 'langsung', 'persen', 'kebijakan', 'miliar', 'mendorong', 'sosial', 'berharap', 'kerja', 'jakarta', 'jawa', 'pasar', 'informasi', 'rumah', 'keluarga', 'pemerintah', 'ekonomi', 'warga', 'mendukung', 'acara', 'bantuan']</t>
+          <t>['program', 'ganjar', 'rakyat', 'indonesia', 'kebijakan', 'bantuan', 'mendorong', 'nasional', 'keluarga', 'jakarta', 'pasar', 'ekonomi', 'gubernur', 'acara', 'presiden', 'miliar', 'juta', 'jawa', 'warga', 'kerja', 'persen', 'rumah', 'sosial', 'informasi']</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>['ekonomi', 'sosial', 'sistem', 'politik', 'terkait', 'negara']</t>
+          <t>['politik', 'terkait', 'sosial', 'negara', 'ekonomi']</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>['ekonomi', 'informasi', 'layanan', 'keuangan', 'digital', 'pengembangan', 'memiliki', 'perbankan', 'sektor', 'aplikasi', 'proses', 'mendorong', 'jakarta', 'produk', 'daerah']</t>
+          <t>['perbankan', 'keuangan', 'mendorong', 'produk', 'memiliki', 'jakarta', 'daerah', 'layanan', 'ekonomi', 'informasi']</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -20521,7 +20521,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>['warga', 'indonesia', 'digital', 'memiliki', 'kerja', 'langsung', 'dunia', 'politik', 'upaya', 'universitas', 'pembangunan', 'acara', 'negara']</t>
+          <t>['pembangunan', 'acara', 'politik', 'memiliki', 'dunia', 'indonesia', 'warga', 'universitas', 'kerja', 'negara', 'bangsa']</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>['pembangunan', 'ekonomi']</t>
+          <t>['pembangunan', 'ekonomi', 'presiden']</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>['ekonomi', 'investasi', 'keuangan', 'covid', 'resesi', 'saham', 'global', 'kondisi', 'mendorong', 'bisnis']</t>
+          <t>['keuangan', 'mendorong', 'global', 'investasi', 'bisnis', 'ribu', 'kondisi', 'ekonomi']</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>['pemerintah', 'ekonomi', 'warga', 'langsung', 'politik', 'jalan', 'upaya', 'persen', 'kondisi', 'pembangunan', 'proses']</t>
+          <t>['pembangunan', 'politik', 'warga', 'persen', 'jalan', 'kondisi', 'ekonomi', 'pemerintah', 'bangsa']</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -20792,7 +20792,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>['pemerintah', 'produksi', 'ekonomi', 'kondisi', 'indonesia', 'konsumen', 'persen', 'angka', 'bidang', 'jalan', 'terkait', 'kebijakan', 'jakarta', 'proses', 'kementerian']</t>
+          <t>['ekonomi', 'bidang', 'rakyat', 'produksi', 'terkait', 'jakarta', 'indonesia', 'persen', 'jalan', 'kondisi', 'kebijakan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>['nasional', 'langsung', 'pembangunan', 'negara', 'harga', 'kerja', 'pertumbuhan', 'pendidikan', 'proses', 'daerah', 'pertumbuhan_ekonomi', 'pasar', 'bank', 'negeri', 'pemerintah', 'ekonomi', 'impor', 'industri', 'produksi', 'ekspor']</t>
+          <t>['impor', 'pembangunan', 'ekonomi', 'nasional', 'pendidikan', 'pertumbuhan', 'pariwisata', 'daerah', 'pertumbuhan_ekonomi', 'ekspor', 'harga', 'pasar', 'kerja', 'produksi', 'pemerintah', 'industri']</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -21043,7 +21043,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>['ekonomi', 'kegiatan', 'covid', 'berharap', 'acara', 'data', 'meningkatkan', 'pandemi', 'sektor', 'upaya', 'daerah', 'jawa']</t>
+          <t>['acara', 'pariwisata', 'daerah', 'jawa', 'kegiatan', 'ribu', 'ekonomi']</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -21135,7 +21135,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>['china', 'bali', 'indonesia', 'program', 'memiliki', 'nasional', 'kebijakan', 'usaha', 'negara', 'wisata', 'pertumbuhan', 'global', 'daerah', 'jawa', 'proses', 'pertumbuhan_ekonomi', 'pasar', 'koperasi', 'kawasan', 'meningkatkan', 'dunia', 'kondisi', 'produk', 'keluarga', 'pemerintah', 'ekonomi', 'kegiatan', 'industri', 'sistem', 'hidup', 'pelaku_usaha', 'ekspor']</t>
+          <t>['program', 'global', 'memiliki', 'indonesia', 'pertumbuhan_ekonomi', 'kondisi', 'kebijakan', 'pelaku_usaha', 'usaha', 'ekspor', 'ribu', 'industri', 'hukum', 'nasional', 'produk', 'keluarga', 'bali', 'daerah', 'pasar', 'negara', 'menteri', 'pemerintah', 'ekonomi', 'juta', 'dunia', 'wisata', 'kegiatan', 'jawa', 'koperasi', 'pertumbuhan']</t>
         </is>
       </c>
       <c r="F253" t="n">
